--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896104510771505</v>
+        <v>0.9896104510771506</v>
       </c>
       <c r="D2">
-        <v>1.007134019738056</v>
+        <v>1.007134019738055</v>
       </c>
       <c r="E2">
-        <v>0.9991104288164091</v>
+        <v>0.9991104288164094</v>
       </c>
       <c r="F2">
-        <v>0.9973952294588789</v>
+        <v>0.997395229458879</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.018494853063882</v>
       </c>
       <c r="L2">
-        <v>1.010582170706334</v>
+        <v>1.010582170706335</v>
       </c>
       <c r="M2">
-        <v>1.008890972551289</v>
+        <v>1.008890972551288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001571531729629</v>
+        <v>1.001571531729628</v>
       </c>
       <c r="D3">
-        <v>1.016614971841415</v>
+        <v>1.016614971841414</v>
       </c>
       <c r="E3">
-        <v>1.010597769288644</v>
+        <v>1.010597769288642</v>
       </c>
       <c r="F3">
-        <v>1.009483422086814</v>
+        <v>1.009483422086813</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043810754262421</v>
+        <v>1.04381075426242</v>
       </c>
       <c r="J3">
-        <v>1.022019446693622</v>
+        <v>1.022019446693621</v>
       </c>
       <c r="K3">
-        <v>1.027039584768139</v>
+        <v>1.027039584768138</v>
       </c>
       <c r="L3">
-        <v>1.021096821961602</v>
+        <v>1.021096821961601</v>
       </c>
       <c r="M3">
-        <v>1.019996381898256</v>
+        <v>1.019996381898255</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008928842047011</v>
+        <v>1.00892884204701</v>
       </c>
       <c r="D4">
-        <v>1.022444072527715</v>
+        <v>1.022444072527714</v>
       </c>
       <c r="E4">
         <v>1.017669755007506</v>
       </c>
       <c r="F4">
-        <v>1.016927820377052</v>
+        <v>1.016927820377051</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046701260354671</v>
       </c>
       <c r="J4">
-        <v>1.028106872384084</v>
+        <v>1.028106872384083</v>
       </c>
       <c r="K4">
-        <v>1.032278958534272</v>
+        <v>1.032278958534271</v>
       </c>
       <c r="L4">
-        <v>1.027559498443659</v>
+        <v>1.027559498443658</v>
       </c>
       <c r="M4">
-        <v>1.026826145860014</v>
+        <v>1.026826145860013</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011938726947116</v>
+        <v>1.011938726947118</v>
       </c>
       <c r="D5">
-        <v>1.024827932669585</v>
+        <v>1.024827932669586</v>
       </c>
       <c r="E5">
-        <v>1.020564248738294</v>
+        <v>1.020564248738296</v>
       </c>
       <c r="F5">
-        <v>1.019975375515898</v>
+        <v>1.0199753755159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047878604825873</v>
+        <v>1.047878604825874</v>
       </c>
       <c r="J5">
-        <v>1.030594743997123</v>
+        <v>1.030594743997125</v>
       </c>
       <c r="K5">
-        <v>1.034418337037952</v>
+        <v>1.034418337037953</v>
       </c>
       <c r="L5">
-        <v>1.03020211717229</v>
+        <v>1.030202117172292</v>
       </c>
       <c r="M5">
-        <v>1.029619837782492</v>
+        <v>1.029619837782494</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012439445994341</v>
+        <v>1.012439445994338</v>
       </c>
       <c r="D6">
-        <v>1.02522445327035</v>
+        <v>1.025224453270347</v>
       </c>
       <c r="E6">
-        <v>1.021045846889796</v>
+        <v>1.021045846889793</v>
       </c>
       <c r="F6">
-        <v>1.020482479077737</v>
+        <v>1.020482479077734</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048074159802047</v>
+        <v>1.048074159802046</v>
       </c>
       <c r="J6">
-        <v>1.031008472608403</v>
+        <v>1.0310084726084</v>
       </c>
       <c r="K6">
-        <v>1.034773999016925</v>
+        <v>1.034773999016922</v>
       </c>
       <c r="L6">
-        <v>1.030641661361979</v>
+        <v>1.030641661361976</v>
       </c>
       <c r="M6">
-        <v>1.03008456725212</v>
+        <v>1.030084567252117</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.022476179980245</v>
       </c>
       <c r="E7">
-        <v>1.017708730562638</v>
+        <v>1.017708730562639</v>
       </c>
       <c r="F7">
-        <v>1.016968854395115</v>
+        <v>1.016968854395116</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>1.010405688581779</v>
       </c>
       <c r="E8">
-        <v>1.003072538461305</v>
+        <v>1.003072538461304</v>
       </c>
       <c r="F8">
         <v>1.001564066508464</v>
@@ -676,7 +676,7 @@
         <v>1.014211050494667</v>
       </c>
       <c r="M8">
-        <v>1.012722893119739</v>
+        <v>1.012722893119738</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.963504867767576</v>
+        <v>0.9635048677675738</v>
       </c>
       <c r="D9">
-        <v>0.9864367617171188</v>
+        <v>0.9864367617171172</v>
       </c>
       <c r="E9">
-        <v>0.9740815625121697</v>
+        <v>0.9740815625121676</v>
       </c>
       <c r="F9">
-        <v>0.9710698992776872</v>
+        <v>0.9710698992776854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028624402172192</v>
+        <v>1.028624402172191</v>
       </c>
       <c r="J9">
-        <v>0.9904156188760591</v>
+        <v>0.9904156188760572</v>
       </c>
       <c r="K9">
-        <v>0.9997537940296813</v>
+        <v>0.9997537940296799</v>
       </c>
       <c r="L9">
-        <v>0.9876096278566026</v>
+        <v>0.9876096278566007</v>
       </c>
       <c r="M9">
-        <v>0.9846504598485701</v>
+        <v>0.9846504598485684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9402272755436847</v>
+        <v>0.940227275543681</v>
       </c>
       <c r="D10">
-        <v>0.9679950845969888</v>
+        <v>0.9679950845969857</v>
       </c>
       <c r="E10">
-        <v>0.951814694366084</v>
+        <v>0.9518146943660801</v>
       </c>
       <c r="F10">
-        <v>0.947657978241476</v>
+        <v>0.9476579782414724</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019198956519932</v>
+        <v>1.01919895651993</v>
       </c>
       <c r="J10">
-        <v>0.9710309333886173</v>
+        <v>0.9710309333886137</v>
       </c>
       <c r="K10">
-        <v>0.9829672842345041</v>
+        <v>0.9829672842345007</v>
       </c>
       <c r="L10">
-        <v>0.9671120862451956</v>
+        <v>0.967112086245192</v>
       </c>
       <c r="M10">
-        <v>0.9630412804918621</v>
+        <v>0.9630412804918586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9291345421755443</v>
+        <v>0.9291345421755447</v>
       </c>
       <c r="D11">
-        <v>0.9592167719176674</v>
+        <v>0.9592167719176675</v>
       </c>
       <c r="E11">
-        <v>0.9412210206055472</v>
+        <v>0.9412210206055478</v>
       </c>
       <c r="F11">
-        <v>0.9365205290160543</v>
+        <v>0.9365205290160549</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014681746838029</v>
+        <v>1.01468174683803</v>
       </c>
       <c r="J11">
-        <v>0.961784426351183</v>
+        <v>0.9617844263511833</v>
       </c>
       <c r="K11">
-        <v>0.974951082898461</v>
+        <v>0.9749510828984611</v>
       </c>
       <c r="L11">
-        <v>0.9573436085271759</v>
+        <v>0.9573436085271765</v>
       </c>
       <c r="M11">
-        <v>0.9527478109647386</v>
+        <v>0.952747810964739</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9248290608601254</v>
+        <v>0.9248290608601228</v>
       </c>
       <c r="D12">
-        <v>0.9558118768812341</v>
+        <v>0.9558118768812319</v>
       </c>
       <c r="E12">
-        <v>0.9371123569117188</v>
+        <v>0.9371123569117166</v>
       </c>
       <c r="F12">
-        <v>0.9322009634050301</v>
+        <v>0.9322009634050277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01292488342923</v>
+        <v>1.012924883429229</v>
       </c>
       <c r="J12">
-        <v>0.9581945263593395</v>
+        <v>0.9581945263593372</v>
       </c>
       <c r="K12">
-        <v>0.9718376113957502</v>
+        <v>0.9718376113957482</v>
       </c>
       <c r="L12">
-        <v>0.9535524172642934</v>
+        <v>0.9535524172642913</v>
       </c>
       <c r="M12">
-        <v>0.9487535314628426</v>
+        <v>0.9487535314628405</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9257616300203428</v>
+        <v>0.9257616300203422</v>
       </c>
       <c r="D13">
-        <v>0.9565492610942309</v>
+        <v>0.9565492610942308</v>
       </c>
       <c r="E13">
-        <v>0.9380021457371751</v>
+        <v>0.9380021457371743</v>
       </c>
       <c r="F13">
-        <v>0.9331364291301099</v>
+        <v>0.9331364291301095</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.013305576175963</v>
       </c>
       <c r="J13">
-        <v>0.9589721388731979</v>
+        <v>0.9589721388731974</v>
       </c>
       <c r="K13">
-        <v>0.9725120769712473</v>
+        <v>0.9725120769712472</v>
       </c>
       <c r="L13">
-        <v>0.954373570060001</v>
+        <v>0.9543735700600003</v>
       </c>
       <c r="M13">
-        <v>0.9496186434041554</v>
+        <v>0.949618643404155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287826566627053</v>
+        <v>0.9287826566627031</v>
       </c>
       <c r="D14">
-        <v>0.9589384398846078</v>
+        <v>0.9589384398846059</v>
       </c>
       <c r="E14">
-        <v>0.9408851549526664</v>
+        <v>0.9408851549526641</v>
       </c>
       <c r="F14">
-        <v>0.936167424148135</v>
+        <v>0.9361674241481326</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014538228990317</v>
+        <v>1.014538228990316</v>
       </c>
       <c r="J14">
-        <v>0.9614910429434714</v>
+        <v>0.9614910429434693</v>
       </c>
       <c r="K14">
-        <v>0.9746966593100791</v>
+        <v>0.9746966593100773</v>
       </c>
       <c r="L14">
-        <v>0.9570337471255693</v>
+        <v>0.9570337471255671</v>
       </c>
       <c r="M14">
-        <v>0.9524213378101366</v>
+        <v>0.9524213378101345</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9306183065227327</v>
+        <v>0.930618306522733</v>
       </c>
       <c r="D15">
-        <v>0.9603904866782658</v>
+        <v>0.9603904866782655</v>
       </c>
       <c r="E15">
-        <v>0.9426373639797216</v>
+        <v>0.9426373639797219</v>
       </c>
       <c r="F15">
-        <v>0.9380095688941157</v>
+        <v>0.938009568894116</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015286763874734</v>
       </c>
       <c r="J15">
-        <v>0.9630214719439063</v>
+        <v>0.9630214719439065</v>
       </c>
       <c r="K15">
-        <v>0.9760238065435232</v>
+        <v>0.9760238065435231</v>
       </c>
       <c r="L15">
-        <v>0.9586501881527882</v>
+        <v>0.9586501881527884</v>
       </c>
       <c r="M15">
-        <v>0.9541244629825782</v>
+        <v>0.9541244629825788</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9409395404892689</v>
+        <v>0.9409395404892711</v>
       </c>
       <c r="D16">
-        <v>0.9685590007641728</v>
+        <v>0.9685590007641751</v>
       </c>
       <c r="E16">
-        <v>0.9524953047337102</v>
+        <v>0.9524953047337125</v>
       </c>
       <c r="F16">
-        <v>0.9483735330675186</v>
+        <v>0.948373533067521</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01948850950346</v>
+        <v>1.019488509503462</v>
       </c>
       <c r="J16">
-        <v>0.9716244970568606</v>
+        <v>0.9716244970568628</v>
       </c>
       <c r="K16">
-        <v>0.9834816975025007</v>
+        <v>0.9834816975025029</v>
       </c>
       <c r="L16">
-        <v>0.967739338402875</v>
+        <v>0.967739338402877</v>
       </c>
       <c r="M16">
-        <v>0.963702335930256</v>
+        <v>0.9637023359302581</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471223478655822</v>
+        <v>0.9471223478655779</v>
       </c>
       <c r="D17">
-        <v>0.973455222385497</v>
+        <v>0.9734552223854932</v>
       </c>
       <c r="E17">
-        <v>0.9584052862410132</v>
+        <v>0.9584052862410086</v>
       </c>
       <c r="F17">
-        <v>0.9545870458808963</v>
+        <v>0.9545870458808919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021999188494132</v>
+        <v>1.02199918849413</v>
       </c>
       <c r="J17">
-        <v>0.9767759713400809</v>
+        <v>0.9767759713400769</v>
       </c>
       <c r="K17">
-        <v>0.9879452558428009</v>
+        <v>0.9879452558427974</v>
       </c>
       <c r="L17">
-        <v>0.9731841651082025</v>
+        <v>0.9731841651081979</v>
       </c>
       <c r="M17">
-        <v>0.9694411094161474</v>
+        <v>0.9694411094161433</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9506335718417571</v>
+        <v>0.9506335718417566</v>
       </c>
       <c r="D18">
-        <v>0.9762366357992354</v>
+        <v>0.976236635799235</v>
       </c>
       <c r="E18">
-        <v>0.961763118784595</v>
+        <v>0.9617631187845945</v>
       </c>
       <c r="F18">
-        <v>0.95811743555231</v>
+        <v>0.9581174355523099</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023422658045481</v>
       </c>
       <c r="J18">
-        <v>0.9797006651869864</v>
+        <v>0.979700665186986</v>
       </c>
       <c r="K18">
-        <v>0.9904785629515376</v>
+        <v>0.9904785629515369</v>
       </c>
       <c r="L18">
-        <v>0.9762762102574436</v>
+        <v>0.9762762102574433</v>
       </c>
       <c r="M18">
-        <v>0.9727005218728167</v>
+        <v>0.9727005218728165</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9518155137302561</v>
+        <v>0.9518155137302566</v>
       </c>
       <c r="D19">
-        <v>0.9771730340321874</v>
+        <v>0.977173034032188</v>
       </c>
       <c r="E19">
-        <v>0.9628936765505501</v>
+        <v>0.9628936765505504</v>
       </c>
       <c r="F19">
-        <v>0.9593061130046746</v>
+        <v>0.9593061130046751</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023901418932609</v>
       </c>
       <c r="J19">
-        <v>0.9806850207741585</v>
+        <v>0.980685020774159</v>
       </c>
       <c r="K19">
-        <v>0.9913310468661577</v>
+        <v>0.9913310468661584</v>
       </c>
       <c r="L19">
-        <v>0.9773170263626578</v>
+        <v>0.9773170263626583</v>
       </c>
       <c r="M19">
-        <v>0.9737977513779469</v>
+        <v>0.9737977513779473</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9464690327653948</v>
+        <v>0.9464690327653936</v>
       </c>
       <c r="D20">
-        <v>0.9729377633614834</v>
+        <v>0.972937763361482</v>
       </c>
       <c r="E20">
-        <v>0.9577806350491429</v>
+        <v>0.9577806350491415</v>
       </c>
       <c r="F20">
-        <v>0.9539303034334985</v>
+        <v>0.9539303034334973</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02173413779279</v>
       </c>
       <c r="J20">
-        <v>0.9762317187663009</v>
+        <v>0.9762317187662995</v>
       </c>
       <c r="K20">
-        <v>0.9874737674797768</v>
+        <v>0.9874737674797754</v>
       </c>
       <c r="L20">
-        <v>0.9726088357238607</v>
+        <v>0.9726088357238594</v>
       </c>
       <c r="M20">
-        <v>0.9688346745182573</v>
+        <v>0.9688346745182559</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.927898470364484</v>
+        <v>0.9278984703644847</v>
       </c>
       <c r="D21">
-        <v>0.958239111633307</v>
+        <v>0.9582391116333077</v>
       </c>
       <c r="E21">
-        <v>0.9400412736162496</v>
+        <v>0.94004127361625</v>
       </c>
       <c r="F21">
-        <v>0.9352802276566928</v>
+        <v>0.9352802276566936</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.014177554219451</v>
       </c>
       <c r="J21">
-        <v>0.9607538407664535</v>
+        <v>0.9607538407664544</v>
       </c>
       <c r="K21">
-        <v>0.9740573346759483</v>
+        <v>0.9740573346759491</v>
       </c>
       <c r="L21">
-        <v>0.9562551615361031</v>
+        <v>0.9562551615361039</v>
       </c>
       <c r="M21">
-        <v>0.9516010224162126</v>
+        <v>0.9516010224162132</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9151256724430589</v>
+        <v>0.9151256724430584</v>
       </c>
       <c r="D22">
-        <v>0.9481435418043002</v>
+        <v>0.9481435418042998</v>
       </c>
       <c r="E22">
-        <v>0.9278590650648444</v>
+        <v>0.9278590650648437</v>
       </c>
       <c r="F22">
-        <v>0.9224724639366496</v>
+        <v>0.9224724639366492</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.008959105577587</v>
       </c>
       <c r="J22">
-        <v>0.9501024746116558</v>
+        <v>0.9501024746116553</v>
       </c>
       <c r="K22">
-        <v>0.964817371221929</v>
+        <v>0.9648173712219287</v>
       </c>
       <c r="L22">
-        <v>0.9450092100953315</v>
+        <v>0.9450092100953306</v>
       </c>
       <c r="M22">
-        <v>0.9397538365785156</v>
+        <v>0.9397538365785152</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9220149200511482</v>
+        <v>0.9220149200511477</v>
       </c>
       <c r="D23">
         <v>0.9535871398594939</v>
       </c>
       <c r="E23">
-        <v>0.9344278153233021</v>
+        <v>0.9344278153233017</v>
       </c>
       <c r="F23">
-        <v>0.9293785968369426</v>
+        <v>0.9293785968369425</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.011775598669274</v>
       </c>
       <c r="J23">
-        <v>0.9558478712835191</v>
+        <v>0.9558478712835188</v>
       </c>
       <c r="K23">
         <v>0.9698020618238341</v>
       </c>
       <c r="L23">
-        <v>0.9510745698002717</v>
+        <v>0.9510745698002716</v>
       </c>
       <c r="M23">
-        <v>0.9461431282195992</v>
+        <v>0.9461431282195994</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9467645292760526</v>
+        <v>0.9467645292760513</v>
       </c>
       <c r="D24">
-        <v>0.9731718091536498</v>
+        <v>0.9731718091536488</v>
       </c>
       <c r="E24">
-        <v>0.9580631619834131</v>
+        <v>0.9580631619834119</v>
       </c>
       <c r="F24">
-        <v>0.9542273447700879</v>
+        <v>0.9542273447700865</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021854028429173</v>
       </c>
       <c r="J24">
-        <v>0.9764778885784003</v>
+        <v>0.9764778885783991</v>
       </c>
       <c r="K24">
-        <v>0.9876870280568064</v>
+        <v>0.9876870280568055</v>
       </c>
       <c r="L24">
-        <v>0.9728690593176279</v>
+        <v>0.9728690593176269</v>
       </c>
       <c r="M24">
-        <v>0.9691089658751421</v>
+        <v>0.9691089658751408</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9717971405718187</v>
+        <v>0.9717971405718205</v>
       </c>
       <c r="D25">
-        <v>0.9930105584491127</v>
+        <v>0.9930105584491145</v>
       </c>
       <c r="E25">
-        <v>0.9820254130258631</v>
+        <v>0.9820254130258654</v>
       </c>
       <c r="F25">
-        <v>0.9794237683600093</v>
+        <v>0.9794237683600117</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031960216682699</v>
+        <v>1.0319602166827</v>
       </c>
       <c r="J25">
-        <v>0.9973124029722584</v>
+        <v>0.9973124029722602</v>
       </c>
       <c r="K25">
-        <v>1.005718354236754</v>
+        <v>1.005718354236756</v>
       </c>
       <c r="L25">
-        <v>0.9949093208725927</v>
+        <v>0.994909320872595</v>
       </c>
       <c r="M25">
-        <v>0.9923501291273131</v>
+        <v>0.9923501291273155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896104510771506</v>
+        <v>0.9896104510771505</v>
       </c>
       <c r="D2">
-        <v>1.007134019738055</v>
+        <v>1.007134019738056</v>
       </c>
       <c r="E2">
-        <v>0.9991104288164094</v>
+        <v>0.9991104288164091</v>
       </c>
       <c r="F2">
-        <v>0.997395229458879</v>
+        <v>0.9973952294588789</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.018494853063882</v>
       </c>
       <c r="L2">
-        <v>1.010582170706335</v>
+        <v>1.010582170706334</v>
       </c>
       <c r="M2">
-        <v>1.008890972551288</v>
+        <v>1.008890972551289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001571531729628</v>
+        <v>1.001571531729629</v>
       </c>
       <c r="D3">
-        <v>1.016614971841414</v>
+        <v>1.016614971841415</v>
       </c>
       <c r="E3">
-        <v>1.010597769288642</v>
+        <v>1.010597769288644</v>
       </c>
       <c r="F3">
-        <v>1.009483422086813</v>
+        <v>1.009483422086814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04381075426242</v>
+        <v>1.043810754262421</v>
       </c>
       <c r="J3">
-        <v>1.022019446693621</v>
+        <v>1.022019446693622</v>
       </c>
       <c r="K3">
-        <v>1.027039584768138</v>
+        <v>1.027039584768139</v>
       </c>
       <c r="L3">
-        <v>1.021096821961601</v>
+        <v>1.021096821961602</v>
       </c>
       <c r="M3">
-        <v>1.019996381898255</v>
+        <v>1.019996381898256</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00892884204701</v>
+        <v>1.008928842047011</v>
       </c>
       <c r="D4">
-        <v>1.022444072527714</v>
+        <v>1.022444072527715</v>
       </c>
       <c r="E4">
         <v>1.017669755007506</v>
       </c>
       <c r="F4">
-        <v>1.016927820377051</v>
+        <v>1.016927820377052</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046701260354671</v>
       </c>
       <c r="J4">
-        <v>1.028106872384083</v>
+        <v>1.028106872384084</v>
       </c>
       <c r="K4">
-        <v>1.032278958534271</v>
+        <v>1.032278958534272</v>
       </c>
       <c r="L4">
-        <v>1.027559498443658</v>
+        <v>1.027559498443659</v>
       </c>
       <c r="M4">
-        <v>1.026826145860013</v>
+        <v>1.026826145860014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011938726947118</v>
+        <v>1.011938726947116</v>
       </c>
       <c r="D5">
-        <v>1.024827932669586</v>
+        <v>1.024827932669585</v>
       </c>
       <c r="E5">
-        <v>1.020564248738296</v>
+        <v>1.020564248738294</v>
       </c>
       <c r="F5">
-        <v>1.0199753755159</v>
+        <v>1.019975375515898</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047878604825874</v>
+        <v>1.047878604825873</v>
       </c>
       <c r="J5">
-        <v>1.030594743997125</v>
+        <v>1.030594743997123</v>
       </c>
       <c r="K5">
-        <v>1.034418337037953</v>
+        <v>1.034418337037952</v>
       </c>
       <c r="L5">
-        <v>1.030202117172292</v>
+        <v>1.03020211717229</v>
       </c>
       <c r="M5">
-        <v>1.029619837782494</v>
+        <v>1.029619837782492</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012439445994338</v>
+        <v>1.012439445994341</v>
       </c>
       <c r="D6">
-        <v>1.025224453270347</v>
+        <v>1.02522445327035</v>
       </c>
       <c r="E6">
-        <v>1.021045846889793</v>
+        <v>1.021045846889796</v>
       </c>
       <c r="F6">
-        <v>1.020482479077734</v>
+        <v>1.020482479077737</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048074159802046</v>
+        <v>1.048074159802047</v>
       </c>
       <c r="J6">
-        <v>1.0310084726084</v>
+        <v>1.031008472608403</v>
       </c>
       <c r="K6">
-        <v>1.034773999016922</v>
+        <v>1.034773999016925</v>
       </c>
       <c r="L6">
-        <v>1.030641661361976</v>
+        <v>1.030641661361979</v>
       </c>
       <c r="M6">
-        <v>1.030084567252117</v>
+        <v>1.03008456725212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.022476179980245</v>
       </c>
       <c r="E7">
-        <v>1.017708730562639</v>
+        <v>1.017708730562638</v>
       </c>
       <c r="F7">
-        <v>1.016968854395116</v>
+        <v>1.016968854395115</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>1.010405688581779</v>
       </c>
       <c r="E8">
-        <v>1.003072538461304</v>
+        <v>1.003072538461305</v>
       </c>
       <c r="F8">
         <v>1.001564066508464</v>
@@ -676,7 +676,7 @@
         <v>1.014211050494667</v>
       </c>
       <c r="M8">
-        <v>1.012722893119738</v>
+        <v>1.012722893119739</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9635048677675738</v>
+        <v>0.963504867767576</v>
       </c>
       <c r="D9">
-        <v>0.9864367617171172</v>
+        <v>0.9864367617171188</v>
       </c>
       <c r="E9">
-        <v>0.9740815625121676</v>
+        <v>0.9740815625121697</v>
       </c>
       <c r="F9">
-        <v>0.9710698992776854</v>
+        <v>0.9710698992776872</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028624402172191</v>
+        <v>1.028624402172192</v>
       </c>
       <c r="J9">
-        <v>0.9904156188760572</v>
+        <v>0.9904156188760591</v>
       </c>
       <c r="K9">
-        <v>0.9997537940296799</v>
+        <v>0.9997537940296813</v>
       </c>
       <c r="L9">
-        <v>0.9876096278566007</v>
+        <v>0.9876096278566026</v>
       </c>
       <c r="M9">
-        <v>0.9846504598485684</v>
+        <v>0.9846504598485701</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.940227275543681</v>
+        <v>0.9402272755436847</v>
       </c>
       <c r="D10">
-        <v>0.9679950845969857</v>
+        <v>0.9679950845969888</v>
       </c>
       <c r="E10">
-        <v>0.9518146943660801</v>
+        <v>0.951814694366084</v>
       </c>
       <c r="F10">
-        <v>0.9476579782414724</v>
+        <v>0.947657978241476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01919895651993</v>
+        <v>1.019198956519932</v>
       </c>
       <c r="J10">
-        <v>0.9710309333886137</v>
+        <v>0.9710309333886173</v>
       </c>
       <c r="K10">
-        <v>0.9829672842345007</v>
+        <v>0.9829672842345041</v>
       </c>
       <c r="L10">
-        <v>0.967112086245192</v>
+        <v>0.9671120862451956</v>
       </c>
       <c r="M10">
-        <v>0.9630412804918586</v>
+        <v>0.9630412804918621</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9291345421755447</v>
+        <v>0.9291345421755443</v>
       </c>
       <c r="D11">
-        <v>0.9592167719176675</v>
+        <v>0.9592167719176674</v>
       </c>
       <c r="E11">
-        <v>0.9412210206055478</v>
+        <v>0.9412210206055472</v>
       </c>
       <c r="F11">
-        <v>0.9365205290160549</v>
+        <v>0.9365205290160543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01468174683803</v>
+        <v>1.014681746838029</v>
       </c>
       <c r="J11">
-        <v>0.9617844263511833</v>
+        <v>0.961784426351183</v>
       </c>
       <c r="K11">
-        <v>0.9749510828984611</v>
+        <v>0.974951082898461</v>
       </c>
       <c r="L11">
-        <v>0.9573436085271765</v>
+        <v>0.9573436085271759</v>
       </c>
       <c r="M11">
-        <v>0.952747810964739</v>
+        <v>0.9527478109647386</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9248290608601228</v>
+        <v>0.9248290608601254</v>
       </c>
       <c r="D12">
-        <v>0.9558118768812319</v>
+        <v>0.9558118768812341</v>
       </c>
       <c r="E12">
-        <v>0.9371123569117166</v>
+        <v>0.9371123569117188</v>
       </c>
       <c r="F12">
-        <v>0.9322009634050277</v>
+        <v>0.9322009634050301</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012924883429229</v>
+        <v>1.01292488342923</v>
       </c>
       <c r="J12">
-        <v>0.9581945263593372</v>
+        <v>0.9581945263593395</v>
       </c>
       <c r="K12">
-        <v>0.9718376113957482</v>
+        <v>0.9718376113957502</v>
       </c>
       <c r="L12">
-        <v>0.9535524172642913</v>
+        <v>0.9535524172642934</v>
       </c>
       <c r="M12">
-        <v>0.9487535314628405</v>
+        <v>0.9487535314628426</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9257616300203422</v>
+        <v>0.9257616300203428</v>
       </c>
       <c r="D13">
-        <v>0.9565492610942308</v>
+        <v>0.9565492610942309</v>
       </c>
       <c r="E13">
-        <v>0.9380021457371743</v>
+        <v>0.9380021457371751</v>
       </c>
       <c r="F13">
-        <v>0.9331364291301095</v>
+        <v>0.9331364291301099</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.013305576175963</v>
       </c>
       <c r="J13">
-        <v>0.9589721388731974</v>
+        <v>0.9589721388731979</v>
       </c>
       <c r="K13">
-        <v>0.9725120769712472</v>
+        <v>0.9725120769712473</v>
       </c>
       <c r="L13">
-        <v>0.9543735700600003</v>
+        <v>0.954373570060001</v>
       </c>
       <c r="M13">
-        <v>0.949618643404155</v>
+        <v>0.9496186434041554</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287826566627031</v>
+        <v>0.9287826566627053</v>
       </c>
       <c r="D14">
-        <v>0.9589384398846059</v>
+        <v>0.9589384398846078</v>
       </c>
       <c r="E14">
-        <v>0.9408851549526641</v>
+        <v>0.9408851549526664</v>
       </c>
       <c r="F14">
-        <v>0.9361674241481326</v>
+        <v>0.936167424148135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014538228990316</v>
+        <v>1.014538228990317</v>
       </c>
       <c r="J14">
-        <v>0.9614910429434693</v>
+        <v>0.9614910429434714</v>
       </c>
       <c r="K14">
-        <v>0.9746966593100773</v>
+        <v>0.9746966593100791</v>
       </c>
       <c r="L14">
-        <v>0.9570337471255671</v>
+        <v>0.9570337471255693</v>
       </c>
       <c r="M14">
-        <v>0.9524213378101345</v>
+        <v>0.9524213378101366</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.930618306522733</v>
+        <v>0.9306183065227327</v>
       </c>
       <c r="D15">
-        <v>0.9603904866782655</v>
+        <v>0.9603904866782658</v>
       </c>
       <c r="E15">
-        <v>0.9426373639797219</v>
+        <v>0.9426373639797216</v>
       </c>
       <c r="F15">
-        <v>0.938009568894116</v>
+        <v>0.9380095688941157</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015286763874734</v>
       </c>
       <c r="J15">
-        <v>0.9630214719439065</v>
+        <v>0.9630214719439063</v>
       </c>
       <c r="K15">
-        <v>0.9760238065435231</v>
+        <v>0.9760238065435232</v>
       </c>
       <c r="L15">
-        <v>0.9586501881527884</v>
+        <v>0.9586501881527882</v>
       </c>
       <c r="M15">
-        <v>0.9541244629825788</v>
+        <v>0.9541244629825782</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9409395404892711</v>
+        <v>0.9409395404892689</v>
       </c>
       <c r="D16">
-        <v>0.9685590007641751</v>
+        <v>0.9685590007641728</v>
       </c>
       <c r="E16">
-        <v>0.9524953047337125</v>
+        <v>0.9524953047337102</v>
       </c>
       <c r="F16">
-        <v>0.948373533067521</v>
+        <v>0.9483735330675186</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019488509503462</v>
+        <v>1.01948850950346</v>
       </c>
       <c r="J16">
-        <v>0.9716244970568628</v>
+        <v>0.9716244970568606</v>
       </c>
       <c r="K16">
-        <v>0.9834816975025029</v>
+        <v>0.9834816975025007</v>
       </c>
       <c r="L16">
-        <v>0.967739338402877</v>
+        <v>0.967739338402875</v>
       </c>
       <c r="M16">
-        <v>0.9637023359302581</v>
+        <v>0.963702335930256</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471223478655779</v>
+        <v>0.9471223478655822</v>
       </c>
       <c r="D17">
-        <v>0.9734552223854932</v>
+        <v>0.973455222385497</v>
       </c>
       <c r="E17">
-        <v>0.9584052862410086</v>
+        <v>0.9584052862410132</v>
       </c>
       <c r="F17">
-        <v>0.9545870458808919</v>
+        <v>0.9545870458808963</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02199918849413</v>
+        <v>1.021999188494132</v>
       </c>
       <c r="J17">
-        <v>0.9767759713400769</v>
+        <v>0.9767759713400809</v>
       </c>
       <c r="K17">
-        <v>0.9879452558427974</v>
+        <v>0.9879452558428009</v>
       </c>
       <c r="L17">
-        <v>0.9731841651081979</v>
+        <v>0.9731841651082025</v>
       </c>
       <c r="M17">
-        <v>0.9694411094161433</v>
+        <v>0.9694411094161474</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9506335718417566</v>
+        <v>0.9506335718417571</v>
       </c>
       <c r="D18">
-        <v>0.976236635799235</v>
+        <v>0.9762366357992354</v>
       </c>
       <c r="E18">
-        <v>0.9617631187845945</v>
+        <v>0.961763118784595</v>
       </c>
       <c r="F18">
-        <v>0.9581174355523099</v>
+        <v>0.95811743555231</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023422658045481</v>
       </c>
       <c r="J18">
-        <v>0.979700665186986</v>
+        <v>0.9797006651869864</v>
       </c>
       <c r="K18">
-        <v>0.9904785629515369</v>
+        <v>0.9904785629515376</v>
       </c>
       <c r="L18">
-        <v>0.9762762102574433</v>
+        <v>0.9762762102574436</v>
       </c>
       <c r="M18">
-        <v>0.9727005218728165</v>
+        <v>0.9727005218728167</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9518155137302566</v>
+        <v>0.9518155137302561</v>
       </c>
       <c r="D19">
-        <v>0.977173034032188</v>
+        <v>0.9771730340321874</v>
       </c>
       <c r="E19">
-        <v>0.9628936765505504</v>
+        <v>0.9628936765505501</v>
       </c>
       <c r="F19">
-        <v>0.9593061130046751</v>
+        <v>0.9593061130046746</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.023901418932609</v>
       </c>
       <c r="J19">
-        <v>0.980685020774159</v>
+        <v>0.9806850207741585</v>
       </c>
       <c r="K19">
-        <v>0.9913310468661584</v>
+        <v>0.9913310468661577</v>
       </c>
       <c r="L19">
-        <v>0.9773170263626583</v>
+        <v>0.9773170263626578</v>
       </c>
       <c r="M19">
-        <v>0.9737977513779473</v>
+        <v>0.9737977513779469</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9464690327653936</v>
+        <v>0.9464690327653948</v>
       </c>
       <c r="D20">
-        <v>0.972937763361482</v>
+        <v>0.9729377633614834</v>
       </c>
       <c r="E20">
-        <v>0.9577806350491415</v>
+        <v>0.9577806350491429</v>
       </c>
       <c r="F20">
-        <v>0.9539303034334973</v>
+        <v>0.9539303034334985</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02173413779279</v>
       </c>
       <c r="J20">
-        <v>0.9762317187662995</v>
+        <v>0.9762317187663009</v>
       </c>
       <c r="K20">
-        <v>0.9874737674797754</v>
+        <v>0.9874737674797768</v>
       </c>
       <c r="L20">
-        <v>0.9726088357238594</v>
+        <v>0.9726088357238607</v>
       </c>
       <c r="M20">
-        <v>0.9688346745182559</v>
+        <v>0.9688346745182573</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9278984703644847</v>
+        <v>0.927898470364484</v>
       </c>
       <c r="D21">
-        <v>0.9582391116333077</v>
+        <v>0.958239111633307</v>
       </c>
       <c r="E21">
-        <v>0.94004127361625</v>
+        <v>0.9400412736162496</v>
       </c>
       <c r="F21">
-        <v>0.9352802276566936</v>
+        <v>0.9352802276566928</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.014177554219451</v>
       </c>
       <c r="J21">
-        <v>0.9607538407664544</v>
+        <v>0.9607538407664535</v>
       </c>
       <c r="K21">
-        <v>0.9740573346759491</v>
+        <v>0.9740573346759483</v>
       </c>
       <c r="L21">
-        <v>0.9562551615361039</v>
+        <v>0.9562551615361031</v>
       </c>
       <c r="M21">
-        <v>0.9516010224162132</v>
+        <v>0.9516010224162126</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9151256724430584</v>
+        <v>0.9151256724430589</v>
       </c>
       <c r="D22">
-        <v>0.9481435418042998</v>
+        <v>0.9481435418043002</v>
       </c>
       <c r="E22">
-        <v>0.9278590650648437</v>
+        <v>0.9278590650648444</v>
       </c>
       <c r="F22">
-        <v>0.9224724639366492</v>
+        <v>0.9224724639366496</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.008959105577587</v>
       </c>
       <c r="J22">
-        <v>0.9501024746116553</v>
+        <v>0.9501024746116558</v>
       </c>
       <c r="K22">
-        <v>0.9648173712219287</v>
+        <v>0.964817371221929</v>
       </c>
       <c r="L22">
-        <v>0.9450092100953306</v>
+        <v>0.9450092100953315</v>
       </c>
       <c r="M22">
-        <v>0.9397538365785152</v>
+        <v>0.9397538365785156</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9220149200511477</v>
+        <v>0.9220149200511482</v>
       </c>
       <c r="D23">
         <v>0.9535871398594939</v>
       </c>
       <c r="E23">
-        <v>0.9344278153233017</v>
+        <v>0.9344278153233021</v>
       </c>
       <c r="F23">
-        <v>0.9293785968369425</v>
+        <v>0.9293785968369426</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.011775598669274</v>
       </c>
       <c r="J23">
-        <v>0.9558478712835188</v>
+        <v>0.9558478712835191</v>
       </c>
       <c r="K23">
         <v>0.9698020618238341</v>
       </c>
       <c r="L23">
-        <v>0.9510745698002716</v>
+        <v>0.9510745698002717</v>
       </c>
       <c r="M23">
-        <v>0.9461431282195994</v>
+        <v>0.9461431282195992</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9467645292760513</v>
+        <v>0.9467645292760526</v>
       </c>
       <c r="D24">
-        <v>0.9731718091536488</v>
+        <v>0.9731718091536498</v>
       </c>
       <c r="E24">
-        <v>0.9580631619834119</v>
+        <v>0.9580631619834131</v>
       </c>
       <c r="F24">
-        <v>0.9542273447700865</v>
+        <v>0.9542273447700879</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021854028429173</v>
       </c>
       <c r="J24">
-        <v>0.9764778885783991</v>
+        <v>0.9764778885784003</v>
       </c>
       <c r="K24">
-        <v>0.9876870280568055</v>
+        <v>0.9876870280568064</v>
       </c>
       <c r="L24">
-        <v>0.9728690593176269</v>
+        <v>0.9728690593176279</v>
       </c>
       <c r="M24">
-        <v>0.9691089658751408</v>
+        <v>0.9691089658751421</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9717971405718205</v>
+        <v>0.9717971405718187</v>
       </c>
       <c r="D25">
-        <v>0.9930105584491145</v>
+        <v>0.9930105584491127</v>
       </c>
       <c r="E25">
-        <v>0.9820254130258654</v>
+        <v>0.9820254130258631</v>
       </c>
       <c r="F25">
-        <v>0.9794237683600117</v>
+        <v>0.9794237683600093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0319602166827</v>
+        <v>1.031960216682699</v>
       </c>
       <c r="J25">
-        <v>0.9973124029722602</v>
+        <v>0.9973124029722584</v>
       </c>
       <c r="K25">
-        <v>1.005718354236756</v>
+        <v>1.005718354236754</v>
       </c>
       <c r="L25">
-        <v>0.994909320872595</v>
+        <v>0.9949093208725927</v>
       </c>
       <c r="M25">
-        <v>0.9923501291273155</v>
+        <v>0.9923501291273131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896104510771505</v>
+        <v>0.9927882300917158</v>
       </c>
       <c r="D2">
-        <v>1.007134019738056</v>
+        <v>1.00961825624668</v>
       </c>
       <c r="E2">
-        <v>0.9991104288164091</v>
+        <v>1.002256246155036</v>
       </c>
       <c r="F2">
-        <v>0.9973952294588789</v>
+        <v>1.000415861838704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039077004571086</v>
+        <v>1.040477647173801</v>
       </c>
       <c r="J2">
-        <v>1.012106415460395</v>
+        <v>1.015186804573915</v>
       </c>
       <c r="K2">
-        <v>1.018494853063882</v>
+        <v>1.020945200268513</v>
       </c>
       <c r="L2">
-        <v>1.010582170706334</v>
+        <v>1.013684237127888</v>
       </c>
       <c r="M2">
-        <v>1.008890972551289</v>
+        <v>1.011869406084197</v>
+      </c>
+      <c r="N2">
+        <v>1.016628486279964</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001571531729629</v>
+        <v>1.004706062717176</v>
       </c>
       <c r="D3">
-        <v>1.016614971841415</v>
+        <v>1.019067529064187</v>
       </c>
       <c r="E3">
-        <v>1.010597769288644</v>
+        <v>1.013704456512204</v>
       </c>
       <c r="F3">
-        <v>1.009483422086814</v>
+        <v>1.012460408011464</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043810754262421</v>
+        <v>1.045195713649029</v>
       </c>
       <c r="J3">
-        <v>1.022019446693622</v>
+        <v>1.025069252709328</v>
       </c>
       <c r="K3">
-        <v>1.027039584768139</v>
+        <v>1.029462114541752</v>
       </c>
       <c r="L3">
-        <v>1.021096821961602</v>
+        <v>1.024164938497491</v>
       </c>
       <c r="M3">
-        <v>1.019996381898256</v>
+        <v>1.022936299938072</v>
+      </c>
+      <c r="N3">
+        <v>1.026524968625262</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008928842047011</v>
+        <v>1.012039402597674</v>
       </c>
       <c r="D4">
-        <v>1.022444072527715</v>
+        <v>1.02487916553163</v>
       </c>
       <c r="E4">
-        <v>1.017669755007506</v>
+        <v>1.020754811762905</v>
       </c>
       <c r="F4">
-        <v>1.016927820377052</v>
+        <v>1.019880522905073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046701260354671</v>
+        <v>1.048077698955725</v>
       </c>
       <c r="J4">
-        <v>1.028106872384084</v>
+        <v>1.031140073771277</v>
       </c>
       <c r="K4">
-        <v>1.032278958534272</v>
+        <v>1.034686314769744</v>
       </c>
       <c r="L4">
-        <v>1.027559498443659</v>
+        <v>1.03060903514505</v>
       </c>
       <c r="M4">
-        <v>1.026826145860014</v>
+        <v>1.02974478554179</v>
+      </c>
+      <c r="N4">
+        <v>1.032604410949452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011938726947116</v>
+        <v>1.015040030550882</v>
       </c>
       <c r="D5">
-        <v>1.024827932669585</v>
+        <v>1.027256305019007</v>
       </c>
       <c r="E5">
-        <v>1.020564248738294</v>
+        <v>1.023640965817288</v>
       </c>
       <c r="F5">
-        <v>1.019975375515898</v>
+        <v>1.022918678642927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047878604825873</v>
+        <v>1.049251794974038</v>
       </c>
       <c r="J5">
-        <v>1.030594743997123</v>
+        <v>1.033621614903226</v>
       </c>
       <c r="K5">
-        <v>1.034418337037952</v>
+        <v>1.036819892749536</v>
       </c>
       <c r="L5">
-        <v>1.03020211717229</v>
+        <v>1.033244534856204</v>
       </c>
       <c r="M5">
-        <v>1.029619837782492</v>
+        <v>1.0325302769751</v>
+      </c>
+      <c r="N5">
+        <v>1.035089476154445</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012439445994341</v>
+        <v>1.01553923988411</v>
       </c>
       <c r="D6">
-        <v>1.02522445327035</v>
+        <v>1.027651730987257</v>
       </c>
       <c r="E6">
-        <v>1.021045846889796</v>
+        <v>1.024121204654201</v>
       </c>
       <c r="F6">
-        <v>1.020482479077737</v>
+        <v>1.023424247990566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048074159802047</v>
+        <v>1.049446822686317</v>
       </c>
       <c r="J6">
-        <v>1.031008472608403</v>
+        <v>1.034034315906555</v>
       </c>
       <c r="K6">
-        <v>1.034773999016925</v>
+        <v>1.037174612252398</v>
       </c>
       <c r="L6">
-        <v>1.030641661361979</v>
+        <v>1.03368292132006</v>
       </c>
       <c r="M6">
-        <v>1.03008456725212</v>
+        <v>1.032993670033782</v>
+      </c>
+      <c r="N6">
+        <v>1.035502763240537</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008969376754668</v>
+        <v>1.012079810554008</v>
       </c>
       <c r="D7">
-        <v>1.022476179980245</v>
+        <v>1.024911180863256</v>
       </c>
       <c r="E7">
-        <v>1.017708730562638</v>
+        <v>1.020793673071368</v>
       </c>
       <c r="F7">
-        <v>1.016968854395115</v>
+        <v>1.019921428308472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046717136494058</v>
+        <v>1.04809353044285</v>
       </c>
       <c r="J7">
-        <v>1.028140387069419</v>
+        <v>1.031173501444231</v>
       </c>
       <c r="K7">
-        <v>1.032307786191508</v>
+        <v>1.034715062761206</v>
       </c>
       <c r="L7">
-        <v>1.027595092261916</v>
+        <v>1.030644531258045</v>
       </c>
       <c r="M7">
-        <v>1.026863770635999</v>
+        <v>1.029782297963268</v>
+      </c>
+      <c r="N7">
+        <v>1.032637886093536</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993737398323412</v>
+        <v>0.9968996350318727</v>
       </c>
       <c r="D8">
-        <v>1.010405688581779</v>
+        <v>1.012878519434637</v>
       </c>
       <c r="E8">
-        <v>1.003072538461305</v>
+        <v>1.006204279995597</v>
       </c>
       <c r="F8">
-        <v>1.001564066508464</v>
+        <v>1.004569034946812</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040714797973498</v>
+        <v>1.042109765545605</v>
       </c>
       <c r="J8">
-        <v>1.015528838274332</v>
+        <v>1.018598156138385</v>
       </c>
       <c r="K8">
-        <v>1.021446529143545</v>
+        <v>1.023886823624687</v>
       </c>
       <c r="L8">
-        <v>1.014211050494667</v>
+        <v>1.017300861134986</v>
       </c>
       <c r="M8">
-        <v>1.012722893119739</v>
+        <v>1.015687469411983</v>
+      </c>
+      <c r="N8">
+        <v>1.020044682354943</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.963504867767576</v>
+        <v>0.9667977351238182</v>
       </c>
       <c r="D9">
-        <v>0.9864367617171188</v>
+        <v>0.9890059179996626</v>
       </c>
       <c r="E9">
-        <v>0.9740815625121697</v>
+        <v>0.9773319428142969</v>
       </c>
       <c r="F9">
-        <v>0.9710698992776872</v>
+        <v>0.9742059703148518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028624402172192</v>
+        <v>1.030067981557605</v>
       </c>
       <c r="J9">
-        <v>0.9904156188760591</v>
+        <v>0.993580004803875</v>
       </c>
       <c r="K9">
-        <v>0.9997537940296813</v>
+        <v>1.002279921044229</v>
       </c>
       <c r="L9">
-        <v>0.9876096278566026</v>
+        <v>0.9908038213050271</v>
       </c>
       <c r="M9">
-        <v>0.9846504598485701</v>
+        <v>0.9877318761856061</v>
+      </c>
+      <c r="N9">
+        <v>0.9949910023759158</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9402272755436847</v>
+        <v>0.9436515124274951</v>
       </c>
       <c r="D10">
-        <v>0.9679950845969888</v>
+        <v>0.9706616968542592</v>
       </c>
       <c r="E10">
-        <v>0.951814694366084</v>
+        <v>0.9551848881997529</v>
       </c>
       <c r="F10">
-        <v>0.947657978241476</v>
+        <v>0.9509250272436884</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019198956519932</v>
+        <v>1.020692707854307</v>
       </c>
       <c r="J10">
-        <v>0.9710309333886173</v>
+        <v>0.9742940121445881</v>
       </c>
       <c r="K10">
-        <v>0.9829672842345041</v>
+        <v>0.9855816679393281</v>
       </c>
       <c r="L10">
-        <v>0.9671120862451956</v>
+        <v>0.9704133488228388</v>
       </c>
       <c r="M10">
-        <v>0.9630412804918621</v>
+        <v>0.9662407232518698</v>
+      </c>
+      <c r="N10">
+        <v>0.9756776213949185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9291345421755443</v>
+        <v>0.932633018928643</v>
       </c>
       <c r="D11">
-        <v>0.9592167719176674</v>
+        <v>0.961938570408135</v>
       </c>
       <c r="E11">
-        <v>0.9412210206055472</v>
+        <v>0.9446590563085324</v>
       </c>
       <c r="F11">
-        <v>0.9365205290160543</v>
+        <v>0.9398613499952815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014681746838029</v>
+        <v>1.0162041599061</v>
       </c>
       <c r="J11">
-        <v>0.961784426351183</v>
+        <v>0.9651041205188388</v>
       </c>
       <c r="K11">
-        <v>0.974951082898461</v>
+        <v>0.9776158273155342</v>
       </c>
       <c r="L11">
-        <v>0.9573436085271759</v>
+        <v>0.960705945582543</v>
       </c>
       <c r="M11">
-        <v>0.9527478109647386</v>
+        <v>0.9560140785682867</v>
+      </c>
+      <c r="N11">
+        <v>0.9664746790689656</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9248290608601254</v>
+        <v>0.9283586776317709</v>
       </c>
       <c r="D12">
-        <v>0.9558118768812341</v>
+        <v>0.9585568366735285</v>
       </c>
       <c r="E12">
-        <v>0.9371123569117188</v>
+        <v>0.9405788698398823</v>
       </c>
       <c r="F12">
-        <v>0.9322009634050301</v>
+        <v>0.935572686807059</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01292488342923</v>
+        <v>1.014459365018829</v>
       </c>
       <c r="J12">
-        <v>0.9581945263593395</v>
+        <v>0.961538104969652</v>
       </c>
       <c r="K12">
-        <v>0.9718376113957502</v>
+        <v>0.9745235543471941</v>
       </c>
       <c r="L12">
-        <v>0.9535524172642934</v>
+        <v>0.9569404639339043</v>
       </c>
       <c r="M12">
-        <v>0.9487535314628426</v>
+        <v>0.9520478474080472</v>
+      </c>
+      <c r="N12">
+        <v>0.9629035993686711</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9257616300203428</v>
+        <v>0.9292843853244755</v>
       </c>
       <c r="D13">
-        <v>0.9565492610942309</v>
+        <v>0.9592891169408748</v>
       </c>
       <c r="E13">
-        <v>0.9380021457371751</v>
+        <v>0.9414623829839146</v>
       </c>
       <c r="F13">
-        <v>0.9331364291301099</v>
+        <v>0.9365013453324476</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013305576175963</v>
+        <v>1.01483739650152</v>
       </c>
       <c r="J13">
-        <v>0.9589721388731979</v>
+        <v>0.9623104484522611</v>
       </c>
       <c r="K13">
-        <v>0.9725120769712473</v>
+        <v>0.9751933456395693</v>
       </c>
       <c r="L13">
-        <v>0.954373570060001</v>
+        <v>0.9577559476144181</v>
       </c>
       <c r="M13">
-        <v>0.9496186434041554</v>
+        <v>0.9529067782921296</v>
+      </c>
+      <c r="N13">
+        <v>0.9636770396676146</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287826566627053</v>
+        <v>0.9322836275428655</v>
       </c>
       <c r="D14">
-        <v>0.9589384398846078</v>
+        <v>0.9616620932161655</v>
       </c>
       <c r="E14">
-        <v>0.9408851549526664</v>
+        <v>0.9443254710955601</v>
       </c>
       <c r="F14">
-        <v>0.936167424148135</v>
+        <v>0.9395107210618163</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014538228990317</v>
+        <v>1.016061607766798</v>
       </c>
       <c r="J14">
-        <v>0.9614910429434714</v>
+        <v>0.9648126473603188</v>
       </c>
       <c r="K14">
-        <v>0.9746966593100791</v>
+        <v>0.9773631001282606</v>
       </c>
       <c r="L14">
-        <v>0.9570337471255693</v>
+        <v>0.9603981415255309</v>
       </c>
       <c r="M14">
-        <v>0.9524213378101366</v>
+        <v>0.9556898515549063</v>
+      </c>
+      <c r="N14">
+        <v>0.9661827919851278</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9306183065227327</v>
+        <v>0.9341063640195671</v>
       </c>
       <c r="D15">
-        <v>0.9603904866782658</v>
+        <v>0.9631045370377849</v>
       </c>
       <c r="E15">
-        <v>0.9426373639797216</v>
+        <v>0.9460658739250083</v>
       </c>
       <c r="F15">
-        <v>0.9380095688941157</v>
+        <v>0.9413400449807561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015286763874734</v>
+        <v>1.016805144482922</v>
       </c>
       <c r="J15">
-        <v>0.9630214719439063</v>
+        <v>0.9663331914137346</v>
       </c>
       <c r="K15">
-        <v>0.9760238065435232</v>
+        <v>0.9786814671343699</v>
       </c>
       <c r="L15">
-        <v>0.9586501881527882</v>
+        <v>0.9620039342332016</v>
       </c>
       <c r="M15">
-        <v>0.9541244629825782</v>
+        <v>0.9573813480151458</v>
+      </c>
+      <c r="N15">
+        <v>0.9677054953855084</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9409395404892689</v>
+        <v>0.9443592879042274</v>
       </c>
       <c r="D16">
-        <v>0.9685590007641728</v>
+        <v>0.9712222776298219</v>
       </c>
       <c r="E16">
-        <v>0.9524953047337102</v>
+        <v>0.9558613985655074</v>
       </c>
       <c r="F16">
-        <v>0.9483735330675186</v>
+        <v>0.9516361159547073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01948850950346</v>
+        <v>1.020980533385618</v>
       </c>
       <c r="J16">
-        <v>0.9716244970568606</v>
+        <v>0.9748841687231673</v>
       </c>
       <c r="K16">
-        <v>0.9834816975025007</v>
+        <v>0.9860930450163681</v>
       </c>
       <c r="L16">
-        <v>0.967739338402875</v>
+        <v>0.9710369187968133</v>
       </c>
       <c r="M16">
-        <v>0.963702335930256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9668977399669357</v>
+      </c>
+      <c r="N16">
+        <v>0.9762686160635314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471223478655822</v>
+        <v>0.950504441580911</v>
       </c>
       <c r="D17">
-        <v>0.973455222385497</v>
+        <v>0.9760905357873021</v>
       </c>
       <c r="E17">
-        <v>0.9584052862410132</v>
+        <v>0.9617370062065844</v>
       </c>
       <c r="F17">
-        <v>0.9545870458808963</v>
+        <v>0.9578121459811154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021999188494132</v>
+        <v>1.023476754782585</v>
       </c>
       <c r="J17">
-        <v>0.9767759713400809</v>
+        <v>0.9800071522526509</v>
       </c>
       <c r="K17">
-        <v>0.9879452558428009</v>
+        <v>0.9905311869971258</v>
       </c>
       <c r="L17">
-        <v>0.9731841651082025</v>
+        <v>0.9764509197756979</v>
       </c>
       <c r="M17">
-        <v>0.9694411094161474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9726026527107205</v>
+      </c>
+      <c r="N17">
+        <v>0.9813988748172412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9506335718417571</v>
+        <v>0.9539952956229476</v>
       </c>
       <c r="D18">
-        <v>0.9762366357992354</v>
+        <v>0.9788568308517269</v>
       </c>
       <c r="E18">
-        <v>0.961763118784595</v>
+        <v>0.9650762539413877</v>
       </c>
       <c r="F18">
-        <v>0.95811743555231</v>
+        <v>0.9613222382644361</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023422658045481</v>
+        <v>1.024892428287497</v>
       </c>
       <c r="J18">
-        <v>0.9797006651869864</v>
+        <v>0.9829165013976129</v>
       </c>
       <c r="K18">
-        <v>0.9904785629515376</v>
+        <v>0.9930507839088794</v>
       </c>
       <c r="L18">
-        <v>0.9762762102574436</v>
+        <v>0.9795263348203592</v>
       </c>
       <c r="M18">
-        <v>0.9727005218728167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9758437574392695</v>
+      </c>
+      <c r="N18">
+        <v>0.9843123555716958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9518155137302561</v>
+        <v>0.9551705396441099</v>
       </c>
       <c r="D19">
-        <v>0.9771730340321874</v>
+        <v>0.9797882596604571</v>
       </c>
       <c r="E19">
-        <v>0.9628936765505501</v>
+        <v>0.9662007026184263</v>
       </c>
       <c r="F19">
-        <v>0.9593061130046746</v>
+        <v>0.9625042384172403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023901418932609</v>
+        <v>1.025368630031098</v>
       </c>
       <c r="J19">
-        <v>0.9806850207741585</v>
+        <v>0.9838958228195156</v>
       </c>
       <c r="K19">
-        <v>0.9913310468661577</v>
+        <v>0.9938987664290551</v>
       </c>
       <c r="L19">
-        <v>0.9773170263626578</v>
+        <v>0.980561690419951</v>
       </c>
       <c r="M19">
-        <v>0.9737977513779469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9769349689050846</v>
+      </c>
+      <c r="N19">
+        <v>0.9852930677423476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9464690327653948</v>
+        <v>0.9498549960606161</v>
       </c>
       <c r="D20">
-        <v>0.9729377633614834</v>
+        <v>0.9755759495246762</v>
       </c>
       <c r="E20">
-        <v>0.9577806350491429</v>
+        <v>0.9611158863790689</v>
       </c>
       <c r="F20">
-        <v>0.9539303034334985</v>
+        <v>0.9571592576921888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02173413779279</v>
+        <v>1.023213187168275</v>
       </c>
       <c r="J20">
-        <v>0.9762317187663009</v>
+        <v>0.9794658202824165</v>
       </c>
       <c r="K20">
-        <v>0.9874737674797768</v>
+        <v>0.990062306391033</v>
       </c>
       <c r="L20">
-        <v>0.9726088357238607</v>
+        <v>0.9758787533416526</v>
       </c>
       <c r="M20">
-        <v>0.9688346745182573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9719996965060848</v>
+      </c>
+      <c r="N20">
+        <v>0.9808567740935175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.927898470364484</v>
+        <v>0.9314057478012446</v>
       </c>
       <c r="D21">
-        <v>0.958239111633307</v>
+        <v>0.9609674552427723</v>
       </c>
       <c r="E21">
-        <v>0.9400412736162496</v>
+        <v>0.9434873563239197</v>
       </c>
       <c r="F21">
-        <v>0.9352802276566928</v>
+        <v>0.9386297844624576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014177554219451</v>
+        <v>1.01570337557526</v>
       </c>
       <c r="J21">
-        <v>0.9607538407664535</v>
+        <v>0.9640802775522482</v>
       </c>
       <c r="K21">
-        <v>0.9740573346759483</v>
+        <v>0.976728066125955</v>
       </c>
       <c r="L21">
-        <v>0.9562551615361031</v>
+        <v>0.9596247595227834</v>
       </c>
       <c r="M21">
-        <v>0.9516010224162126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9548752159591398</v>
+      </c>
+      <c r="N21">
+        <v>0.9654493821279259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9151256724430589</v>
+        <v>0.9187307258118054</v>
       </c>
       <c r="D22">
-        <v>0.9481435418043002</v>
+        <v>0.9509446306457016</v>
       </c>
       <c r="E22">
-        <v>0.9278590650648444</v>
+        <v>0.9313946054688649</v>
       </c>
       <c r="F22">
-        <v>0.9224724639366496</v>
+        <v>0.9259189619933252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008959105577587</v>
+        <v>1.010522913003104</v>
       </c>
       <c r="J22">
-        <v>0.9501024746116558</v>
+        <v>0.953504193647064</v>
       </c>
       <c r="K22">
-        <v>0.964817371221929</v>
+        <v>0.9675548147758443</v>
       </c>
       <c r="L22">
-        <v>0.9450092100953315</v>
+        <v>0.9484597254355914</v>
       </c>
       <c r="M22">
-        <v>0.9397538365785156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9431161349837278</v>
+      </c>
+      <c r="N22">
+        <v>0.9548582789705026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9220149200511482</v>
+        <v>0.9255656438042866</v>
       </c>
       <c r="D23">
-        <v>0.9535871398594939</v>
+        <v>0.9563478018516675</v>
       </c>
       <c r="E23">
-        <v>0.9344278153233021</v>
+        <v>0.937913636400445</v>
       </c>
       <c r="F23">
-        <v>0.9293785968369426</v>
+        <v>0.9327712537950665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011775598669274</v>
+        <v>1.013318273558207</v>
       </c>
       <c r="J23">
-        <v>0.9558478712835191</v>
+        <v>0.9592076794162672</v>
       </c>
       <c r="K23">
-        <v>0.9698020618238341</v>
+        <v>0.9725023947748446</v>
       </c>
       <c r="L23">
-        <v>0.9510745698002717</v>
+        <v>0.9544800696982642</v>
       </c>
       <c r="M23">
-        <v>0.9461431282195992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9494564607918324</v>
+      </c>
+      <c r="N23">
+        <v>0.9605698643436972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9467645292760526</v>
+        <v>0.9501487392184876</v>
       </c>
       <c r="D24">
-        <v>0.9731718091536498</v>
+        <v>0.9758086936043771</v>
       </c>
       <c r="E24">
-        <v>0.9580631619834131</v>
+        <v>0.9613968131756795</v>
       </c>
       <c r="F24">
-        <v>0.9542273447700879</v>
+        <v>0.9574545527268529</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021854028429173</v>
+        <v>1.023332405719773</v>
       </c>
       <c r="J24">
-        <v>0.9764778885784003</v>
+        <v>0.9797106665172652</v>
       </c>
       <c r="K24">
-        <v>0.9876870280568064</v>
+        <v>0.9902743852362546</v>
       </c>
       <c r="L24">
-        <v>0.9728690593176279</v>
+        <v>0.9761375436185911</v>
       </c>
       <c r="M24">
-        <v>0.9691089658751421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9722724115927606</v>
+      </c>
+      <c r="N24">
+        <v>0.9811019680381039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9717971405718187</v>
+        <v>0.9750501129198434</v>
       </c>
       <c r="D25">
-        <v>0.9930105584491127</v>
+        <v>0.99555020672842</v>
       </c>
       <c r="E25">
-        <v>0.9820254130258631</v>
+        <v>0.9852394915818122</v>
       </c>
       <c r="F25">
-        <v>0.9794237683600093</v>
+        <v>0.9825199157032017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031960216682699</v>
+        <v>1.033388765935505</v>
       </c>
       <c r="J25">
-        <v>0.9973124029722584</v>
+        <v>1.000447335990418</v>
       </c>
       <c r="K25">
-        <v>1.005718354236754</v>
+        <v>1.008217995002713</v>
       </c>
       <c r="L25">
-        <v>0.9949093208725927</v>
+        <v>0.9980713502869423</v>
       </c>
       <c r="M25">
-        <v>0.9923501291273131</v>
+        <v>0.9953957870504082</v>
+      </c>
+      <c r="N25">
+        <v>1.001868085960438</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927882300917158</v>
+        <v>1.019790437080816</v>
       </c>
       <c r="D2">
-        <v>1.00961825624668</v>
+        <v>1.036101140320297</v>
       </c>
       <c r="E2">
-        <v>1.002256246155036</v>
+        <v>1.027838400647231</v>
       </c>
       <c r="F2">
-        <v>1.000415861838704</v>
+        <v>1.040347279045344</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040477647173801</v>
+        <v>1.049255066271215</v>
       </c>
       <c r="J2">
-        <v>1.015186804573915</v>
+        <v>1.041394913000776</v>
       </c>
       <c r="K2">
-        <v>1.020945200268513</v>
+        <v>1.047079436477214</v>
       </c>
       <c r="L2">
-        <v>1.013684237127888</v>
+        <v>1.038923061433971</v>
       </c>
       <c r="M2">
-        <v>1.011869406084197</v>
+        <v>1.051271735678996</v>
       </c>
       <c r="N2">
-        <v>1.016628486279964</v>
+        <v>1.042873813226903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004706062717176</v>
+        <v>1.030228391619453</v>
       </c>
       <c r="D3">
-        <v>1.019067529064187</v>
+        <v>1.044479211204728</v>
       </c>
       <c r="E3">
-        <v>1.013704456512204</v>
+        <v>1.03776342312117</v>
       </c>
       <c r="F3">
-        <v>1.012460408011464</v>
+        <v>1.049312289236882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045195713649029</v>
+        <v>1.053050342304159</v>
       </c>
       <c r="J3">
-        <v>1.025069252709328</v>
+        <v>1.049927598708845</v>
       </c>
       <c r="K3">
-        <v>1.029462114541752</v>
+        <v>1.054572927429532</v>
       </c>
       <c r="L3">
-        <v>1.024164938497491</v>
+        <v>1.047934880983823</v>
       </c>
       <c r="M3">
-        <v>1.022936299938072</v>
+        <v>1.059350817387053</v>
       </c>
       <c r="N3">
-        <v>1.026524968625262</v>
+        <v>1.05141861632739</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012039402597674</v>
+        <v>1.03671727362545</v>
       </c>
       <c r="D4">
-        <v>1.02487916553163</v>
+        <v>1.049689285626662</v>
       </c>
       <c r="E4">
-        <v>1.020754811762905</v>
+        <v>1.043939365978518</v>
       </c>
       <c r="F4">
-        <v>1.019880522905073</v>
+        <v>1.054891244107804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048077698955725</v>
+        <v>1.05539419228003</v>
       </c>
       <c r="J4">
-        <v>1.031140073771277</v>
+        <v>1.055226201049719</v>
       </c>
       <c r="K4">
-        <v>1.034686314769744</v>
+        <v>1.059222828692633</v>
       </c>
       <c r="L4">
-        <v>1.03060903514505</v>
+        <v>1.053534898608728</v>
       </c>
       <c r="M4">
-        <v>1.02974478554179</v>
+        <v>1.064369417585198</v>
       </c>
       <c r="N4">
-        <v>1.032604410949452</v>
+        <v>1.056724743291346</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015040030550882</v>
+        <v>1.039386476559179</v>
       </c>
       <c r="D5">
-        <v>1.027256305019007</v>
+        <v>1.051832694279636</v>
       </c>
       <c r="E5">
-        <v>1.023640965817288</v>
+        <v>1.046481160192676</v>
       </c>
       <c r="F5">
-        <v>1.022918678642927</v>
+        <v>1.057187342860642</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049251794974038</v>
+        <v>1.056354500299296</v>
       </c>
       <c r="J5">
-        <v>1.033621614903226</v>
+        <v>1.057404285573326</v>
       </c>
       <c r="K5">
-        <v>1.036819892749536</v>
+        <v>1.061133397322384</v>
       </c>
       <c r="L5">
-        <v>1.033244534856204</v>
+        <v>1.055837820706181</v>
       </c>
       <c r="M5">
-        <v>1.0325302769751</v>
+        <v>1.06643274734422</v>
       </c>
       <c r="N5">
-        <v>1.035089476154445</v>
+        <v>1.058905920944807</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01553923988411</v>
+        <v>1.039831331948197</v>
       </c>
       <c r="D6">
-        <v>1.027651730987257</v>
+        <v>1.052189929173196</v>
       </c>
       <c r="E6">
-        <v>1.024121204654201</v>
+        <v>1.046904856132446</v>
       </c>
       <c r="F6">
-        <v>1.023424247990566</v>
+        <v>1.057570081147437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049446822686317</v>
+        <v>1.056514318746751</v>
       </c>
       <c r="J6">
-        <v>1.034034315906555</v>
+        <v>1.057767199441062</v>
       </c>
       <c r="K6">
-        <v>1.037174612252398</v>
+        <v>1.061451685956927</v>
       </c>
       <c r="L6">
-        <v>1.03368292132006</v>
+        <v>1.056221590246229</v>
       </c>
       <c r="M6">
-        <v>1.032993670033782</v>
+        <v>1.066776559456668</v>
       </c>
       <c r="N6">
-        <v>1.035502763240537</v>
+        <v>1.059269350191862</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012079810554008</v>
+        <v>1.036753164512834</v>
       </c>
       <c r="D7">
-        <v>1.024911180863256</v>
+        <v>1.049718105782689</v>
       </c>
       <c r="E7">
-        <v>1.020793673071368</v>
+        <v>1.043973538590528</v>
       </c>
       <c r="F7">
-        <v>1.019921428308472</v>
+        <v>1.054922113619484</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04809353044285</v>
+        <v>1.055407120210391</v>
       </c>
       <c r="J7">
-        <v>1.031173501444231</v>
+        <v>1.055255494267173</v>
       </c>
       <c r="K7">
-        <v>1.034715062761206</v>
+        <v>1.059248527519227</v>
       </c>
       <c r="L7">
-        <v>1.030644531258045</v>
+        <v>1.053565867060142</v>
       </c>
       <c r="M7">
-        <v>1.029782297963268</v>
+        <v>1.064397166159705</v>
       </c>
       <c r="N7">
-        <v>1.032637886093536</v>
+        <v>1.05675407810853</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968996350318727</v>
+        <v>1.023375951114389</v>
       </c>
       <c r="D8">
-        <v>1.012878519434637</v>
+        <v>1.038978583822167</v>
       </c>
       <c r="E8">
-        <v>1.006204279995597</v>
+        <v>1.031246389868317</v>
       </c>
       <c r="F8">
-        <v>1.004569034946812</v>
+        <v>1.043425483776249</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042109765545605</v>
+        <v>1.050562000543731</v>
       </c>
       <c r="J8">
-        <v>1.018598156138385</v>
+        <v>1.04432713385637</v>
       </c>
       <c r="K8">
-        <v>1.023886823624687</v>
+        <v>1.049655233932499</v>
       </c>
       <c r="L8">
-        <v>1.017300861134986</v>
+        <v>1.042019110752058</v>
       </c>
       <c r="M8">
-        <v>1.015687469411983</v>
+        <v>1.054047683798681</v>
       </c>
       <c r="N8">
-        <v>1.020044682354943</v>
+        <v>1.045810198172442</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9667977351238182</v>
+        <v>0.9975229657533948</v>
       </c>
       <c r="D9">
-        <v>0.9890059179996626</v>
+        <v>1.018247471030516</v>
       </c>
       <c r="E9">
-        <v>0.9773319428142969</v>
+        <v>1.006704844446082</v>
       </c>
       <c r="F9">
-        <v>0.9742059703148518</v>
+        <v>1.021264975525237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030067981557605</v>
+        <v>1.04107518333895</v>
       </c>
       <c r="J9">
-        <v>0.993580004803875</v>
+        <v>1.023163498733685</v>
       </c>
       <c r="K9">
-        <v>1.002279921044229</v>
+        <v>1.031051273963755</v>
       </c>
       <c r="L9">
-        <v>0.9908038213050271</v>
+        <v>1.019690068859605</v>
       </c>
       <c r="M9">
-        <v>0.9877318761856061</v>
+        <v>1.034022213834829</v>
       </c>
       <c r="N9">
-        <v>0.9949910023759158</v>
+        <v>1.02461650826038</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9436515124274951</v>
+        <v>0.9783326334973849</v>
       </c>
       <c r="D10">
-        <v>0.9706616968542592</v>
+        <v>1.002892409129498</v>
       </c>
       <c r="E10">
-        <v>0.9551848881997529</v>
+        <v>0.9885360280921357</v>
       </c>
       <c r="F10">
-        <v>0.9509250272436884</v>
+        <v>1.004873198044632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020692707854307</v>
+        <v>1.033958335093588</v>
       </c>
       <c r="J10">
-        <v>0.9742940121445881</v>
+        <v>1.007433094105231</v>
       </c>
       <c r="K10">
-        <v>0.9855816679393281</v>
+        <v>1.017209635878971</v>
       </c>
       <c r="L10">
-        <v>0.9704133488228388</v>
+        <v>1.003115399648576</v>
       </c>
       <c r="M10">
-        <v>0.9662407232518698</v>
+        <v>1.019155019332193</v>
       </c>
       <c r="N10">
-        <v>0.9756776213949185</v>
+        <v>1.008863764653052</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.932633018928643</v>
+        <v>0.9694368252569299</v>
       </c>
       <c r="D11">
-        <v>0.961938570408135</v>
+        <v>0.995787178774724</v>
       </c>
       <c r="E11">
-        <v>0.9446590563085324</v>
+        <v>0.980128085083126</v>
       </c>
       <c r="F11">
-        <v>0.9398613499952815</v>
+        <v>0.9972934827068101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0162041599061</v>
+        <v>1.030644217629501</v>
       </c>
       <c r="J11">
-        <v>0.9651041205188388</v>
+        <v>1.00013875789791</v>
       </c>
       <c r="K11">
-        <v>0.9776158273155342</v>
+        <v>1.010788982456666</v>
       </c>
       <c r="L11">
-        <v>0.960705945582543</v>
+        <v>0.9954347455302369</v>
       </c>
       <c r="M11">
-        <v>0.9560140785682867</v>
+        <v>1.012266621112703</v>
       </c>
       <c r="N11">
-        <v>0.9664746790689656</v>
+        <v>1.001559069651644</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9283586776317709</v>
+        <v>0.9660311500709107</v>
       </c>
       <c r="D12">
-        <v>0.9585568366735285</v>
+        <v>0.9930694226123886</v>
       </c>
       <c r="E12">
-        <v>0.9405788698398823</v>
+        <v>0.9769116435988373</v>
       </c>
       <c r="F12">
-        <v>0.935572686807059</v>
+        <v>0.9943950219633134</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014459365018829</v>
+        <v>1.02937347201333</v>
       </c>
       <c r="J12">
-        <v>0.961538104969652</v>
+        <v>0.9973461066166075</v>
       </c>
       <c r="K12">
-        <v>0.9745235543471941</v>
+        <v>1.008330617068881</v>
       </c>
       <c r="L12">
-        <v>0.9569404639339043</v>
+        <v>0.9924949632583033</v>
       </c>
       <c r="M12">
-        <v>0.9520478474080472</v>
+        <v>1.009630398128871</v>
       </c>
       <c r="N12">
-        <v>0.9629035993686711</v>
+        <v>0.9987624524852003</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9292843853244755</v>
+        <v>0.9667665126556835</v>
       </c>
       <c r="D13">
-        <v>0.9592891169408748</v>
+        <v>0.9936561300146836</v>
       </c>
       <c r="E13">
-        <v>0.9414623829839146</v>
+        <v>0.9776060300090125</v>
       </c>
       <c r="F13">
-        <v>0.9365013453324476</v>
+        <v>0.9950207043173118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01483739650152</v>
+        <v>1.029647938130205</v>
       </c>
       <c r="J13">
-        <v>0.9623104484522611</v>
+        <v>0.9979491021780421</v>
       </c>
       <c r="K13">
-        <v>0.9751933456395693</v>
+        <v>1.008861439965862</v>
       </c>
       <c r="L13">
-        <v>0.9577559476144181</v>
+        <v>0.9931296930289346</v>
       </c>
       <c r="M13">
-        <v>0.9529067782921296</v>
+        <v>1.010199568686066</v>
       </c>
       <c r="N13">
-        <v>0.9636770396676146</v>
+        <v>0.9993663043694969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9322836275428655</v>
+        <v>0.9691574666745144</v>
       </c>
       <c r="D14">
-        <v>0.9616620932161655</v>
+        <v>0.9955641963986716</v>
       </c>
       <c r="E14">
-        <v>0.9443254710955601</v>
+        <v>0.9798641972077932</v>
       </c>
       <c r="F14">
-        <v>0.9395107210618163</v>
+        <v>0.9970556582629209</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016061607766798</v>
+        <v>1.030540019556303</v>
       </c>
       <c r="J14">
-        <v>0.9648126473603188</v>
+        <v>0.9999096839720623</v>
       </c>
       <c r="K14">
-        <v>0.9773631001282606</v>
+        <v>1.010587332519401</v>
       </c>
       <c r="L14">
-        <v>0.9603981415255309</v>
+        <v>0.995193587285973</v>
       </c>
       <c r="M14">
-        <v>0.9556898515549063</v>
+        <v>1.012050357057203</v>
       </c>
       <c r="N14">
-        <v>0.9661827919851278</v>
+        <v>1.001329670414546</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9341063640195671</v>
+        <v>0.9706167309226388</v>
       </c>
       <c r="D15">
-        <v>0.9631045370377849</v>
+        <v>0.9967290733745967</v>
       </c>
       <c r="E15">
-        <v>0.9460658739250083</v>
+        <v>0.9812427497196723</v>
       </c>
       <c r="F15">
-        <v>0.9413400449807561</v>
+        <v>0.9982981031516194</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016805144482922</v>
+        <v>1.031084233449009</v>
       </c>
       <c r="J15">
-        <v>0.9663331914137346</v>
+        <v>1.001106278442483</v>
       </c>
       <c r="K15">
-        <v>0.9786814671343699</v>
+        <v>1.011640667031866</v>
       </c>
       <c r="L15">
-        <v>0.9620039342332016</v>
+        <v>0.9964533367765886</v>
       </c>
       <c r="M15">
-        <v>0.9573813480151458</v>
+        <v>1.013180079738284</v>
       </c>
       <c r="N15">
-        <v>0.9677054953855084</v>
+        <v>1.002527964186367</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9443592879042274</v>
+        <v>0.9789095969858469</v>
       </c>
       <c r="D16">
-        <v>0.9712222776298219</v>
+        <v>1.003353539538248</v>
       </c>
       <c r="E16">
-        <v>0.9558613985655074</v>
+        <v>0.9890816673181243</v>
       </c>
       <c r="F16">
-        <v>0.9516361159547073</v>
+        <v>1.005365229842716</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020980533385618</v>
+        <v>1.034172996736815</v>
       </c>
       <c r="J16">
-        <v>0.9748841687231673</v>
+        <v>1.00790616203831</v>
       </c>
       <c r="K16">
-        <v>0.9860930450163681</v>
+        <v>1.017626007070146</v>
       </c>
       <c r="L16">
-        <v>0.9710369187968133</v>
+        <v>1.003613627420322</v>
       </c>
       <c r="M16">
-        <v>0.9668977399669357</v>
+        <v>1.019601889326048</v>
       </c>
       <c r="N16">
-        <v>0.9762686160635314</v>
+        <v>1.009337504396857</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.950504441580911</v>
+        <v>0.9839460136138539</v>
       </c>
       <c r="D17">
-        <v>0.9760905357873021</v>
+        <v>1.007380293320473</v>
       </c>
       <c r="E17">
-        <v>0.9617370062065844</v>
+        <v>0.9938462747315996</v>
       </c>
       <c r="F17">
-        <v>0.9578121459811154</v>
+        <v>1.009662408639026</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023476754782585</v>
+        <v>1.036045169174673</v>
       </c>
       <c r="J17">
-        <v>0.9800071522526509</v>
+        <v>1.01203541539136</v>
       </c>
       <c r="K17">
-        <v>0.9905311869971258</v>
+        <v>1.021260144980848</v>
       </c>
       <c r="L17">
-        <v>0.9764509197756979</v>
+        <v>1.007963068269058</v>
       </c>
       <c r="M17">
-        <v>0.9726026527107205</v>
+        <v>1.023503115635755</v>
       </c>
       <c r="N17">
-        <v>0.9813988748172412</v>
+        <v>1.0134726217633</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9539952956229476</v>
+        <v>0.9868281371799781</v>
       </c>
       <c r="D18">
-        <v>0.9788568308517269</v>
+        <v>1.009685770851855</v>
       </c>
       <c r="E18">
-        <v>0.9650762539413877</v>
+        <v>0.9965741584151172</v>
       </c>
       <c r="F18">
-        <v>0.9613222382644361</v>
+        <v>1.01212320020748</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024892428287497</v>
+        <v>1.037115117938435</v>
       </c>
       <c r="J18">
-        <v>0.9829165013976129</v>
+        <v>1.014398166371014</v>
       </c>
       <c r="K18">
-        <v>0.9930507839088794</v>
+        <v>1.023339383778383</v>
       </c>
       <c r="L18">
-        <v>0.9795263348203592</v>
+        <v>1.010452289534107</v>
       </c>
       <c r="M18">
-        <v>0.9758437574392695</v>
+        <v>1.025735901930304</v>
       </c>
       <c r="N18">
-        <v>0.9843123555716958</v>
+        <v>1.015838728120357</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9551705396441099</v>
+        <v>0.9878018058136986</v>
       </c>
       <c r="D19">
-        <v>0.9797882596604571</v>
+        <v>1.010464811286832</v>
       </c>
       <c r="E19">
-        <v>0.9662007026184263</v>
+        <v>0.9974959335087565</v>
       </c>
       <c r="F19">
-        <v>0.9625042384172403</v>
+        <v>1.012954804841542</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025368630031098</v>
+        <v>1.037476331363052</v>
       </c>
       <c r="J19">
-        <v>0.9838958228195156</v>
+        <v>1.01519632694057</v>
       </c>
       <c r="K19">
-        <v>0.9938987664290551</v>
+        <v>1.024041732741549</v>
       </c>
       <c r="L19">
-        <v>0.980561690419951</v>
+        <v>1.011293254491384</v>
       </c>
       <c r="M19">
-        <v>0.9769349689050846</v>
+        <v>1.026490241711877</v>
       </c>
       <c r="N19">
-        <v>0.9852930677423476</v>
+        <v>1.016638022169472</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9498549960606161</v>
+        <v>0.9834114847681141</v>
       </c>
       <c r="D20">
-        <v>0.9755759495246762</v>
+        <v>1.006952800758369</v>
       </c>
       <c r="E20">
-        <v>0.9611158863790689</v>
+        <v>0.9933404558541747</v>
       </c>
       <c r="F20">
-        <v>0.9571592576921888</v>
+        <v>1.009206156413954</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023213187168275</v>
+        <v>1.035846615838689</v>
       </c>
       <c r="J20">
-        <v>0.9794658202824165</v>
+        <v>1.011597189782171</v>
       </c>
       <c r="K20">
-        <v>0.990062306391033</v>
+        <v>1.020874485450455</v>
       </c>
       <c r="L20">
-        <v>0.9758787533416526</v>
+        <v>1.007501424887235</v>
       </c>
       <c r="M20">
-        <v>0.9719996965060848</v>
+        <v>1.023089035480766</v>
       </c>
       <c r="N20">
-        <v>0.9808567740935175</v>
+        <v>1.013033773823481</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9314057478012446</v>
+        <v>0.9684563105172589</v>
       </c>
       <c r="D21">
-        <v>0.9609674552427723</v>
+        <v>0.9950045782553097</v>
       </c>
       <c r="E21">
-        <v>0.9434873563239197</v>
+        <v>0.9792019112159053</v>
       </c>
       <c r="F21">
-        <v>0.9386297844624576</v>
+        <v>0.9964588036397535</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01570337557526</v>
+        <v>1.03027846459288</v>
       </c>
       <c r="J21">
-        <v>0.9640802775522482</v>
+        <v>0.9993347358913092</v>
       </c>
       <c r="K21">
-        <v>0.976728066125955</v>
+        <v>1.010081212513229</v>
       </c>
       <c r="L21">
-        <v>0.9596247595227834</v>
+        <v>0.9945883213618548</v>
       </c>
       <c r="M21">
-        <v>0.9548752159591398</v>
+        <v>1.011507577085319</v>
       </c>
       <c r="N21">
-        <v>0.9654493821279259</v>
+        <v>1.000753905841571</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9187307258118054</v>
+        <v>0.9584579053423328</v>
       </c>
       <c r="D22">
-        <v>0.9509446306457016</v>
+        <v>0.9870310445892292</v>
       </c>
       <c r="E22">
-        <v>0.9313946054688649</v>
+        <v>0.9697641599575259</v>
       </c>
       <c r="F22">
-        <v>0.9259189619933252</v>
+        <v>0.9879566086573862</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010522913003104</v>
+        <v>1.026544431522419</v>
       </c>
       <c r="J22">
-        <v>0.953504193647064</v>
+        <v>0.9911362575228789</v>
       </c>
       <c r="K22">
-        <v>0.9675548147758443</v>
+        <v>1.002863872605155</v>
       </c>
       <c r="L22">
-        <v>0.9484597254355914</v>
+        <v>0.9859593710111201</v>
       </c>
       <c r="M22">
-        <v>0.9431161349837278</v>
+        <v>1.00377048334257</v>
       </c>
       <c r="N22">
-        <v>0.9548582789705026</v>
+        <v>0.9925437846934794</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9255656438042866</v>
+        <v>0.9638199676484598</v>
       </c>
       <c r="D23">
-        <v>0.9563478018516675</v>
+        <v>0.9913056342046368</v>
       </c>
       <c r="E23">
-        <v>0.937913636400445</v>
+        <v>0.9748240613264518</v>
       </c>
       <c r="F23">
-        <v>0.9327712537950665</v>
+        <v>0.9925141805030613</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013318273558207</v>
+        <v>1.02854790970322</v>
       </c>
       <c r="J23">
-        <v>0.9592076794162672</v>
+        <v>0.9955329546464102</v>
       </c>
       <c r="K23">
-        <v>0.9725023947748446</v>
+        <v>1.006734462037001</v>
       </c>
       <c r="L23">
-        <v>0.9544800696982642</v>
+        <v>0.9905865020500714</v>
       </c>
       <c r="M23">
-        <v>0.9494564607918324</v>
+        <v>1.00791911806045</v>
       </c>
       <c r="N23">
-        <v>0.9605698643436972</v>
+        <v>0.996946725631234</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9501487392184876</v>
+        <v>0.983653185982591</v>
       </c>
       <c r="D24">
-        <v>0.9758086936043771</v>
+        <v>1.007146099198051</v>
       </c>
       <c r="E24">
-        <v>0.9613968131756795</v>
+        <v>0.9935691710620776</v>
       </c>
       <c r="F24">
-        <v>0.9574545527268529</v>
+        <v>1.009412457541585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023332405719773</v>
+        <v>1.035936401356285</v>
       </c>
       <c r="J24">
-        <v>0.9797106665172652</v>
+        <v>1.011795345740779</v>
       </c>
       <c r="K24">
-        <v>0.9902743852362546</v>
+        <v>1.021048872843794</v>
       </c>
       <c r="L24">
-        <v>0.9761375436185911</v>
+        <v>1.007710168352446</v>
       </c>
       <c r="M24">
-        <v>0.9722724115927606</v>
+        <v>1.023276271814198</v>
       </c>
       <c r="N24">
-        <v>0.9811019680381039</v>
+        <v>1.013232211186279</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9750501129198434</v>
+        <v>1.004515760619339</v>
       </c>
       <c r="D25">
-        <v>0.99555020672842</v>
+        <v>1.023850616486778</v>
       </c>
       <c r="E25">
-        <v>0.9852394915818122</v>
+        <v>1.013335679842815</v>
       </c>
       <c r="F25">
-        <v>0.9825199157032017</v>
+        <v>1.027250768849076</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033388765935505</v>
+        <v>1.043654490180361</v>
       </c>
       <c r="J25">
-        <v>1.000447335990418</v>
+        <v>1.028892101283565</v>
       </c>
       <c r="K25">
-        <v>1.008217995002713</v>
+        <v>1.036089630279355</v>
       </c>
       <c r="L25">
-        <v>0.9980713502869423</v>
+        <v>1.025730444634059</v>
       </c>
       <c r="M25">
-        <v>0.9953957870504082</v>
+        <v>1.039440283350392</v>
       </c>
       <c r="N25">
-        <v>1.001868085960438</v>
+        <v>1.030353246082961</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019790437080816</v>
+        <v>0.9923882967465196</v>
       </c>
       <c r="D2">
-        <v>1.036101140320297</v>
+        <v>1.013947981354828</v>
       </c>
       <c r="E2">
-        <v>1.027838400647231</v>
+        <v>1.000616188762423</v>
       </c>
       <c r="F2">
-        <v>1.040347279045344</v>
+        <v>1.013591375511621</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049255066271215</v>
+        <v>1.040473606887443</v>
       </c>
       <c r="J2">
-        <v>1.041394913000776</v>
+        <v>1.014799080756071</v>
       </c>
       <c r="K2">
-        <v>1.047079436477214</v>
+        <v>1.025216359365511</v>
       </c>
       <c r="L2">
-        <v>1.038923061433971</v>
+        <v>1.01206694576661</v>
       </c>
       <c r="M2">
-        <v>1.051271735678996</v>
+        <v>1.024864553380941</v>
       </c>
       <c r="N2">
-        <v>1.042873813226903</v>
+        <v>1.008802493810564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030228391619453</v>
+        <v>0.9966913573588181</v>
       </c>
       <c r="D3">
-        <v>1.044479211204728</v>
+        <v>1.017077677729131</v>
       </c>
       <c r="E3">
-        <v>1.03776342312117</v>
+        <v>1.004406200878885</v>
       </c>
       <c r="F3">
-        <v>1.049312289236882</v>
+        <v>1.017472012526503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053050342304159</v>
+        <v>1.041328570379702</v>
       </c>
       <c r="J3">
-        <v>1.049927598708845</v>
+        <v>1.017272627499799</v>
       </c>
       <c r="K3">
-        <v>1.054572927429532</v>
+        <v>1.027496611813464</v>
       </c>
       <c r="L3">
-        <v>1.047934880983823</v>
+        <v>1.014983012282404</v>
       </c>
       <c r="M3">
-        <v>1.059350817387053</v>
+        <v>1.027886111964589</v>
       </c>
       <c r="N3">
-        <v>1.05141861632739</v>
+        <v>1.009642066165334</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03671727362545</v>
+        <v>0.999421888578106</v>
       </c>
       <c r="D4">
-        <v>1.049689285626662</v>
+        <v>1.019065951856944</v>
       </c>
       <c r="E4">
-        <v>1.043939365978518</v>
+        <v>1.006817009523714</v>
       </c>
       <c r="F4">
-        <v>1.054891244107804</v>
+        <v>1.019939642945004</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05539419228003</v>
+        <v>1.041860408747608</v>
       </c>
       <c r="J4">
-        <v>1.055226201049719</v>
+        <v>1.018840394074448</v>
       </c>
       <c r="K4">
-        <v>1.059222828692633</v>
+        <v>1.028939587165536</v>
       </c>
       <c r="L4">
-        <v>1.053534898608728</v>
+        <v>1.016833849665862</v>
       </c>
       <c r="M4">
-        <v>1.064369417585198</v>
+        <v>1.029803226050233</v>
       </c>
       <c r="N4">
-        <v>1.056724743291346</v>
+        <v>1.010173888438403</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039386476559179</v>
+        <v>1.000557354388452</v>
       </c>
       <c r="D5">
-        <v>1.051832694279636</v>
+        <v>1.019893252957571</v>
       </c>
       <c r="E5">
-        <v>1.046481160192676</v>
+        <v>1.007820885249166</v>
       </c>
       <c r="F5">
-        <v>1.057187342860642</v>
+        <v>1.020966972952894</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056354500299296</v>
+        <v>1.042078963138392</v>
       </c>
       <c r="J5">
-        <v>1.057404285573326</v>
+        <v>1.019491861081896</v>
       </c>
       <c r="K5">
-        <v>1.061133397322384</v>
+        <v>1.029538635525854</v>
       </c>
       <c r="L5">
-        <v>1.055837820706181</v>
+        <v>1.017603570860322</v>
       </c>
       <c r="M5">
-        <v>1.06643274734422</v>
+        <v>1.030600337324857</v>
       </c>
       <c r="N5">
-        <v>1.058905920944807</v>
+        <v>1.010394802997053</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039831331948197</v>
+        <v>1.000747286432429</v>
       </c>
       <c r="D6">
-        <v>1.052189929173196</v>
+        <v>1.02003166506947</v>
       </c>
       <c r="E6">
-        <v>1.046904856132446</v>
+        <v>1.007988885025127</v>
       </c>
       <c r="F6">
-        <v>1.057570081147437</v>
+        <v>1.021138885432552</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056514318746751</v>
+        <v>1.042115366871768</v>
       </c>
       <c r="J6">
-        <v>1.057767199441062</v>
+        <v>1.019600804685855</v>
       </c>
       <c r="K6">
-        <v>1.061451685956927</v>
+        <v>1.029638779681523</v>
       </c>
       <c r="L6">
-        <v>1.056221590246229</v>
+        <v>1.01773232691153</v>
       </c>
       <c r="M6">
-        <v>1.066776559456668</v>
+        <v>1.030733664640591</v>
       </c>
       <c r="N6">
-        <v>1.059269350191862</v>
+        <v>1.010431741436353</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036753164512834</v>
+        <v>0.9994371090789982</v>
       </c>
       <c r="D7">
-        <v>1.049718105782689</v>
+        <v>1.019077039639652</v>
       </c>
       <c r="E7">
-        <v>1.043973538590528</v>
+        <v>1.006830460769964</v>
       </c>
       <c r="F7">
-        <v>1.054922113619484</v>
+        <v>1.019953409289748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055407120210391</v>
+        <v>1.041863348734366</v>
       </c>
       <c r="J7">
-        <v>1.055255494267173</v>
+        <v>1.018849128665208</v>
       </c>
       <c r="K7">
-        <v>1.059248527519227</v>
+        <v>1.028947621195615</v>
       </c>
       <c r="L7">
-        <v>1.053565867060142</v>
+        <v>1.016844167273229</v>
       </c>
       <c r="M7">
-        <v>1.064397166159705</v>
+        <v>1.029813911499256</v>
       </c>
       <c r="N7">
-        <v>1.05675407810853</v>
+        <v>1.010176850678944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023375951114389</v>
+        <v>0.9938539545542396</v>
       </c>
       <c r="D8">
-        <v>1.038978583822167</v>
+        <v>1.015013462226066</v>
       </c>
       <c r="E8">
-        <v>1.031246389868317</v>
+        <v>1.001905852525783</v>
       </c>
       <c r="F8">
-        <v>1.043425483776249</v>
+        <v>1.014912043999873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050562000543731</v>
+        <v>1.040767027098636</v>
       </c>
       <c r="J8">
-        <v>1.04432713385637</v>
+        <v>1.015641955213061</v>
       </c>
       <c r="K8">
-        <v>1.049655233932499</v>
+        <v>1.025993835556765</v>
       </c>
       <c r="L8">
-        <v>1.042019110752058</v>
+        <v>1.013060069569624</v>
       </c>
       <c r="M8">
-        <v>1.054047683798681</v>
+        <v>1.025893740826821</v>
       </c>
       <c r="N8">
-        <v>1.045810198172442</v>
+        <v>1.009088645381401</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9975229657533948</v>
+        <v>0.9835825755472083</v>
       </c>
       <c r="D9">
-        <v>1.018247471030516</v>
+        <v>1.007558776949334</v>
       </c>
       <c r="E9">
-        <v>1.006704844446082</v>
+        <v>0.992894142229113</v>
       </c>
       <c r="F9">
-        <v>1.021264975525237</v>
+        <v>1.005680587528767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04107518333895</v>
+        <v>1.038667238201843</v>
       </c>
       <c r="J9">
-        <v>1.023163498733685</v>
+        <v>1.009728699767724</v>
       </c>
       <c r="K9">
-        <v>1.031051273963755</v>
+        <v>1.020530397223393</v>
       </c>
       <c r="L9">
-        <v>1.019690068859605</v>
+        <v>1.006103568778295</v>
       </c>
       <c r="M9">
-        <v>1.034022213834829</v>
+        <v>1.018682168617735</v>
       </c>
       <c r="N9">
-        <v>1.02461650826038</v>
+        <v>1.007079960040409</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9783326334973849</v>
+        <v>0.9764128794990267</v>
       </c>
       <c r="D10">
-        <v>1.002892409129498</v>
+        <v>1.002373600999572</v>
       </c>
       <c r="E10">
-        <v>0.9885360280921357</v>
+        <v>0.986638988345454</v>
       </c>
       <c r="F10">
-        <v>1.004873198044632</v>
+        <v>0.9992694194541107</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033958335093588</v>
+        <v>1.037148254451453</v>
       </c>
       <c r="J10">
-        <v>1.007433094105231</v>
+        <v>1.005594624074262</v>
       </c>
       <c r="K10">
-        <v>1.017209635878971</v>
+        <v>1.016700131188648</v>
       </c>
       <c r="L10">
-        <v>1.003115399648576</v>
+        <v>1.001253744367201</v>
       </c>
       <c r="M10">
-        <v>1.019155019332193</v>
+        <v>1.013651877299023</v>
       </c>
       <c r="N10">
-        <v>1.008863764653052</v>
+        <v>1.005674330646383</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9694368252569299</v>
+        <v>0.9732244751627259</v>
       </c>
       <c r="D11">
-        <v>0.995787178774724</v>
+        <v>1.000073051279651</v>
       </c>
       <c r="E11">
-        <v>0.980128085083126</v>
+        <v>0.983866289741066</v>
       </c>
       <c r="F11">
-        <v>0.9972934827068101</v>
+        <v>0.9964268885333906</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030644217629501</v>
+        <v>1.036460762057893</v>
       </c>
       <c r="J11">
-        <v>1.00013875789791</v>
+        <v>1.003755186209745</v>
       </c>
       <c r="K11">
-        <v>1.010788982456666</v>
+        <v>1.014993590091996</v>
       </c>
       <c r="L11">
-        <v>0.9954347455302369</v>
+        <v>0.9990990157156084</v>
       </c>
       <c r="M11">
-        <v>1.012266621112703</v>
+        <v>1.011416504557742</v>
       </c>
       <c r="N11">
-        <v>1.001559069651644</v>
+        <v>1.005048643124516</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9660311500709107</v>
+        <v>0.9720268750214801</v>
       </c>
       <c r="D12">
-        <v>0.9930694226123886</v>
+        <v>0.9992098256171938</v>
       </c>
       <c r="E12">
-        <v>0.9769116435988373</v>
+        <v>0.9828262435878437</v>
       </c>
       <c r="F12">
-        <v>0.9943950219633134</v>
+        <v>0.9953605600557638</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02937347201333</v>
+        <v>1.036200787513356</v>
       </c>
       <c r="J12">
-        <v>0.9973461066166075</v>
+        <v>1.003064172250497</v>
       </c>
       <c r="K12">
-        <v>1.008330617068881</v>
+        <v>1.014352179794591</v>
       </c>
       <c r="L12">
-        <v>0.9924949632583033</v>
+        <v>0.998290031432959</v>
       </c>
       <c r="M12">
-        <v>1.009630398128871</v>
+        <v>1.010577187470546</v>
       </c>
       <c r="N12">
-        <v>0.9987624524852003</v>
+        <v>1.004813559337574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9667665126556835</v>
+        <v>0.9722843769564959</v>
       </c>
       <c r="D13">
-        <v>0.9936561300146836</v>
+        <v>0.9993953905644392</v>
       </c>
       <c r="E13">
-        <v>0.9776060300090125</v>
+        <v>0.9830498043795614</v>
       </c>
       <c r="F13">
-        <v>0.9950207043173118</v>
+        <v>0.9955897740581457</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029647938130205</v>
+        <v>1.03625676382677</v>
       </c>
       <c r="J13">
-        <v>0.9979491021780421</v>
+        <v>1.003212754332003</v>
       </c>
       <c r="K13">
-        <v>1.008861439965862</v>
+        <v>1.014490110230656</v>
       </c>
       <c r="L13">
-        <v>0.9931296930289346</v>
+        <v>0.998463958196288</v>
       </c>
       <c r="M13">
-        <v>1.010199568686066</v>
+        <v>1.010757637863581</v>
       </c>
       <c r="N13">
-        <v>0.9993663043694969</v>
+        <v>1.00486410861993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9691574666745144</v>
+        <v>0.9731257562792697</v>
       </c>
       <c r="D14">
-        <v>0.9955641963986716</v>
+        <v>1.000001876551295</v>
       </c>
       <c r="E14">
-        <v>0.9798641972077932</v>
+        <v>0.9837805291129899</v>
       </c>
       <c r="F14">
-        <v>0.9970556582629209</v>
+        <v>0.9963389624142654</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030540019556303</v>
+        <v>1.036439367337113</v>
       </c>
       <c r="J14">
-        <v>0.9999096839720623</v>
+        <v>1.003698227283048</v>
       </c>
       <c r="K14">
-        <v>1.010587332519401</v>
+        <v>1.014940726297879</v>
       </c>
       <c r="L14">
-        <v>0.995193587285973</v>
+        <v>0.9990323231193241</v>
       </c>
       <c r="M14">
-        <v>1.012050357057203</v>
+        <v>1.011347312366029</v>
       </c>
       <c r="N14">
-        <v>1.001329670414546</v>
+        <v>1.005029266300365</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9706167309226388</v>
+        <v>0.9736423762783064</v>
       </c>
       <c r="D15">
-        <v>0.9967290733745967</v>
+        <v>1.000374387927864</v>
       </c>
       <c r="E15">
-        <v>0.9812427497196723</v>
+        <v>0.9842293932478959</v>
       </c>
       <c r="F15">
-        <v>0.9982981031516194</v>
+        <v>0.99679915704401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031084233449009</v>
+        <v>1.03655126034088</v>
       </c>
       <c r="J15">
-        <v>1.001106278442483</v>
+        <v>1.003996303431017</v>
       </c>
       <c r="K15">
-        <v>1.011640667031866</v>
+        <v>1.015217358931976</v>
       </c>
       <c r="L15">
-        <v>0.9964533367765886</v>
+        <v>0.9993813565709234</v>
       </c>
       <c r="M15">
-        <v>1.013180079738284</v>
+        <v>1.011709425198816</v>
       </c>
       <c r="N15">
-        <v>1.002527964186367</v>
+        <v>1.005130667278417</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9789095969858469</v>
+        <v>0.9766226589046033</v>
       </c>
       <c r="D16">
-        <v>1.003353539538248</v>
+        <v>1.002525082701067</v>
       </c>
       <c r="E16">
-        <v>0.9890816673181243</v>
+        <v>0.9868216090901922</v>
       </c>
       <c r="F16">
-        <v>1.005365229842716</v>
+        <v>0.9994566266390615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034172996736815</v>
+        <v>1.03719324243996</v>
       </c>
       <c r="J16">
-        <v>1.00790616203831</v>
+        <v>1.005715632302475</v>
       </c>
       <c r="K16">
-        <v>1.017626007070146</v>
+        <v>1.016812351002531</v>
       </c>
       <c r="L16">
-        <v>1.003613627420322</v>
+        <v>1.001395560051915</v>
       </c>
       <c r="M16">
-        <v>1.019601889326048</v>
+        <v>1.013798992179263</v>
       </c>
       <c r="N16">
-        <v>1.009337504396857</v>
+        <v>1.005715486757182</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9839460136138539</v>
+        <v>0.9784691867552285</v>
       </c>
       <c r="D17">
-        <v>1.007380293320473</v>
+        <v>1.00385907732878</v>
       </c>
       <c r="E17">
-        <v>0.9938462747315996</v>
+        <v>0.9884301123026625</v>
       </c>
       <c r="F17">
-        <v>1.009662408639026</v>
+        <v>1.001105451094003</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036045169174673</v>
+        <v>1.037587878122423</v>
       </c>
       <c r="J17">
-        <v>1.01203541539136</v>
+        <v>1.006780668086951</v>
       </c>
       <c r="K17">
-        <v>1.021260144980848</v>
+        <v>1.017799779591692</v>
       </c>
       <c r="L17">
-        <v>1.007963068269058</v>
+        <v>1.002644090999228</v>
       </c>
       <c r="M17">
-        <v>1.023503115635755</v>
+        <v>1.015094125471322</v>
       </c>
       <c r="N17">
-        <v>1.0134726217633</v>
+        <v>1.006077687131272</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9868281371799781</v>
+        <v>0.979538190619177</v>
       </c>
       <c r="D18">
-        <v>1.009685770851855</v>
+        <v>1.004631862160386</v>
       </c>
       <c r="E18">
-        <v>0.9965741584151172</v>
+        <v>0.9893621684499689</v>
       </c>
       <c r="F18">
-        <v>1.01212320020748</v>
+        <v>1.002060806307862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037115117938435</v>
+        <v>1.03781520057255</v>
       </c>
       <c r="J18">
-        <v>1.014398166371014</v>
+        <v>1.007397148106667</v>
       </c>
       <c r="K18">
-        <v>1.023339383778383</v>
+        <v>1.018371119749487</v>
       </c>
       <c r="L18">
-        <v>1.010452289534107</v>
+        <v>1.0033670864196</v>
       </c>
       <c r="M18">
-        <v>1.025735901930304</v>
+        <v>1.015844062113193</v>
       </c>
       <c r="N18">
-        <v>1.015838728120357</v>
+        <v>1.006287316480637</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9878018058136986</v>
+        <v>0.979901348807498</v>
       </c>
       <c r="D19">
-        <v>1.010464811286832</v>
+        <v>1.004894472186771</v>
       </c>
       <c r="E19">
-        <v>0.9974959335087565</v>
+        <v>0.9896789459383085</v>
       </c>
       <c r="F19">
-        <v>1.012954804841542</v>
+        <v>1.00238549096852</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037476331363052</v>
+        <v>1.037892230268886</v>
       </c>
       <c r="J19">
-        <v>1.01519632694057</v>
+        <v>1.007606558578358</v>
       </c>
       <c r="K19">
-        <v>1.024041732741549</v>
+        <v>1.018565159149091</v>
       </c>
       <c r="L19">
-        <v>1.011293254491384</v>
+        <v>1.003612730166667</v>
       </c>
       <c r="M19">
-        <v>1.026490241711877</v>
+        <v>1.016098851291679</v>
       </c>
       <c r="N19">
-        <v>1.016638022169472</v>
+        <v>1.006358520559955</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9834114847681141</v>
+        <v>0.9782719086726729</v>
       </c>
       <c r="D20">
-        <v>1.006952800758369</v>
+        <v>1.003716504451609</v>
       </c>
       <c r="E20">
-        <v>0.9933404558541747</v>
+        <v>0.9882581754507672</v>
       </c>
       <c r="F20">
-        <v>1.009206156413954</v>
+        <v>1.000929210882852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035846615838689</v>
+        <v>1.037545834432265</v>
       </c>
       <c r="J20">
-        <v>1.011597189782171</v>
+        <v>1.006666892286713</v>
       </c>
       <c r="K20">
-        <v>1.020874485450455</v>
+        <v>1.017694316897736</v>
       </c>
       <c r="L20">
-        <v>1.007501424887235</v>
+        <v>1.002510681451685</v>
       </c>
       <c r="M20">
-        <v>1.023089035480766</v>
+        <v>1.014955740892425</v>
       </c>
       <c r="N20">
-        <v>1.013033773823481</v>
+        <v>1.006038996488512</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9684563105172589</v>
+        <v>0.9728783634819376</v>
       </c>
       <c r="D21">
-        <v>0.9950045782553097</v>
+        <v>0.9998235249011187</v>
       </c>
       <c r="E21">
-        <v>0.9792019112159053</v>
+        <v>0.98356563305591</v>
       </c>
       <c r="F21">
-        <v>0.9964588036397535</v>
+        <v>0.9961186387722346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03027846459288</v>
+        <v>1.036385723544906</v>
       </c>
       <c r="J21">
-        <v>0.9993347358913092</v>
+        <v>1.003555484869652</v>
       </c>
       <c r="K21">
-        <v>1.010081212513229</v>
+        <v>1.014808241429008</v>
       </c>
       <c r="L21">
-        <v>0.9945883213618548</v>
+        <v>0.9988651951766134</v>
       </c>
       <c r="M21">
-        <v>1.011507577085319</v>
+        <v>1.011173919735452</v>
       </c>
       <c r="N21">
-        <v>1.000753905841571</v>
+        <v>1.004980706303918</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9584579053423328</v>
+        <v>0.9694099932762341</v>
       </c>
       <c r="D22">
-        <v>0.9870310445892292</v>
+        <v>0.9973253150010459</v>
       </c>
       <c r="E22">
-        <v>0.9697641599575259</v>
+        <v>0.9805562925631672</v>
       </c>
       <c r="F22">
-        <v>0.9879566086573862</v>
+        <v>0.9930331005090478</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026544431522419</v>
+        <v>1.0356295730809</v>
       </c>
       <c r="J22">
-        <v>0.9911362575228789</v>
+        <v>1.00155410447276</v>
       </c>
       <c r="K22">
-        <v>1.002863872605155</v>
+        <v>1.012949944790864</v>
       </c>
       <c r="L22">
-        <v>0.9859593710111201</v>
+        <v>0.9965230306455598</v>
       </c>
       <c r="M22">
-        <v>1.00377048334257</v>
+        <v>1.008743848076108</v>
       </c>
       <c r="N22">
-        <v>0.9925437846934794</v>
+        <v>1.00429977440822</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9638199676484598</v>
+        <v>0.9712562031597325</v>
       </c>
       <c r="D23">
-        <v>0.9913056342046368</v>
+        <v>0.9986545891028596</v>
       </c>
       <c r="E23">
-        <v>0.9748240613264518</v>
+        <v>0.98215736467867</v>
       </c>
       <c r="F23">
-        <v>0.9925141805030613</v>
+        <v>0.9946747553068305</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02854790970322</v>
+        <v>1.036033006060652</v>
       </c>
       <c r="J23">
-        <v>0.9955329546464102</v>
+        <v>1.002619473297307</v>
       </c>
       <c r="K23">
-        <v>1.006734462037001</v>
+        <v>1.013939315353156</v>
       </c>
       <c r="L23">
-        <v>0.9905865020500714</v>
+        <v>0.9977695462002708</v>
       </c>
       <c r="M23">
-        <v>1.00791911806045</v>
+        <v>1.010037172972742</v>
       </c>
       <c r="N23">
-        <v>0.996946725631234</v>
+        <v>1.004662263112424</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.983653185982591</v>
+        <v>0.978361074956976</v>
       </c>
       <c r="D24">
-        <v>1.007146099198051</v>
+        <v>1.003780943384798</v>
       </c>
       <c r="E24">
-        <v>0.9935691710620776</v>
+        <v>0.9883358853027562</v>
       </c>
       <c r="F24">
-        <v>1.009412457541585</v>
+        <v>1.001008865916325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035936401356285</v>
+        <v>1.037564841000105</v>
       </c>
       <c r="J24">
-        <v>1.011795345740779</v>
+        <v>1.006718317287924</v>
       </c>
       <c r="K24">
-        <v>1.021048872843794</v>
+        <v>1.017741985174043</v>
       </c>
       <c r="L24">
-        <v>1.007710168352446</v>
+        <v>1.00257097968364</v>
       </c>
       <c r="M24">
-        <v>1.023276271814198</v>
+        <v>1.015018287871971</v>
       </c>
       <c r="N24">
-        <v>1.013232211186279</v>
+        <v>1.006056484171961</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004515760619339</v>
+        <v>0.986292365881963</v>
       </c>
       <c r="D25">
-        <v>1.023850616486778</v>
+        <v>1.009522600254918</v>
       </c>
       <c r="E25">
-        <v>1.013335679842815</v>
+        <v>0.9952657252783067</v>
       </c>
       <c r="F25">
-        <v>1.027250768849076</v>
+        <v>1.00811065068794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043654490180361</v>
+        <v>1.039230600815892</v>
       </c>
       <c r="J25">
-        <v>1.028892101283565</v>
+        <v>1.011290019617454</v>
       </c>
       <c r="K25">
-        <v>1.036089630279355</v>
+        <v>1.021974867024052</v>
       </c>
       <c r="L25">
-        <v>1.025730444634059</v>
+        <v>1.007937982044682</v>
       </c>
       <c r="M25">
-        <v>1.039440283350392</v>
+        <v>1.020584350596761</v>
       </c>
       <c r="N25">
-        <v>1.030353246082961</v>
+        <v>1.007610572107254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9923882967465196</v>
+        <v>1.024555560652727</v>
       </c>
       <c r="D2">
-        <v>1.013947981354828</v>
+        <v>1.032620573605937</v>
       </c>
       <c r="E2">
-        <v>1.000616188762423</v>
+        <v>1.028181374237084</v>
       </c>
       <c r="F2">
-        <v>1.013591375511621</v>
+        <v>1.039591645800745</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040473606887443</v>
+        <v>1.03047225865665</v>
       </c>
       <c r="J2">
-        <v>1.014799080756071</v>
+        <v>1.029729517441904</v>
       </c>
       <c r="K2">
-        <v>1.025216359365511</v>
+        <v>1.035425278111687</v>
       </c>
       <c r="L2">
-        <v>1.01206694576661</v>
+        <v>1.030998938122216</v>
       </c>
       <c r="M2">
-        <v>1.024864553380941</v>
+        <v>1.042376397342437</v>
       </c>
       <c r="N2">
-        <v>1.008802493810564</v>
+        <v>1.013932003627131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9966913573588181</v>
+        <v>1.025474795860711</v>
       </c>
       <c r="D3">
-        <v>1.017077677729131</v>
+        <v>1.033309687536604</v>
       </c>
       <c r="E3">
-        <v>1.004406200878885</v>
+        <v>1.029047846498326</v>
       </c>
       <c r="F3">
-        <v>1.017472012526503</v>
+        <v>1.040474847788155</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041328570379702</v>
+        <v>1.030592728708559</v>
       </c>
       <c r="J3">
-        <v>1.017272627499799</v>
+        <v>1.030287865905521</v>
       </c>
       <c r="K3">
-        <v>1.027496611813464</v>
+        <v>1.035923522432904</v>
       </c>
       <c r="L3">
-        <v>1.014983012282404</v>
+        <v>1.031673133753845</v>
       </c>
       <c r="M3">
-        <v>1.027886111964589</v>
+        <v>1.043069657092351</v>
       </c>
       <c r="N3">
-        <v>1.009642066165334</v>
+        <v>1.014119363382004</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.999421888578106</v>
+        <v>1.026070190676186</v>
       </c>
       <c r="D4">
-        <v>1.019065951856944</v>
+        <v>1.033755895769136</v>
       </c>
       <c r="E4">
-        <v>1.006817009523714</v>
+        <v>1.029609455629092</v>
       </c>
       <c r="F4">
-        <v>1.019939642945004</v>
+        <v>1.041047153597179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041860408747608</v>
+        <v>1.030669408074468</v>
       </c>
       <c r="J4">
-        <v>1.018840394074448</v>
+        <v>1.0306491357337</v>
       </c>
       <c r="K4">
-        <v>1.028939587165536</v>
+        <v>1.036245548855044</v>
       </c>
       <c r="L4">
-        <v>1.016833849665862</v>
+        <v>1.032109689514306</v>
       </c>
       <c r="M4">
-        <v>1.029803226050233</v>
+        <v>1.043518421212364</v>
       </c>
       <c r="N4">
-        <v>1.010173888438403</v>
+        <v>1.014240522086863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000557354388452</v>
+        <v>1.026320634301036</v>
       </c>
       <c r="D5">
-        <v>1.019893252957571</v>
+        <v>1.033943553252814</v>
       </c>
       <c r="E5">
-        <v>1.007820885249166</v>
+        <v>1.029845780515499</v>
       </c>
       <c r="F5">
-        <v>1.020966972952894</v>
+        <v>1.041287944453316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042078963138392</v>
+        <v>1.030701338774864</v>
       </c>
       <c r="J5">
-        <v>1.019491861081896</v>
+        <v>1.030801007948753</v>
       </c>
       <c r="K5">
-        <v>1.029538635525854</v>
+        <v>1.036380838775689</v>
       </c>
       <c r="L5">
-        <v>1.017603570860322</v>
+        <v>1.032293289590621</v>
       </c>
       <c r="M5">
-        <v>1.030600337324857</v>
+        <v>1.043707123029228</v>
       </c>
       <c r="N5">
-        <v>1.010394802997053</v>
+        <v>1.01429143868924</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000747286432429</v>
+        <v>1.026362693042725</v>
       </c>
       <c r="D6">
-        <v>1.02003166506947</v>
+        <v>1.033975065919389</v>
       </c>
       <c r="E6">
-        <v>1.007988885025127</v>
+        <v>1.029885473619576</v>
       </c>
       <c r="F6">
-        <v>1.021138885432552</v>
+        <v>1.041328385596682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042115366871768</v>
+        <v>1.030706682159566</v>
       </c>
       <c r="J6">
-        <v>1.019600804685855</v>
+        <v>1.030826507600928</v>
       </c>
       <c r="K6">
-        <v>1.029638779681523</v>
+        <v>1.036403549237583</v>
       </c>
       <c r="L6">
-        <v>1.01773232691153</v>
+        <v>1.032324121039214</v>
       </c>
       <c r="M6">
-        <v>1.030733664640591</v>
+        <v>1.043738809280466</v>
       </c>
       <c r="N6">
-        <v>1.010431741436353</v>
+        <v>1.0142999867127</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9994371090789982</v>
+        <v>1.026073536568899</v>
       </c>
       <c r="D7">
-        <v>1.019077039639652</v>
+        <v>1.03375840297849</v>
       </c>
       <c r="E7">
-        <v>1.006830460769964</v>
+        <v>1.029612612533902</v>
       </c>
       <c r="F7">
-        <v>1.019953409289748</v>
+        <v>1.041050370298134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041863348734366</v>
+        <v>1.030669835934426</v>
       </c>
       <c r="J7">
-        <v>1.018849128665208</v>
+        <v>1.03065116508111</v>
       </c>
       <c r="K7">
-        <v>1.028947621195615</v>
+        <v>1.03624735696065</v>
       </c>
       <c r="L7">
-        <v>1.016844167273229</v>
+        <v>1.032112142506027</v>
       </c>
       <c r="M7">
-        <v>1.029813911499256</v>
+        <v>1.043520942494436</v>
       </c>
       <c r="N7">
-        <v>1.010176850678944</v>
+        <v>1.014241202510284</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9938539545542396</v>
+        <v>1.024866098009586</v>
       </c>
       <c r="D8">
-        <v>1.015013462226066</v>
+        <v>1.03285339869223</v>
       </c>
       <c r="E8">
-        <v>1.001905852525783</v>
+        <v>1.028474006305119</v>
       </c>
       <c r="F8">
-        <v>1.014912043999873</v>
+        <v>1.039889958300007</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040767027098636</v>
+        <v>1.03051323526358</v>
       </c>
       <c r="J8">
-        <v>1.015641955213061</v>
+        <v>1.029918217195763</v>
       </c>
       <c r="K8">
-        <v>1.025993835556765</v>
+        <v>1.035593738217452</v>
       </c>
       <c r="L8">
-        <v>1.013060069569624</v>
+        <v>1.031226721561176</v>
       </c>
       <c r="M8">
-        <v>1.025893740826821</v>
+        <v>1.042610649875813</v>
       </c>
       <c r="N8">
-        <v>1.009088645381401</v>
+        <v>1.013995338130202</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9835825755472083</v>
+        <v>1.022742993163858</v>
       </c>
       <c r="D9">
-        <v>1.007558776949334</v>
+        <v>1.031261074578657</v>
       </c>
       <c r="E9">
-        <v>0.992894142229113</v>
+        <v>1.026474930136489</v>
       </c>
       <c r="F9">
-        <v>1.005680587528767</v>
+        <v>1.037851478733765</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038667238201843</v>
+        <v>1.030227562764897</v>
       </c>
       <c r="J9">
-        <v>1.009728699767724</v>
+        <v>1.028626571882705</v>
       </c>
       <c r="K9">
-        <v>1.020530397223393</v>
+        <v>1.034439189233432</v>
       </c>
       <c r="L9">
-        <v>1.006103568778295</v>
+        <v>1.029668896241115</v>
       </c>
       <c r="M9">
-        <v>1.018682168617735</v>
+        <v>1.041008028555446</v>
       </c>
       <c r="N9">
-        <v>1.007079960040409</v>
+        <v>1.013561533415449</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9764128794990267</v>
+        <v>1.021330721758611</v>
       </c>
       <c r="D10">
-        <v>1.002373600999572</v>
+        <v>1.030201238663796</v>
       </c>
       <c r="E10">
-        <v>0.986638988345454</v>
+        <v>1.025147205377939</v>
       </c>
       <c r="F10">
-        <v>0.9992694194541107</v>
+        <v>1.036496834862475</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037148254451453</v>
+        <v>1.030030612908559</v>
       </c>
       <c r="J10">
-        <v>1.005594624074262</v>
+        <v>1.027765473406548</v>
       </c>
       <c r="K10">
-        <v>1.016700131188648</v>
+        <v>1.03366768427656</v>
       </c>
       <c r="L10">
-        <v>1.001253744367201</v>
+        <v>1.028632033185811</v>
       </c>
       <c r="M10">
-        <v>1.013651877299023</v>
+        <v>1.039940659243153</v>
       </c>
       <c r="N10">
-        <v>1.005674330646383</v>
+        <v>1.013271978560796</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9732244751627259</v>
+        <v>1.020719949621527</v>
       </c>
       <c r="D11">
-        <v>1.000073051279651</v>
+        <v>1.029742744118076</v>
       </c>
       <c r="E11">
-        <v>0.983866289741066</v>
+        <v>1.024573488709939</v>
       </c>
       <c r="F11">
-        <v>0.9964268885333906</v>
+        <v>1.035911309388362</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036460762057893</v>
+        <v>1.029943796703766</v>
       </c>
       <c r="J11">
-        <v>1.003755186209745</v>
+        <v>1.027392621225274</v>
       </c>
       <c r="K11">
-        <v>1.014993590091996</v>
+        <v>1.03333320042613</v>
       </c>
       <c r="L11">
-        <v>0.9990990157156084</v>
+        <v>1.028183475638337</v>
       </c>
       <c r="M11">
-        <v>1.011416504557742</v>
+        <v>1.039478741765706</v>
       </c>
       <c r="N11">
-        <v>1.005048643124516</v>
+        <v>1.013146519913797</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9720268750214801</v>
+        <v>1.020493195540983</v>
       </c>
       <c r="D12">
-        <v>0.9992098256171938</v>
+        <v>1.029572503717037</v>
       </c>
       <c r="E12">
-        <v>0.9828262435878437</v>
+        <v>1.024360566104577</v>
       </c>
       <c r="F12">
-        <v>0.9953605600557638</v>
+        <v>1.035693977667355</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036200787513356</v>
+        <v>1.029911319158065</v>
       </c>
       <c r="J12">
-        <v>1.003064172250497</v>
+        <v>1.027254129752064</v>
       </c>
       <c r="K12">
-        <v>1.014352179794591</v>
+        <v>1.03320889671982</v>
       </c>
       <c r="L12">
-        <v>0.998290031432959</v>
+        <v>1.028016924366157</v>
       </c>
       <c r="M12">
-        <v>1.010577187470546</v>
+        <v>1.039307205564184</v>
       </c>
       <c r="N12">
-        <v>1.004813559337574</v>
+        <v>1.013099907458586</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9722843769564959</v>
+        <v>1.020541829889685</v>
       </c>
       <c r="D13">
-        <v>0.9993953905644392</v>
+        <v>1.029609017899342</v>
       </c>
       <c r="E13">
-        <v>0.9830498043795614</v>
+        <v>1.02440623049767</v>
       </c>
       <c r="F13">
-        <v>0.9955897740581457</v>
+        <v>1.035740588860272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03625676382677</v>
+        <v>1.029918296107145</v>
       </c>
       <c r="J13">
-        <v>1.003212754332003</v>
+        <v>1.027283836516363</v>
       </c>
       <c r="K13">
-        <v>1.014490110230656</v>
+        <v>1.033235563051753</v>
       </c>
       <c r="L13">
-        <v>0.998463958196288</v>
+        <v>1.028052647310069</v>
       </c>
       <c r="M13">
-        <v>1.010757637863581</v>
+        <v>1.039343998806044</v>
       </c>
       <c r="N13">
-        <v>1.00486410861993</v>
+        <v>1.013109906503465</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9731257562792697</v>
+        <v>1.020701203728868</v>
       </c>
       <c r="D14">
-        <v>1.000001876551295</v>
+        <v>1.029728670660614</v>
       </c>
       <c r="E14">
-        <v>0.9837805291129899</v>
+        <v>1.024555884753687</v>
       </c>
       <c r="F14">
-        <v>0.9963389624142654</v>
+        <v>1.035893341437556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036439367337113</v>
+        <v>1.029941116791244</v>
       </c>
       <c r="J14">
-        <v>1.003698227283048</v>
+        <v>1.027381173421258</v>
       </c>
       <c r="K14">
-        <v>1.014940726297879</v>
+        <v>1.033322926691122</v>
       </c>
       <c r="L14">
-        <v>0.9990323231193241</v>
+        <v>1.028169707166503</v>
       </c>
       <c r="M14">
-        <v>1.011347312366029</v>
+        <v>1.039464561695256</v>
       </c>
       <c r="N14">
-        <v>1.005029266300365</v>
+        <v>1.013142667146476</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9736423762783064</v>
+        <v>1.020799414335202</v>
       </c>
       <c r="D15">
-        <v>1.000374387927864</v>
+        <v>1.029802401321274</v>
       </c>
       <c r="E15">
-        <v>0.9842293932478959</v>
+        <v>1.02464811574985</v>
       </c>
       <c r="F15">
-        <v>0.99679915704401</v>
+        <v>1.035987478394617</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03655126034088</v>
+        <v>1.02995514688887</v>
       </c>
       <c r="J15">
-        <v>1.003996303431017</v>
+        <v>1.02744114625421</v>
       </c>
       <c r="K15">
-        <v>1.015217358931976</v>
+        <v>1.033376746196402</v>
       </c>
       <c r="L15">
-        <v>0.9993813565709234</v>
+        <v>1.028241839988713</v>
       </c>
       <c r="M15">
-        <v>1.011709425198816</v>
+        <v>1.039538849880568</v>
       </c>
       <c r="N15">
-        <v>1.005130667278417</v>
+        <v>1.013162850544723</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9766226589046033</v>
+        <v>1.021371272604127</v>
       </c>
       <c r="D16">
-        <v>1.002525082701067</v>
+        <v>1.030231676449847</v>
       </c>
       <c r="E16">
-        <v>0.9868216090901922</v>
+        <v>1.025185306408217</v>
       </c>
       <c r="F16">
-        <v>0.9994566266390615</v>
+        <v>1.036535716399647</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03719324243996</v>
+        <v>1.030036342308866</v>
       </c>
       <c r="J16">
-        <v>1.005715632302475</v>
+        <v>1.027790218660469</v>
       </c>
       <c r="K16">
-        <v>1.016812351002531</v>
+        <v>1.033689874178626</v>
       </c>
       <c r="L16">
-        <v>1.001395560051915</v>
+        <v>1.028661811236756</v>
       </c>
       <c r="M16">
-        <v>1.013798992179263</v>
+        <v>1.039971320790823</v>
       </c>
       <c r="N16">
-        <v>1.005715486757182</v>
+        <v>1.013280303198705</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9784691867552285</v>
+        <v>1.021730185947906</v>
       </c>
       <c r="D17">
-        <v>1.00385907732878</v>
+        <v>1.030501063331217</v>
       </c>
       <c r="E17">
-        <v>0.9884301123026625</v>
+        <v>1.025522593413183</v>
       </c>
       <c r="F17">
-        <v>1.001105451094003</v>
+        <v>1.03687989233933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037587878122423</v>
+        <v>1.030086863322556</v>
       </c>
       <c r="J17">
-        <v>1.006780668086951</v>
+        <v>1.028009185750261</v>
       </c>
       <c r="K17">
-        <v>1.017799779591692</v>
+        <v>1.033886180231622</v>
       </c>
       <c r="L17">
-        <v>1.002644090999228</v>
+        <v>1.028925359005553</v>
       </c>
       <c r="M17">
-        <v>1.015094125471322</v>
+        <v>1.040242669080398</v>
       </c>
       <c r="N17">
-        <v>1.006077687131272</v>
+        <v>1.013353957157585</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.979538190619177</v>
+        <v>1.021939606386619</v>
       </c>
       <c r="D18">
-        <v>1.004631862160386</v>
+        <v>1.030658232694687</v>
       </c>
       <c r="E18">
-        <v>0.9893621684499689</v>
+        <v>1.025719442601812</v>
       </c>
       <c r="F18">
-        <v>1.002060806307862</v>
+        <v>1.037080744989219</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03781520057255</v>
+        <v>1.030116183172182</v>
       </c>
       <c r="J18">
-        <v>1.007397148106667</v>
+        <v>1.02813690636032</v>
       </c>
       <c r="K18">
-        <v>1.018371119749487</v>
+        <v>1.034000641908274</v>
       </c>
       <c r="L18">
-        <v>1.0033670864196</v>
+        <v>1.029079121533317</v>
       </c>
       <c r="M18">
-        <v>1.015844062113193</v>
+        <v>1.040400966986491</v>
       </c>
       <c r="N18">
-        <v>1.006287316480637</v>
+        <v>1.013396910568856</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.979901348807498</v>
+        <v>1.022011025583981</v>
       </c>
       <c r="D19">
-        <v>1.004894472186771</v>
+        <v>1.030711830216533</v>
       </c>
       <c r="E19">
-        <v>0.9896789459383085</v>
+        <v>1.025786582614179</v>
       </c>
       <c r="F19">
-        <v>1.00238549096852</v>
+        <v>1.037149247574516</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037892230268886</v>
+        <v>1.03012615532818</v>
       </c>
       <c r="J19">
-        <v>1.007606558578358</v>
+        <v>1.028180455893273</v>
       </c>
       <c r="K19">
-        <v>1.018565159149091</v>
+        <v>1.034039663507466</v>
       </c>
       <c r="L19">
-        <v>1.003612730166667</v>
+        <v>1.029131557256729</v>
       </c>
       <c r="M19">
-        <v>1.016098851291679</v>
+        <v>1.040454946686787</v>
       </c>
       <c r="N19">
-        <v>1.006358520559955</v>
+        <v>1.013411555253973</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9782719086726729</v>
+        <v>1.021691670450575</v>
       </c>
       <c r="D20">
-        <v>1.003716504451609</v>
+        <v>1.030472156462289</v>
       </c>
       <c r="E20">
-        <v>0.9882581754507672</v>
+        <v>1.025486393764034</v>
       </c>
       <c r="F20">
-        <v>1.000929210882852</v>
+        <v>1.036842955096107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037545834432265</v>
+        <v>1.030081458221136</v>
       </c>
       <c r="J20">
-        <v>1.006666892286713</v>
+        <v>1.027985692562274</v>
       </c>
       <c r="K20">
-        <v>1.017694316897736</v>
+        <v>1.033865122612386</v>
       </c>
       <c r="L20">
-        <v>1.002510681451685</v>
+        <v>1.028897078722062</v>
       </c>
       <c r="M20">
-        <v>1.014955740892425</v>
+        <v>1.04021355337698</v>
       </c>
       <c r="N20">
-        <v>1.006038996488512</v>
+        <v>1.013346055577977</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9728783634819376</v>
+        <v>1.02065426895284</v>
       </c>
       <c r="D21">
-        <v>0.9998235249011187</v>
+        <v>1.029693434100809</v>
       </c>
       <c r="E21">
-        <v>0.98356563305591</v>
+        <v>1.024511810288337</v>
       </c>
       <c r="F21">
-        <v>0.9961186387722346</v>
+        <v>1.035848355222104</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036385723544906</v>
+        <v>1.029934403017045</v>
       </c>
       <c r="J21">
-        <v>1.003555484869652</v>
+        <v>1.02735251005332</v>
       </c>
       <c r="K21">
-        <v>1.014808241429008</v>
+        <v>1.033297201965546</v>
       </c>
       <c r="L21">
-        <v>0.9988651951766134</v>
+        <v>1.028135234208216</v>
       </c>
       <c r="M21">
-        <v>1.011173919735452</v>
+        <v>1.039429057799774</v>
       </c>
       <c r="N21">
-        <v>1.004980706303918</v>
+        <v>1.013133020268543</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9694099932762341</v>
+        <v>1.020002672914016</v>
       </c>
       <c r="D22">
-        <v>0.9973253150010459</v>
+        <v>1.029204196644609</v>
       </c>
       <c r="E22">
-        <v>0.9805562925631672</v>
+        <v>1.023900100715944</v>
       </c>
       <c r="F22">
-        <v>0.9930331005090478</v>
+        <v>1.03522392870269</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0356295730809</v>
+        <v>1.029840612326034</v>
       </c>
       <c r="J22">
-        <v>1.00155410447276</v>
+        <v>1.026954417650447</v>
       </c>
       <c r="K22">
-        <v>1.012949944790864</v>
+        <v>1.032939772400254</v>
       </c>
       <c r="L22">
-        <v>0.9965230306455598</v>
+        <v>1.027656597274337</v>
       </c>
       <c r="M22">
-        <v>1.008743848076108</v>
+        <v>1.038936049394495</v>
       </c>
       <c r="N22">
-        <v>1.00429977440822</v>
+        <v>1.012999010023417</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9712562031597325</v>
+        <v>1.020348033424736</v>
       </c>
       <c r="D23">
-        <v>0.9986545891028596</v>
+        <v>1.029463514491192</v>
       </c>
       <c r="E23">
-        <v>0.98215736467867</v>
+        <v>1.024224279534162</v>
       </c>
       <c r="F23">
-        <v>0.9946747553068305</v>
+        <v>1.035554861467329</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036033006060652</v>
+        <v>1.029890458543089</v>
       </c>
       <c r="J23">
-        <v>1.002619473297307</v>
+        <v>1.027165452231702</v>
       </c>
       <c r="K23">
-        <v>1.013939315353156</v>
+        <v>1.033129285869531</v>
       </c>
       <c r="L23">
-        <v>0.9977695462002708</v>
+        <v>1.027910296766715</v>
       </c>
       <c r="M23">
-        <v>1.010037172972742</v>
+        <v>1.039197379731544</v>
       </c>
       <c r="N23">
-        <v>1.004662263112424</v>
+        <v>1.013070057554293</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.978361074956976</v>
+        <v>1.021709073722455</v>
       </c>
       <c r="D24">
-        <v>1.003780943384798</v>
+        <v>1.030485218106953</v>
       </c>
       <c r="E24">
-        <v>0.9883358853027562</v>
+        <v>1.02550275047093</v>
       </c>
       <c r="F24">
-        <v>1.001008865916325</v>
+        <v>1.036859645135569</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037564841000105</v>
+        <v>1.030083901011789</v>
       </c>
       <c r="J24">
-        <v>1.006718317287924</v>
+        <v>1.027996308120274</v>
       </c>
       <c r="K24">
-        <v>1.017741985174043</v>
+        <v>1.033874637768817</v>
       </c>
       <c r="L24">
-        <v>1.00257097968364</v>
+        <v>1.028909857242715</v>
       </c>
       <c r="M24">
-        <v>1.015018287871971</v>
+        <v>1.040226709432863</v>
       </c>
       <c r="N24">
-        <v>1.006056484171961</v>
+        <v>1.013349625985509</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.986292365881963</v>
+        <v>1.023291319685245</v>
       </c>
       <c r="D25">
-        <v>1.009522600254918</v>
+        <v>1.031672433374474</v>
       </c>
       <c r="E25">
-        <v>0.9952657252783067</v>
+        <v>1.026990865765381</v>
       </c>
       <c r="F25">
-        <v>1.00811065068794</v>
+        <v>1.038377716264183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039230600815892</v>
+        <v>1.030302564462645</v>
       </c>
       <c r="J25">
-        <v>1.011290019617454</v>
+        <v>1.028960498123856</v>
       </c>
       <c r="K25">
-        <v>1.021974867024052</v>
+        <v>1.03473799117851</v>
       </c>
       <c r="L25">
-        <v>1.007937982044682</v>
+        <v>1.030071339465231</v>
       </c>
       <c r="M25">
-        <v>1.020584350596761</v>
+        <v>1.041422166493374</v>
       </c>
       <c r="N25">
-        <v>1.007610572107254</v>
+        <v>1.013673746152139</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024555560652727</v>
+        <v>0.9923882967465192</v>
       </c>
       <c r="D2">
-        <v>1.032620573605937</v>
+        <v>1.013947981354827</v>
       </c>
       <c r="E2">
-        <v>1.028181374237084</v>
+        <v>1.000616188762422</v>
       </c>
       <c r="F2">
-        <v>1.039591645800745</v>
+        <v>1.013591375511621</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03047225865665</v>
+        <v>1.040473606887443</v>
       </c>
       <c r="J2">
-        <v>1.029729517441904</v>
+        <v>1.014799080756071</v>
       </c>
       <c r="K2">
-        <v>1.035425278111687</v>
+        <v>1.02521635936551</v>
       </c>
       <c r="L2">
-        <v>1.030998938122216</v>
+        <v>1.01206694576661</v>
       </c>
       <c r="M2">
-        <v>1.042376397342437</v>
+        <v>1.02486455338094</v>
       </c>
       <c r="N2">
-        <v>1.013932003627131</v>
+        <v>1.008802493810564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025474795860711</v>
+        <v>0.996691357358818</v>
       </c>
       <c r="D3">
-        <v>1.033309687536604</v>
+        <v>1.017077677729132</v>
       </c>
       <c r="E3">
-        <v>1.029047846498326</v>
+        <v>1.004406200878884</v>
       </c>
       <c r="F3">
-        <v>1.040474847788155</v>
+        <v>1.017472012526503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030592728708559</v>
+        <v>1.041328570379702</v>
       </c>
       <c r="J3">
-        <v>1.030287865905521</v>
+        <v>1.017272627499799</v>
       </c>
       <c r="K3">
-        <v>1.035923522432904</v>
+        <v>1.027496611813465</v>
       </c>
       <c r="L3">
-        <v>1.031673133753845</v>
+        <v>1.014983012282404</v>
       </c>
       <c r="M3">
-        <v>1.043069657092351</v>
+        <v>1.027886111964589</v>
       </c>
       <c r="N3">
-        <v>1.014119363382004</v>
+        <v>1.009642066165333</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026070190676186</v>
+        <v>0.9994218885781058</v>
       </c>
       <c r="D4">
-        <v>1.033755895769136</v>
+        <v>1.019065951856944</v>
       </c>
       <c r="E4">
-        <v>1.029609455629092</v>
+        <v>1.006817009523714</v>
       </c>
       <c r="F4">
-        <v>1.041047153597179</v>
+        <v>1.019939642945004</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030669408074468</v>
+        <v>1.041860408747608</v>
       </c>
       <c r="J4">
-        <v>1.0306491357337</v>
+        <v>1.018840394074448</v>
       </c>
       <c r="K4">
-        <v>1.036245548855044</v>
+        <v>1.028939587165537</v>
       </c>
       <c r="L4">
-        <v>1.032109689514306</v>
+        <v>1.016833849665862</v>
       </c>
       <c r="M4">
-        <v>1.043518421212364</v>
+        <v>1.029803226050233</v>
       </c>
       <c r="N4">
-        <v>1.014240522086863</v>
+        <v>1.010173888438403</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026320634301036</v>
+        <v>1.000557354388453</v>
       </c>
       <c r="D5">
-        <v>1.033943553252814</v>
+        <v>1.019893252957571</v>
       </c>
       <c r="E5">
-        <v>1.029845780515499</v>
+        <v>1.007820885249167</v>
       </c>
       <c r="F5">
-        <v>1.041287944453316</v>
+        <v>1.020966972952895</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030701338774864</v>
+        <v>1.042078963138392</v>
       </c>
       <c r="J5">
-        <v>1.030801007948753</v>
+        <v>1.019491861081897</v>
       </c>
       <c r="K5">
-        <v>1.036380838775689</v>
+        <v>1.029538635525855</v>
       </c>
       <c r="L5">
-        <v>1.032293289590621</v>
+        <v>1.017603570860323</v>
       </c>
       <c r="M5">
-        <v>1.043707123029228</v>
+        <v>1.030600337324857</v>
       </c>
       <c r="N5">
-        <v>1.01429143868924</v>
+        <v>1.010394802997053</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026362693042725</v>
+        <v>1.000747286432429</v>
       </c>
       <c r="D6">
-        <v>1.033975065919389</v>
+        <v>1.020031665069471</v>
       </c>
       <c r="E6">
-        <v>1.029885473619576</v>
+        <v>1.007988885025128</v>
       </c>
       <c r="F6">
-        <v>1.041328385596682</v>
+        <v>1.021138885432553</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030706682159566</v>
+        <v>1.042115366871768</v>
       </c>
       <c r="J6">
-        <v>1.030826507600928</v>
+        <v>1.019600804685855</v>
       </c>
       <c r="K6">
-        <v>1.036403549237583</v>
+        <v>1.029638779681523</v>
       </c>
       <c r="L6">
-        <v>1.032324121039214</v>
+        <v>1.017732326911531</v>
       </c>
       <c r="M6">
-        <v>1.043738809280466</v>
+        <v>1.030733664640592</v>
       </c>
       <c r="N6">
-        <v>1.0142999867127</v>
+        <v>1.010431741436353</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026073536568899</v>
+        <v>0.9994371090789992</v>
       </c>
       <c r="D7">
-        <v>1.03375840297849</v>
+        <v>1.019077039639653</v>
       </c>
       <c r="E7">
-        <v>1.029612612533902</v>
+        <v>1.006830460769965</v>
       </c>
       <c r="F7">
-        <v>1.041050370298134</v>
+        <v>1.019953409289749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030669835934426</v>
+        <v>1.041863348734367</v>
       </c>
       <c r="J7">
-        <v>1.03065116508111</v>
+        <v>1.018849128665209</v>
       </c>
       <c r="K7">
-        <v>1.03624735696065</v>
+        <v>1.028947621195615</v>
       </c>
       <c r="L7">
-        <v>1.032112142506027</v>
+        <v>1.01684416727323</v>
       </c>
       <c r="M7">
-        <v>1.043520942494436</v>
+        <v>1.029813911499257</v>
       </c>
       <c r="N7">
-        <v>1.014241202510284</v>
+        <v>1.010176850678944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024866098009586</v>
+        <v>0.9938539545542406</v>
       </c>
       <c r="D8">
-        <v>1.03285339869223</v>
+        <v>1.015013462226068</v>
       </c>
       <c r="E8">
-        <v>1.028474006305119</v>
+        <v>1.001905852525784</v>
       </c>
       <c r="F8">
-        <v>1.039889958300007</v>
+        <v>1.014912043999874</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03051323526358</v>
+        <v>1.040767027098637</v>
       </c>
       <c r="J8">
-        <v>1.029918217195763</v>
+        <v>1.015641955213062</v>
       </c>
       <c r="K8">
-        <v>1.035593738217452</v>
+        <v>1.025993835556766</v>
       </c>
       <c r="L8">
-        <v>1.031226721561176</v>
+        <v>1.013060069569625</v>
       </c>
       <c r="M8">
-        <v>1.042610649875813</v>
+        <v>1.025893740826822</v>
       </c>
       <c r="N8">
-        <v>1.013995338130202</v>
+        <v>1.009088645381401</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022742993163858</v>
+        <v>0.9835825755472083</v>
       </c>
       <c r="D9">
-        <v>1.031261074578657</v>
+        <v>1.007558776949334</v>
       </c>
       <c r="E9">
-        <v>1.026474930136489</v>
+        <v>0.9928941422291132</v>
       </c>
       <c r="F9">
-        <v>1.037851478733765</v>
+        <v>1.005680587528767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030227562764897</v>
+        <v>1.038667238201843</v>
       </c>
       <c r="J9">
-        <v>1.028626571882705</v>
+        <v>1.009728699767724</v>
       </c>
       <c r="K9">
-        <v>1.034439189233432</v>
+        <v>1.020530397223393</v>
       </c>
       <c r="L9">
-        <v>1.029668896241115</v>
+        <v>1.006103568778295</v>
       </c>
       <c r="M9">
-        <v>1.041008028555446</v>
+        <v>1.018682168617735</v>
       </c>
       <c r="N9">
-        <v>1.013561533415449</v>
+        <v>1.007079960040409</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021330721758611</v>
+        <v>0.9764128794990268</v>
       </c>
       <c r="D10">
-        <v>1.030201238663796</v>
+        <v>1.002373600999573</v>
       </c>
       <c r="E10">
-        <v>1.025147205377939</v>
+        <v>0.9866389883454543</v>
       </c>
       <c r="F10">
-        <v>1.036496834862475</v>
+        <v>0.9992694194541109</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030030612908559</v>
+        <v>1.037148254451453</v>
       </c>
       <c r="J10">
-        <v>1.027765473406548</v>
+        <v>1.005594624074262</v>
       </c>
       <c r="K10">
-        <v>1.03366768427656</v>
+        <v>1.016700131188648</v>
       </c>
       <c r="L10">
-        <v>1.028632033185811</v>
+        <v>1.001253744367201</v>
       </c>
       <c r="M10">
-        <v>1.039940659243153</v>
+        <v>1.013651877299023</v>
       </c>
       <c r="N10">
-        <v>1.013271978560796</v>
+        <v>1.005674330646383</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020719949621527</v>
+        <v>0.9732244751627249</v>
       </c>
       <c r="D11">
-        <v>1.029742744118076</v>
+        <v>1.000073051279651</v>
       </c>
       <c r="E11">
-        <v>1.024573488709939</v>
+        <v>0.9838662897410653</v>
       </c>
       <c r="F11">
-        <v>1.035911309388362</v>
+        <v>0.9964268885333899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029943796703766</v>
+        <v>1.036460762057893</v>
       </c>
       <c r="J11">
-        <v>1.027392621225274</v>
+        <v>1.003755186209744</v>
       </c>
       <c r="K11">
-        <v>1.03333320042613</v>
+        <v>1.014993590091995</v>
       </c>
       <c r="L11">
-        <v>1.028183475638337</v>
+        <v>0.9990990157156076</v>
       </c>
       <c r="M11">
-        <v>1.039478741765706</v>
+        <v>1.011416504557741</v>
       </c>
       <c r="N11">
-        <v>1.013146519913797</v>
+        <v>1.005048643124516</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020493195540983</v>
+        <v>0.9720268750214797</v>
       </c>
       <c r="D12">
-        <v>1.029572503717037</v>
+        <v>0.9992098256171935</v>
       </c>
       <c r="E12">
-        <v>1.024360566104577</v>
+        <v>0.9828262435878429</v>
       </c>
       <c r="F12">
-        <v>1.035693977667355</v>
+        <v>0.9953605600557632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029911319158065</v>
+        <v>1.036200787513356</v>
       </c>
       <c r="J12">
-        <v>1.027254129752064</v>
+        <v>1.003064172250497</v>
       </c>
       <c r="K12">
-        <v>1.03320889671982</v>
+        <v>1.014352179794591</v>
       </c>
       <c r="L12">
-        <v>1.028016924366157</v>
+        <v>0.9982900314329586</v>
       </c>
       <c r="M12">
-        <v>1.039307205564184</v>
+        <v>1.010577187470545</v>
       </c>
       <c r="N12">
-        <v>1.013099907458586</v>
+        <v>1.004813559337573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020541829889685</v>
+        <v>0.9722843769564966</v>
       </c>
       <c r="D13">
-        <v>1.029609017899342</v>
+        <v>0.9993953905644395</v>
       </c>
       <c r="E13">
-        <v>1.02440623049767</v>
+        <v>0.9830498043795618</v>
       </c>
       <c r="F13">
-        <v>1.035740588860272</v>
+        <v>0.9955897740581461</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029918296107145</v>
+        <v>1.03625676382677</v>
       </c>
       <c r="J13">
-        <v>1.027283836516363</v>
+        <v>1.003212754332003</v>
       </c>
       <c r="K13">
-        <v>1.033235563051753</v>
+        <v>1.014490110230656</v>
       </c>
       <c r="L13">
-        <v>1.028052647310069</v>
+        <v>0.9984639581962885</v>
       </c>
       <c r="M13">
-        <v>1.039343998806044</v>
+        <v>1.010757637863581</v>
       </c>
       <c r="N13">
-        <v>1.013109906503465</v>
+        <v>1.00486410861993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020701203728868</v>
+        <v>0.9731257562792701</v>
       </c>
       <c r="D14">
-        <v>1.029728670660614</v>
+        <v>1.000001876551295</v>
       </c>
       <c r="E14">
-        <v>1.024555884753687</v>
+        <v>0.9837805291129902</v>
       </c>
       <c r="F14">
-        <v>1.035893341437556</v>
+        <v>0.996338962414266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029941116791244</v>
+        <v>1.036439367337113</v>
       </c>
       <c r="J14">
-        <v>1.027381173421258</v>
+        <v>1.003698227283049</v>
       </c>
       <c r="K14">
-        <v>1.033322926691122</v>
+        <v>1.01494072629788</v>
       </c>
       <c r="L14">
-        <v>1.028169707166503</v>
+        <v>0.9990323231193244</v>
       </c>
       <c r="M14">
-        <v>1.039464561695256</v>
+        <v>1.011347312366029</v>
       </c>
       <c r="N14">
-        <v>1.013142667146476</v>
+        <v>1.005029266300365</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020799414335202</v>
+        <v>0.9736423762783062</v>
       </c>
       <c r="D15">
-        <v>1.029802401321274</v>
+        <v>1.000374387927864</v>
       </c>
       <c r="E15">
-        <v>1.02464811574985</v>
+        <v>0.9842293932478955</v>
       </c>
       <c r="F15">
-        <v>1.035987478394617</v>
+        <v>0.9967991570440098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02995514688887</v>
+        <v>1.03655126034088</v>
       </c>
       <c r="J15">
-        <v>1.02744114625421</v>
+        <v>1.003996303431016</v>
       </c>
       <c r="K15">
-        <v>1.033376746196402</v>
+        <v>1.015217358931976</v>
       </c>
       <c r="L15">
-        <v>1.028241839988713</v>
+        <v>0.9993813565709231</v>
       </c>
       <c r="M15">
-        <v>1.039538849880568</v>
+        <v>1.011709425198816</v>
       </c>
       <c r="N15">
-        <v>1.013162850544723</v>
+        <v>1.005130667278417</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021371272604127</v>
+        <v>0.9766226589046039</v>
       </c>
       <c r="D16">
-        <v>1.030231676449847</v>
+        <v>1.002525082701067</v>
       </c>
       <c r="E16">
-        <v>1.025185306408217</v>
+        <v>0.9868216090901927</v>
       </c>
       <c r="F16">
-        <v>1.036535716399647</v>
+        <v>0.9994566266390623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030036342308866</v>
+        <v>1.037193242439961</v>
       </c>
       <c r="J16">
-        <v>1.027790218660469</v>
+        <v>1.005715632302475</v>
       </c>
       <c r="K16">
-        <v>1.033689874178626</v>
+        <v>1.016812351002532</v>
       </c>
       <c r="L16">
-        <v>1.028661811236756</v>
+        <v>1.001395560051916</v>
       </c>
       <c r="M16">
-        <v>1.039971320790823</v>
+        <v>1.013798992179264</v>
       </c>
       <c r="N16">
-        <v>1.013280303198705</v>
+        <v>1.005715486757182</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021730185947906</v>
+        <v>0.9784691867552293</v>
       </c>
       <c r="D17">
-        <v>1.030501063331217</v>
+        <v>1.003859077328781</v>
       </c>
       <c r="E17">
-        <v>1.025522593413183</v>
+        <v>0.9884301123026632</v>
       </c>
       <c r="F17">
-        <v>1.03687989233933</v>
+        <v>1.001105451094004</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030086863322556</v>
+        <v>1.037587878122423</v>
       </c>
       <c r="J17">
-        <v>1.028009185750261</v>
+        <v>1.006780668086952</v>
       </c>
       <c r="K17">
-        <v>1.033886180231622</v>
+        <v>1.017799779591693</v>
       </c>
       <c r="L17">
-        <v>1.028925359005553</v>
+        <v>1.002644090999228</v>
       </c>
       <c r="M17">
-        <v>1.040242669080398</v>
+        <v>1.015094125471322</v>
       </c>
       <c r="N17">
-        <v>1.013353957157585</v>
+        <v>1.006077687131272</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021939606386619</v>
+        <v>0.9795381906191768</v>
       </c>
       <c r="D18">
-        <v>1.030658232694687</v>
+        <v>1.004631862160386</v>
       </c>
       <c r="E18">
-        <v>1.025719442601812</v>
+        <v>0.9893621684499685</v>
       </c>
       <c r="F18">
-        <v>1.037080744989219</v>
+        <v>1.002060806307862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030116183172182</v>
+        <v>1.037815200572549</v>
       </c>
       <c r="J18">
-        <v>1.02813690636032</v>
+        <v>1.007397148106667</v>
       </c>
       <c r="K18">
-        <v>1.034000641908274</v>
+        <v>1.018371119749487</v>
       </c>
       <c r="L18">
-        <v>1.029079121533317</v>
+        <v>1.003367086419599</v>
       </c>
       <c r="M18">
-        <v>1.040400966986491</v>
+        <v>1.015844062113193</v>
       </c>
       <c r="N18">
-        <v>1.013396910568856</v>
+        <v>1.006287316480636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022011025583981</v>
+        <v>0.9799013488074984</v>
       </c>
       <c r="D19">
-        <v>1.030711830216533</v>
+        <v>1.004894472186771</v>
       </c>
       <c r="E19">
-        <v>1.025786582614179</v>
+        <v>0.989678945938309</v>
       </c>
       <c r="F19">
-        <v>1.037149247574516</v>
+        <v>1.002385490968521</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03012615532818</v>
+        <v>1.037892230268886</v>
       </c>
       <c r="J19">
-        <v>1.028180455893273</v>
+        <v>1.007606558578358</v>
       </c>
       <c r="K19">
-        <v>1.034039663507466</v>
+        <v>1.018565159149091</v>
       </c>
       <c r="L19">
-        <v>1.029131557256729</v>
+        <v>1.003612730166667</v>
       </c>
       <c r="M19">
-        <v>1.040454946686787</v>
+        <v>1.016098851291679</v>
       </c>
       <c r="N19">
-        <v>1.013411555253973</v>
+        <v>1.006358520559955</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021691670450575</v>
+        <v>0.9782719086726729</v>
       </c>
       <c r="D20">
-        <v>1.030472156462289</v>
+        <v>1.003716504451608</v>
       </c>
       <c r="E20">
-        <v>1.025486393764034</v>
+        <v>0.9882581754507671</v>
       </c>
       <c r="F20">
-        <v>1.036842955096107</v>
+        <v>1.000929210882852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030081458221136</v>
+        <v>1.037545834432265</v>
       </c>
       <c r="J20">
-        <v>1.027985692562274</v>
+        <v>1.006666892286713</v>
       </c>
       <c r="K20">
-        <v>1.033865122612386</v>
+        <v>1.017694316897736</v>
       </c>
       <c r="L20">
-        <v>1.028897078722062</v>
+        <v>1.002510681451685</v>
       </c>
       <c r="M20">
-        <v>1.04021355337698</v>
+        <v>1.014955740892425</v>
       </c>
       <c r="N20">
-        <v>1.013346055577977</v>
+        <v>1.006038996488512</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02065426895284</v>
+        <v>0.9728783634819379</v>
       </c>
       <c r="D21">
-        <v>1.029693434100809</v>
+        <v>0.9998235249011187</v>
       </c>
       <c r="E21">
-        <v>1.024511810288337</v>
+        <v>0.9835656330559099</v>
       </c>
       <c r="F21">
-        <v>1.035848355222104</v>
+        <v>0.9961186387722345</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029934403017045</v>
+        <v>1.036385723544906</v>
       </c>
       <c r="J21">
-        <v>1.02735251005332</v>
+        <v>1.003555484869652</v>
       </c>
       <c r="K21">
-        <v>1.033297201965546</v>
+        <v>1.014808241429008</v>
       </c>
       <c r="L21">
-        <v>1.028135234208216</v>
+        <v>0.9988651951766135</v>
       </c>
       <c r="M21">
-        <v>1.039429057799774</v>
+        <v>1.011173919735453</v>
       </c>
       <c r="N21">
-        <v>1.013133020268543</v>
+        <v>1.004980706303918</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020002672914016</v>
+        <v>0.9694099932762344</v>
       </c>
       <c r="D22">
-        <v>1.029204196644609</v>
+        <v>0.9973253150010464</v>
       </c>
       <c r="E22">
-        <v>1.023900100715944</v>
+        <v>0.9805562925631678</v>
       </c>
       <c r="F22">
-        <v>1.03522392870269</v>
+        <v>0.9930331005090482</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029840612326034</v>
+        <v>1.0356295730809</v>
       </c>
       <c r="J22">
-        <v>1.026954417650447</v>
+        <v>1.00155410447276</v>
       </c>
       <c r="K22">
-        <v>1.032939772400254</v>
+        <v>1.012949944790864</v>
       </c>
       <c r="L22">
-        <v>1.027656597274337</v>
+        <v>0.9965230306455604</v>
       </c>
       <c r="M22">
-        <v>1.038936049394495</v>
+        <v>1.008743848076108</v>
       </c>
       <c r="N22">
-        <v>1.012999010023417</v>
+        <v>1.00429977440822</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020348033424736</v>
+        <v>0.9712562031597326</v>
       </c>
       <c r="D23">
-        <v>1.029463514491192</v>
+        <v>0.9986545891028599</v>
       </c>
       <c r="E23">
-        <v>1.024224279534162</v>
+        <v>0.9821573646786704</v>
       </c>
       <c r="F23">
-        <v>1.035554861467329</v>
+        <v>0.9946747553068305</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029890458543089</v>
+        <v>1.036033006060652</v>
       </c>
       <c r="J23">
-        <v>1.027165452231702</v>
+        <v>1.002619473297308</v>
       </c>
       <c r="K23">
-        <v>1.033129285869531</v>
+        <v>1.013939315353156</v>
       </c>
       <c r="L23">
-        <v>1.027910296766715</v>
+        <v>0.9977695462002711</v>
       </c>
       <c r="M23">
-        <v>1.039197379731544</v>
+        <v>1.010037172972742</v>
       </c>
       <c r="N23">
-        <v>1.013070057554293</v>
+        <v>1.004662263112424</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021709073722455</v>
+        <v>0.9783610749569757</v>
       </c>
       <c r="D24">
-        <v>1.030485218106953</v>
+        <v>1.003780943384798</v>
       </c>
       <c r="E24">
-        <v>1.02550275047093</v>
+        <v>0.9883358853027558</v>
       </c>
       <c r="F24">
-        <v>1.036859645135569</v>
+        <v>1.001008865916324</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030083901011789</v>
+        <v>1.037564841000104</v>
       </c>
       <c r="J24">
-        <v>1.027996308120274</v>
+        <v>1.006718317287924</v>
       </c>
       <c r="K24">
-        <v>1.033874637768817</v>
+        <v>1.017741985174042</v>
       </c>
       <c r="L24">
-        <v>1.028909857242715</v>
+        <v>1.002570979683639</v>
       </c>
       <c r="M24">
-        <v>1.040226709432863</v>
+        <v>1.015018287871971</v>
       </c>
       <c r="N24">
-        <v>1.013349625985509</v>
+        <v>1.006056484171961</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023291319685245</v>
+        <v>0.9862923658819633</v>
       </c>
       <c r="D25">
-        <v>1.031672433374474</v>
+        <v>1.009522600254918</v>
       </c>
       <c r="E25">
-        <v>1.026990865765381</v>
+        <v>0.9952657252783073</v>
       </c>
       <c r="F25">
-        <v>1.038377716264183</v>
+        <v>1.00811065068794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030302564462645</v>
+        <v>1.039230600815892</v>
       </c>
       <c r="J25">
-        <v>1.028960498123856</v>
+        <v>1.011290019617454</v>
       </c>
       <c r="K25">
-        <v>1.03473799117851</v>
+        <v>1.021974867024052</v>
       </c>
       <c r="L25">
-        <v>1.030071339465231</v>
+        <v>1.007937982044682</v>
       </c>
       <c r="M25">
-        <v>1.041422166493374</v>
+        <v>1.020584350596761</v>
       </c>
       <c r="N25">
-        <v>1.013673746152139</v>
+        <v>1.007610572107254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923882967465192</v>
+        <v>1.023021886935844</v>
       </c>
       <c r="D2">
-        <v>1.013947981354827</v>
+        <v>1.039931209068396</v>
       </c>
       <c r="E2">
-        <v>1.000616188762422</v>
+        <v>1.031050144513853</v>
       </c>
       <c r="F2">
-        <v>1.013591375511621</v>
+        <v>1.04451191649465</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040473606887443</v>
+        <v>1.053671166287062</v>
       </c>
       <c r="J2">
-        <v>1.014799080756071</v>
+        <v>1.04453516421128</v>
       </c>
       <c r="K2">
-        <v>1.02521635936551</v>
+        <v>1.050860917073372</v>
       </c>
       <c r="L2">
-        <v>1.01206694576661</v>
+        <v>1.042093207792629</v>
       </c>
       <c r="M2">
-        <v>1.02486455338094</v>
+        <v>1.055384097045562</v>
       </c>
       <c r="N2">
-        <v>1.008802493810564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018141636605556</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.05240509182381</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047033309280173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.996691357358818</v>
+        <v>1.027178774534594</v>
       </c>
       <c r="D3">
-        <v>1.017077677729132</v>
+        <v>1.042720249247992</v>
       </c>
       <c r="E3">
-        <v>1.004406200878884</v>
+        <v>1.034728936163159</v>
       </c>
       <c r="F3">
-        <v>1.017472012526503</v>
+        <v>1.047327022356605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041328570379702</v>
+        <v>1.054805895173535</v>
       </c>
       <c r="J3">
-        <v>1.017272627499799</v>
+        <v>1.046954975725185</v>
       </c>
       <c r="K3">
-        <v>1.027496611813465</v>
+        <v>1.052834207571279</v>
       </c>
       <c r="L3">
-        <v>1.014983012282404</v>
+        <v>1.044935930743462</v>
       </c>
       <c r="M3">
-        <v>1.027886111964589</v>
+        <v>1.057388143879468</v>
       </c>
       <c r="N3">
-        <v>1.009642066165333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018999976339001</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053991133218725</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048425932580538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994218885781058</v>
+        <v>1.029819868477271</v>
       </c>
       <c r="D4">
-        <v>1.019065951856944</v>
+        <v>1.044496737705241</v>
       </c>
       <c r="E4">
-        <v>1.006817009523714</v>
+        <v>1.03707147531919</v>
       </c>
       <c r="F4">
-        <v>1.019939642945004</v>
+        <v>1.049122512627941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041860408747608</v>
+        <v>1.055519468864924</v>
       </c>
       <c r="J4">
-        <v>1.018840394074448</v>
+        <v>1.048490359769557</v>
       </c>
       <c r="K4">
-        <v>1.028939587165537</v>
+        <v>1.05408622470209</v>
       </c>
       <c r="L4">
-        <v>1.016833849665862</v>
+        <v>1.046742157141349</v>
       </c>
       <c r="M4">
-        <v>1.029803226050233</v>
+        <v>1.058662129055308</v>
       </c>
       <c r="N4">
-        <v>1.010173888438403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019544200831652</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.054999387978876</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049312080855925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000557354388453</v>
+        <v>1.030923571695588</v>
       </c>
       <c r="D5">
-        <v>1.019893252957571</v>
+        <v>1.045242253275063</v>
       </c>
       <c r="E5">
-        <v>1.007820885249167</v>
+        <v>1.038052140913164</v>
       </c>
       <c r="F5">
-        <v>1.020966972952895</v>
+        <v>1.049875165708442</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042078963138392</v>
+        <v>1.055817757913179</v>
       </c>
       <c r="J5">
-        <v>1.019491861081897</v>
+        <v>1.049133317809164</v>
       </c>
       <c r="K5">
-        <v>1.029538635525855</v>
+        <v>1.054611968101732</v>
       </c>
       <c r="L5">
-        <v>1.017603570860323</v>
+        <v>1.047498371250461</v>
       </c>
       <c r="M5">
-        <v>1.030600337324857</v>
+        <v>1.059196256511498</v>
       </c>
       <c r="N5">
-        <v>1.010394802997053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019772721805393</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055422105646873</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049690895222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000747286432429</v>
+        <v>1.031113927336818</v>
       </c>
       <c r="D6">
-        <v>1.020031665069471</v>
+        <v>1.045373435604576</v>
       </c>
       <c r="E6">
-        <v>1.007988885025128</v>
+        <v>1.038221958805868</v>
       </c>
       <c r="F6">
-        <v>1.021138885432553</v>
+        <v>1.050005929819448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042115366871768</v>
+        <v>1.05587140353759</v>
       </c>
       <c r="J6">
-        <v>1.019600804685855</v>
+        <v>1.049246424568591</v>
       </c>
       <c r="K6">
-        <v>1.029638779681523</v>
+        <v>1.054706227089174</v>
       </c>
       <c r="L6">
-        <v>1.017732326911531</v>
+        <v>1.047630503307989</v>
       </c>
       <c r="M6">
-        <v>1.030733664640592</v>
+        <v>1.059290323472749</v>
       </c>
       <c r="N6">
-        <v>1.010431741436353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019813795468135</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055496551835767</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049766174108986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994371090789992</v>
+        <v>1.029850034466792</v>
       </c>
       <c r="D7">
-        <v>1.019077039639653</v>
+        <v>1.04452393418755</v>
       </c>
       <c r="E7">
-        <v>1.006830460769965</v>
+        <v>1.037099920646198</v>
       </c>
       <c r="F7">
-        <v>1.019953409289749</v>
+        <v>1.049145380676316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041863348734367</v>
+        <v>1.055533852609362</v>
       </c>
       <c r="J7">
-        <v>1.018849128665209</v>
+        <v>1.048513989724742</v>
       </c>
       <c r="K7">
-        <v>1.028947621195615</v>
+        <v>1.054110295104991</v>
       </c>
       <c r="L7">
-        <v>1.01684416727323</v>
+        <v>1.046767430414528</v>
       </c>
       <c r="M7">
-        <v>1.029813911499257</v>
+        <v>1.058681937149141</v>
       </c>
       <c r="N7">
-        <v>1.010176850678944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019554999912143</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055015064449684</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049348956343206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9938539545542406</v>
+        <v>1.024456569890104</v>
       </c>
       <c r="D8">
-        <v>1.015013462226068</v>
+        <v>1.040901391434732</v>
       </c>
       <c r="E8">
-        <v>1.001905852525784</v>
+        <v>1.032320846919941</v>
       </c>
       <c r="F8">
-        <v>1.014912043999874</v>
+        <v>1.045484950080583</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040767027098637</v>
+        <v>1.054072150170989</v>
       </c>
       <c r="J8">
-        <v>1.015641955213062</v>
+        <v>1.045378366447751</v>
       </c>
       <c r="K8">
-        <v>1.025993835556766</v>
+        <v>1.051554426717608</v>
       </c>
       <c r="L8">
-        <v>1.013060069569625</v>
+        <v>1.04308011059951</v>
       </c>
       <c r="M8">
-        <v>1.025893740826822</v>
+        <v>1.056082127905109</v>
       </c>
       <c r="N8">
-        <v>1.009088645381401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018443979594474</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.052957527314738</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047546307438674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9835825755472083</v>
+        <v>1.014536852690673</v>
       </c>
       <c r="D9">
-        <v>1.007558776949334</v>
+        <v>1.034265190253267</v>
       </c>
       <c r="E9">
-        <v>0.9928941422291132</v>
+        <v>1.023571112714462</v>
       </c>
       <c r="F9">
-        <v>1.005680587528767</v>
+        <v>1.038805929137977</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038667238201843</v>
+        <v>1.051316563194066</v>
       </c>
       <c r="J9">
-        <v>1.009728699767724</v>
+        <v>1.039586517740378</v>
       </c>
       <c r="K9">
-        <v>1.020530397223393</v>
+        <v>1.046825767068278</v>
       </c>
       <c r="L9">
-        <v>1.006103568778295</v>
+        <v>1.036292999947059</v>
       </c>
       <c r="M9">
-        <v>1.018682168617735</v>
+        <v>1.051299288862527</v>
       </c>
       <c r="N9">
-        <v>1.007079960040409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016384811362554</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.049172285312882</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044199755264547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9764128794990268</v>
+        <v>1.007716057024334</v>
       </c>
       <c r="D10">
-        <v>1.002373600999573</v>
+        <v>1.029757363659762</v>
       </c>
       <c r="E10">
-        <v>0.9866389883454543</v>
+        <v>1.017594705168493</v>
       </c>
       <c r="F10">
-        <v>0.9992694194541109</v>
+        <v>1.034328246101796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037148254451453</v>
+        <v>1.049416697560173</v>
       </c>
       <c r="J10">
-        <v>1.005594624074262</v>
+        <v>1.035626845875655</v>
       </c>
       <c r="K10">
-        <v>1.016700131188648</v>
+        <v>1.043609351037587</v>
       </c>
       <c r="L10">
-        <v>1.001253744367201</v>
+        <v>1.03165338599801</v>
       </c>
       <c r="M10">
-        <v>1.013651877299023</v>
+        <v>1.048104173012697</v>
       </c>
       <c r="N10">
-        <v>1.005674330646383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014987968511732</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046694521611632</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041942239600095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9732244751627249</v>
+        <v>1.005324928619551</v>
       </c>
       <c r="D11">
-        <v>1.000073051279651</v>
+        <v>1.028392939919802</v>
       </c>
       <c r="E11">
-        <v>0.9838662897410653</v>
+        <v>1.015578984540397</v>
       </c>
       <c r="F11">
-        <v>0.9964268885333899</v>
+        <v>1.033350926487005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036460762057893</v>
+        <v>1.048985277589109</v>
       </c>
       <c r="J11">
-        <v>1.003755186209744</v>
+        <v>1.034477850004853</v>
       </c>
       <c r="K11">
-        <v>1.014993590091995</v>
+        <v>1.042798561155589</v>
       </c>
       <c r="L11">
-        <v>0.9990990157156076</v>
+        <v>1.030212965181561</v>
       </c>
       <c r="M11">
-        <v>1.011416504557741</v>
+        <v>1.047670156871275</v>
       </c>
       <c r="N11">
-        <v>1.005048643124516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014684341885674</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046783116953897</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041401545328892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9720268750214797</v>
+        <v>1.004655792015207</v>
       </c>
       <c r="D12">
-        <v>0.9992098256171935</v>
+        <v>1.028103135214015</v>
       </c>
       <c r="E12">
-        <v>0.9828262435878429</v>
+        <v>1.015049002525892</v>
       </c>
       <c r="F12">
-        <v>0.9953605600557632</v>
+        <v>1.033342383263388</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036200787513356</v>
+        <v>1.048973350981731</v>
       </c>
       <c r="J12">
-        <v>1.003064172250497</v>
+        <v>1.034264409083166</v>
       </c>
       <c r="K12">
-        <v>1.014352179794591</v>
+        <v>1.042711027599215</v>
       </c>
       <c r="L12">
-        <v>0.9982900314329586</v>
+        <v>1.029893457193609</v>
       </c>
       <c r="M12">
-        <v>1.010577187470545</v>
+        <v>1.047857510506602</v>
       </c>
       <c r="N12">
-        <v>1.004813559337573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014690037125628</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047254855799189</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041339657264446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9722843769564966</v>
+        <v>1.00528982433125</v>
       </c>
       <c r="D13">
-        <v>0.9993953905644395</v>
+        <v>1.028644850464053</v>
       </c>
       <c r="E13">
-        <v>0.9830498043795618</v>
+        <v>1.015647452008518</v>
       </c>
       <c r="F13">
-        <v>0.9955897740581461</v>
+        <v>1.034107134732473</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03625676382677</v>
+        <v>1.04930187992811</v>
       </c>
       <c r="J13">
-        <v>1.003212754332003</v>
+        <v>1.03478017557992</v>
       </c>
       <c r="K13">
-        <v>1.014490110230656</v>
+        <v>1.043200831098783</v>
       </c>
       <c r="L13">
-        <v>0.9984639581962885</v>
+        <v>1.030437839722184</v>
       </c>
       <c r="M13">
-        <v>1.010757637863581</v>
+        <v>1.048566881488465</v>
       </c>
       <c r="N13">
-        <v>1.00486410861993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014945455646229</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048090242032843</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041683487951732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9731257562792701</v>
+        <v>1.006324394031518</v>
       </c>
       <c r="D14">
-        <v>1.000001876551295</v>
+        <v>1.029401533205288</v>
       </c>
       <c r="E14">
-        <v>0.9837805291129902</v>
+        <v>1.016578036843103</v>
       </c>
       <c r="F14">
-        <v>0.996338962414266</v>
+        <v>1.034992467249429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036439367337113</v>
+        <v>1.049685984114333</v>
       </c>
       <c r="J14">
-        <v>1.003698227283049</v>
+        <v>1.035471698940164</v>
       </c>
       <c r="K14">
-        <v>1.01494072629788</v>
+        <v>1.043805763666231</v>
       </c>
       <c r="L14">
-        <v>0.9990323231193244</v>
+        <v>1.031210512296542</v>
       </c>
       <c r="M14">
-        <v>1.011347312366029</v>
+        <v>1.049299474952168</v>
       </c>
       <c r="N14">
-        <v>1.005029266300365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015237558763559</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04884146226497</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042112599946602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9736423762783062</v>
+        <v>1.006867468414291</v>
       </c>
       <c r="D15">
-        <v>1.000374387927864</v>
+        <v>1.029777001006682</v>
       </c>
       <c r="E15">
-        <v>0.9842293932478955</v>
+        <v>1.017058488963523</v>
       </c>
       <c r="F15">
-        <v>0.9967991570440098</v>
+        <v>1.035392970305433</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03655126034088</v>
+        <v>1.04986007979197</v>
       </c>
       <c r="J15">
-        <v>1.003996303431016</v>
+        <v>1.035807939439747</v>
       </c>
       <c r="K15">
-        <v>1.015217358931976</v>
+        <v>1.0440894626065</v>
       </c>
       <c r="L15">
-        <v>0.9993813565709231</v>
+        <v>1.031595539247375</v>
       </c>
       <c r="M15">
-        <v>1.011709425198816</v>
+        <v>1.049608532197365</v>
       </c>
       <c r="N15">
-        <v>1.005130667278417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015367117999537</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049123038577546</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042318997797007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9766226589046039</v>
+        <v>1.009637197235886</v>
       </c>
       <c r="D16">
-        <v>1.002525082701067</v>
+        <v>1.031588480795949</v>
       </c>
       <c r="E16">
-        <v>0.9868216090901927</v>
+        <v>1.019473163962607</v>
       </c>
       <c r="F16">
-        <v>0.9994566266390623</v>
+        <v>1.037173950110029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037193242439961</v>
+        <v>1.05061772794735</v>
       </c>
       <c r="J16">
-        <v>1.005715632302475</v>
+        <v>1.03739802455495</v>
       </c>
       <c r="K16">
-        <v>1.016812351002532</v>
+        <v>1.045374819557932</v>
       </c>
       <c r="L16">
-        <v>1.001395560051916</v>
+        <v>1.03346383352056</v>
       </c>
       <c r="M16">
-        <v>1.013798992179264</v>
+        <v>1.05086815418837</v>
       </c>
       <c r="N16">
-        <v>1.005715486757182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015913878552342</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.050080189933067</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043230909079097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784691867552293</v>
+        <v>1.011221863399716</v>
       </c>
       <c r="D17">
-        <v>1.003859077328781</v>
+        <v>1.032583442706717</v>
       </c>
       <c r="E17">
-        <v>0.9884301123026632</v>
+        <v>1.020840955526022</v>
       </c>
       <c r="F17">
-        <v>1.001105451094004</v>
+        <v>1.038072784547536</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037587878122423</v>
+        <v>1.050995941302998</v>
       </c>
       <c r="J17">
-        <v>1.006780668086952</v>
+        <v>1.038255529000794</v>
       </c>
       <c r="K17">
-        <v>1.017799779591693</v>
+        <v>1.04604330784646</v>
       </c>
       <c r="L17">
-        <v>1.002644090999228</v>
+        <v>1.034493175291919</v>
       </c>
       <c r="M17">
-        <v>1.015094125471322</v>
+        <v>1.051444641299514</v>
       </c>
       <c r="N17">
-        <v>1.006077687131272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016180209001832</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.050407756822851</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043706107760587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9795381906191768</v>
+        <v>1.011917211812134</v>
       </c>
       <c r="D18">
-        <v>1.004631862160386</v>
+        <v>1.032939646553576</v>
       </c>
       <c r="E18">
-        <v>0.9893621684499685</v>
+        <v>1.021413427237763</v>
       </c>
       <c r="F18">
-        <v>1.002060806307862</v>
+        <v>1.03824552134813</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037815200572549</v>
+        <v>1.051065353095676</v>
       </c>
       <c r="J18">
-        <v>1.007397148106667</v>
+        <v>1.038537440025725</v>
       </c>
       <c r="K18">
-        <v>1.018371119749487</v>
+        <v>1.04621303105165</v>
       </c>
       <c r="L18">
-        <v>1.003367086419599</v>
+        <v>1.034872497796767</v>
       </c>
       <c r="M18">
-        <v>1.015844062113193</v>
+        <v>1.05143520152871</v>
       </c>
       <c r="N18">
-        <v>1.006287316480636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016217796112493</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.050164546683777</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04381458435968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9799013488074984</v>
+        <v>1.011830849393484</v>
       </c>
       <c r="D19">
-        <v>1.004894472186771</v>
+        <v>1.032742390754726</v>
       </c>
       <c r="E19">
-        <v>0.989678945938309</v>
+        <v>1.021288399150876</v>
       </c>
       <c r="F19">
-        <v>1.002385490968521</v>
+        <v>1.037773909220714</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037892230268886</v>
+        <v>1.050873874535986</v>
       </c>
       <c r="J19">
-        <v>1.007606558578358</v>
+        <v>1.038322173259341</v>
       </c>
       <c r="K19">
-        <v>1.018565159149091</v>
+        <v>1.045957262609106</v>
       </c>
       <c r="L19">
-        <v>1.003612730166667</v>
+        <v>1.034686884266976</v>
       </c>
       <c r="M19">
-        <v>1.016098851291679</v>
+        <v>1.050909761580663</v>
       </c>
       <c r="N19">
-        <v>1.006358520559955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016065990449169</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049426571764546</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043640083870705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9782719086726729</v>
+        <v>1.009528302432442</v>
       </c>
       <c r="D20">
-        <v>1.003716504451608</v>
+        <v>1.030971774147849</v>
       </c>
       <c r="E20">
-        <v>0.9882581754507671</v>
+        <v>1.0191854241502</v>
       </c>
       <c r="F20">
-        <v>1.000929210882852</v>
+        <v>1.035525019183253</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037545834432265</v>
+        <v>1.049941730108274</v>
       </c>
       <c r="J20">
-        <v>1.006666892286713</v>
+        <v>1.036696801572027</v>
       </c>
       <c r="K20">
-        <v>1.017694316897736</v>
+        <v>1.044491039950652</v>
       </c>
       <c r="L20">
-        <v>1.002510681451685</v>
+        <v>1.032899106220031</v>
       </c>
       <c r="M20">
-        <v>1.014955740892425</v>
+        <v>1.048970699399908</v>
       </c>
       <c r="N20">
-        <v>1.006038996488512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015373346850521</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047369833580873</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042607316642166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9728783634819379</v>
+        <v>1.004279669285276</v>
       </c>
       <c r="D21">
-        <v>0.9998235249011187</v>
+        <v>1.027470800450883</v>
       </c>
       <c r="E21">
-        <v>0.9835656330559099</v>
+        <v>1.014583601611601</v>
       </c>
       <c r="F21">
-        <v>0.9961186387722345</v>
+        <v>1.031980251701378</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036385723544906</v>
+        <v>1.048419614340238</v>
       </c>
       <c r="J21">
-        <v>1.003555484869652</v>
+        <v>1.033599542663244</v>
       </c>
       <c r="K21">
-        <v>1.014808241429008</v>
+        <v>1.041949772982377</v>
       </c>
       <c r="L21">
-        <v>0.9988651951766135</v>
+        <v>1.029293852185654</v>
       </c>
       <c r="M21">
-        <v>1.011173919735453</v>
+        <v>1.046380062863139</v>
       </c>
       <c r="N21">
-        <v>1.004980706303918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014261223556087</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04527908363348</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040813783689883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9694099932762344</v>
+        <v>1.000930920855028</v>
       </c>
       <c r="D22">
-        <v>0.9973253150010464</v>
+        <v>1.025249568950643</v>
       </c>
       <c r="E22">
-        <v>0.9805562925631678</v>
+        <v>1.011657154707303</v>
       </c>
       <c r="F22">
-        <v>0.9930331005090482</v>
+        <v>1.029762728380181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0356295730809</v>
+        <v>1.047449306536179</v>
       </c>
       <c r="J22">
-        <v>1.00155410447276</v>
+        <v>1.031630309033509</v>
       </c>
       <c r="K22">
-        <v>1.012949944790864</v>
+        <v>1.040336890471034</v>
       </c>
       <c r="L22">
-        <v>0.9965230306455604</v>
+        <v>1.027001165028335</v>
       </c>
       <c r="M22">
-        <v>1.008743848076108</v>
+        <v>1.044766771900701</v>
       </c>
       <c r="N22">
-        <v>1.00429977440822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013556512833122</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044002279284024</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039660027303674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9712562031597326</v>
+        <v>1.002697337670027</v>
       </c>
       <c r="D23">
-        <v>0.9986545891028599</v>
+        <v>1.026414209768568</v>
       </c>
       <c r="E23">
-        <v>0.9821573646786704</v>
+        <v>1.013198334193827</v>
       </c>
       <c r="F23">
-        <v>0.9946747553068305</v>
+        <v>1.030929208491698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036033006060652</v>
+        <v>1.047955910701004</v>
       </c>
       <c r="J23">
-        <v>1.002619473297308</v>
+        <v>1.032663365308316</v>
       </c>
       <c r="K23">
-        <v>1.013939315353156</v>
+        <v>1.041178819029784</v>
       </c>
       <c r="L23">
-        <v>0.9977695462002711</v>
+        <v>1.028205922659178</v>
       </c>
       <c r="M23">
-        <v>1.010037172972742</v>
+        <v>1.04561266158386</v>
       </c>
       <c r="N23">
-        <v>1.004662263112424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013923497520186</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044671740714085</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040245735537068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9783610749569757</v>
+        <v>1.009530616783042</v>
       </c>
       <c r="D24">
-        <v>1.003780943384798</v>
+        <v>1.030943721540148</v>
       </c>
       <c r="E24">
-        <v>0.9883358853027558</v>
+        <v>1.019177980907646</v>
       </c>
       <c r="F24">
-        <v>1.001008865916324</v>
+        <v>1.035465591640689</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037564841000104</v>
+        <v>1.049910725108069</v>
       </c>
       <c r="J24">
-        <v>1.006718317287924</v>
+        <v>1.036666665820841</v>
       </c>
       <c r="K24">
-        <v>1.017741985174042</v>
+        <v>1.044448381064801</v>
       </c>
       <c r="L24">
-        <v>1.002570979683639</v>
+        <v>1.032876476917895</v>
       </c>
       <c r="M24">
-        <v>1.015018287871971</v>
+        <v>1.048897258034437</v>
       </c>
       <c r="N24">
-        <v>1.006056484171961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015349654700502</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047271259044875</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042549995569043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9862923658819633</v>
+        <v>1.017175809350689</v>
       </c>
       <c r="D25">
-        <v>1.009522600254918</v>
+        <v>1.036036788586221</v>
       </c>
       <c r="E25">
-        <v>0.9952657252783073</v>
+        <v>1.02589641577792</v>
       </c>
       <c r="F25">
-        <v>1.00811065068794</v>
+        <v>1.040579491908613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039230600815892</v>
+        <v>1.052066110169574</v>
       </c>
       <c r="J25">
-        <v>1.011290019617454</v>
+        <v>1.041138649614295</v>
       </c>
       <c r="K25">
-        <v>1.021974867024052</v>
+        <v>1.048100299380978</v>
       </c>
       <c r="L25">
-        <v>1.007937982044682</v>
+        <v>1.038105597037445</v>
       </c>
       <c r="M25">
-        <v>1.020584350596761</v>
+        <v>1.052578908130681</v>
       </c>
       <c r="N25">
-        <v>1.007610572107254</v>
+        <v>1.016941206709158</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.050185005484387</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045129204299144</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023021886935844</v>
+        <v>1.021433716217286</v>
       </c>
       <c r="D2">
-        <v>1.039931209068396</v>
+        <v>1.037794332250051</v>
       </c>
       <c r="E2">
-        <v>1.031050144513853</v>
+        <v>1.029471620633926</v>
       </c>
       <c r="F2">
-        <v>1.04451191649465</v>
+        <v>1.043007701468252</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053671166287062</v>
+        <v>1.052678846562914</v>
       </c>
       <c r="J2">
-        <v>1.04453516421128</v>
+        <v>1.042991716612</v>
       </c>
       <c r="K2">
-        <v>1.050860917073372</v>
+        <v>1.048751093395016</v>
       </c>
       <c r="L2">
-        <v>1.042093207792629</v>
+        <v>1.040535087872189</v>
       </c>
       <c r="M2">
-        <v>1.055384097045562</v>
+        <v>1.053898703436966</v>
       </c>
       <c r="N2">
-        <v>1.018141636605556</v>
+        <v>1.018199861294908</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05240509182381</v>
+        <v>1.051229520459016</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047033309280173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045550192351187</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024787470365605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027178774534594</v>
+        <v>1.025359091835171</v>
       </c>
       <c r="D3">
-        <v>1.042720249247992</v>
+        <v>1.040332535409856</v>
       </c>
       <c r="E3">
-        <v>1.034728936163159</v>
+        <v>1.032918392840337</v>
       </c>
       <c r="F3">
-        <v>1.047327022356605</v>
+        <v>1.04563695731657</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054805895173535</v>
+        <v>1.053672168007224</v>
       </c>
       <c r="J3">
-        <v>1.046954975725185</v>
+        <v>1.045181529722008</v>
       </c>
       <c r="K3">
-        <v>1.052834207571279</v>
+        <v>1.050474106847745</v>
       </c>
       <c r="L3">
-        <v>1.044935930743462</v>
+        <v>1.04314671375398</v>
       </c>
       <c r="M3">
-        <v>1.057388143879468</v>
+        <v>1.055717396092768</v>
       </c>
       <c r="N3">
-        <v>1.018999976339001</v>
+        <v>1.018811857768269</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053991133218725</v>
+        <v>1.052668871362394</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048425932580538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046765575688438</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025163866891241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029819868477271</v>
+        <v>1.027855028798993</v>
       </c>
       <c r="D4">
-        <v>1.044496737705241</v>
+        <v>1.041950918155965</v>
       </c>
       <c r="E4">
-        <v>1.03707147531919</v>
+        <v>1.035115241032606</v>
       </c>
       <c r="F4">
-        <v>1.049122512627941</v>
+        <v>1.047315532101627</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055519468864924</v>
+        <v>1.054296656801943</v>
       </c>
       <c r="J4">
-        <v>1.048490359769557</v>
+        <v>1.046572076515839</v>
       </c>
       <c r="K4">
-        <v>1.05408622470209</v>
+        <v>1.051568083523985</v>
       </c>
       <c r="L4">
-        <v>1.046742157141349</v>
+        <v>1.04480755252472</v>
       </c>
       <c r="M4">
-        <v>1.058662129055308</v>
+        <v>1.056874565353422</v>
       </c>
       <c r="N4">
-        <v>1.019544200831652</v>
+        <v>1.019200360404186</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054999387978876</v>
+        <v>1.053584677565207</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049312080855925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047540061334154</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025400462859465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030923571695588</v>
+        <v>1.028898362539199</v>
       </c>
       <c r="D5">
-        <v>1.045242253275063</v>
+        <v>1.042630591930106</v>
       </c>
       <c r="E5">
-        <v>1.038052140913164</v>
+        <v>1.036035271557511</v>
       </c>
       <c r="F5">
-        <v>1.049875165708442</v>
+        <v>1.048019525503137</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055817757913179</v>
+        <v>1.05455779972123</v>
       </c>
       <c r="J5">
-        <v>1.049133317809164</v>
+        <v>1.047154665937888</v>
       </c>
       <c r="K5">
-        <v>1.054611968101732</v>
+        <v>1.052027950091127</v>
       </c>
       <c r="L5">
-        <v>1.047498371250461</v>
+        <v>1.045503198735957</v>
       </c>
       <c r="M5">
-        <v>1.059196256511498</v>
+        <v>1.057360028821128</v>
       </c>
       <c r="N5">
-        <v>1.019772721805393</v>
+        <v>1.019363623348277</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055422105646873</v>
+        <v>1.05396888244123</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049690895222222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047873009467014</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025499991699383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031113927336818</v>
+        <v>1.029078146462837</v>
       </c>
       <c r="D6">
-        <v>1.045373435604576</v>
+        <v>1.042750357360396</v>
       </c>
       <c r="E6">
-        <v>1.038221958805868</v>
+        <v>1.036194472584018</v>
       </c>
       <c r="F6">
-        <v>1.050005929819448</v>
+        <v>1.048141826173018</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05587140353759</v>
+        <v>1.054604931461419</v>
       </c>
       <c r="J6">
-        <v>1.049246424568591</v>
+        <v>1.047257203844575</v>
       </c>
       <c r="K6">
-        <v>1.054706227089174</v>
+        <v>1.052110786570814</v>
       </c>
       <c r="L6">
-        <v>1.047630503307989</v>
+        <v>1.045624726578793</v>
       </c>
       <c r="M6">
-        <v>1.059290323472749</v>
+        <v>1.057445632157199</v>
       </c>
       <c r="N6">
-        <v>1.019813795468135</v>
+        <v>1.019392995858458</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055496551835767</v>
+        <v>1.054036630503619</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049766174108986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047941083064744</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025518678913913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029850034466792</v>
+        <v>1.027893049277804</v>
       </c>
       <c r="D7">
-        <v>1.04452393418755</v>
+        <v>1.041983421528677</v>
       </c>
       <c r="E7">
-        <v>1.037099920646198</v>
+        <v>1.035151498654086</v>
       </c>
       <c r="F7">
-        <v>1.049145380676316</v>
+        <v>1.047342956825716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055533852609362</v>
+        <v>1.05431493281811</v>
       </c>
       <c r="J7">
-        <v>1.048513989724742</v>
+        <v>1.046603353894999</v>
       </c>
       <c r="K7">
-        <v>1.054110295104991</v>
+        <v>1.051597392003967</v>
       </c>
       <c r="L7">
-        <v>1.046767430414528</v>
+        <v>1.044840542888465</v>
       </c>
       <c r="M7">
-        <v>1.058681937149141</v>
+        <v>1.056898873594148</v>
       </c>
       <c r="N7">
-        <v>1.019554999912143</v>
+        <v>1.019237276021471</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055015064449684</v>
+        <v>1.053603915566601</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049348956343206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047582644356447</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025409950806735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024456569890104</v>
+        <v>1.022818365837712</v>
       </c>
       <c r="D8">
-        <v>1.040901391434732</v>
+        <v>1.038700151105695</v>
       </c>
       <c r="E8">
-        <v>1.032320846919941</v>
+        <v>1.030691996652052</v>
       </c>
       <c r="F8">
-        <v>1.045484950080583</v>
+        <v>1.043935067988807</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054072150170989</v>
+        <v>1.053046734737193</v>
       </c>
       <c r="J8">
-        <v>1.045378366447751</v>
+        <v>1.043784744543754</v>
       </c>
       <c r="K8">
-        <v>1.051554426717608</v>
+        <v>1.049380229785465</v>
       </c>
       <c r="L8">
-        <v>1.04308011059951</v>
+        <v>1.041471674804127</v>
       </c>
       <c r="M8">
-        <v>1.056082127905109</v>
+        <v>1.054551065219684</v>
       </c>
       <c r="N8">
-        <v>1.018443979594474</v>
+        <v>1.018504314774032</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052957527314738</v>
+        <v>1.051745813355041</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047546307438674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046019945443521</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024931271320441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014536852690673</v>
+        <v>1.013468793208191</v>
       </c>
       <c r="D9">
-        <v>1.034265190253267</v>
+        <v>1.032674401869953</v>
       </c>
       <c r="E9">
-        <v>1.023571112714462</v>
+        <v>1.022511991162256</v>
       </c>
       <c r="F9">
-        <v>1.038805929137977</v>
+        <v>1.037710226799663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051316563194066</v>
+        <v>1.050636339564154</v>
       </c>
       <c r="J9">
-        <v>1.039586517740378</v>
+        <v>1.038554737247728</v>
       </c>
       <c r="K9">
-        <v>1.046825767068278</v>
+        <v>1.045258705173982</v>
       </c>
       <c r="L9">
-        <v>1.036292999947059</v>
+        <v>1.035250088545475</v>
       </c>
       <c r="M9">
-        <v>1.051299288862527</v>
+        <v>1.05021973792945</v>
       </c>
       <c r="N9">
-        <v>1.016384811362554</v>
+        <v>1.017050279504814</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049172285312882</v>
+        <v>1.048317902759268</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044199755264547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043102393082109</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024015807263143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007716057024334</v>
+        <v>1.00709081530124</v>
       </c>
       <c r="D10">
-        <v>1.029757363659762</v>
+        <v>1.02862150945511</v>
       </c>
       <c r="E10">
-        <v>1.017594705168493</v>
+        <v>1.016975947130746</v>
       </c>
       <c r="F10">
-        <v>1.034328246101796</v>
+        <v>1.033575330844473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049416697560173</v>
+        <v>1.048997656674228</v>
       </c>
       <c r="J10">
-        <v>1.035626845875655</v>
+        <v>1.035025898695624</v>
       </c>
       <c r="K10">
-        <v>1.043609351037587</v>
+        <v>1.042492532877205</v>
       </c>
       <c r="L10">
-        <v>1.03165338599801</v>
+        <v>1.031045314147923</v>
       </c>
       <c r="M10">
-        <v>1.048104173012697</v>
+        <v>1.047363726846432</v>
       </c>
       <c r="N10">
-        <v>1.014987968511732</v>
+        <v>1.016191300948815</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046694521611632</v>
+        <v>1.0461085487028</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041942239600095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041164905786256</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02340299227525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005324928619551</v>
+        <v>1.004868155142699</v>
       </c>
       <c r="D11">
-        <v>1.028392939919802</v>
+        <v>1.027416296175465</v>
       </c>
       <c r="E11">
-        <v>1.015578984540397</v>
+        <v>1.015127357879013</v>
       </c>
       <c r="F11">
-        <v>1.033350926487005</v>
+        <v>1.032720796284396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048985277589109</v>
+        <v>1.048654328354145</v>
       </c>
       <c r="J11">
-        <v>1.034477850004853</v>
+        <v>1.034039806199692</v>
       </c>
       <c r="K11">
-        <v>1.042798561155589</v>
+        <v>1.041839062423075</v>
       </c>
       <c r="L11">
-        <v>1.030212965181561</v>
+        <v>1.029769523833751</v>
       </c>
       <c r="M11">
-        <v>1.047670156871275</v>
+        <v>1.047050946879605</v>
       </c>
       <c r="N11">
-        <v>1.014684341885674</v>
+        <v>1.016219465651199</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046783116953897</v>
+        <v>1.046293329574745</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041401545328892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040738655432038</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023332685323208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004655792015207</v>
+        <v>1.004228224663079</v>
       </c>
       <c r="D12">
-        <v>1.028103135214015</v>
+        <v>1.027152365519965</v>
       </c>
       <c r="E12">
-        <v>1.015049002525892</v>
+        <v>1.014626394652904</v>
       </c>
       <c r="F12">
-        <v>1.033342383263388</v>
+        <v>1.032732324447546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048973350981731</v>
+        <v>1.048651569051517</v>
       </c>
       <c r="J12">
-        <v>1.034264409083166</v>
+        <v>1.033854710190702</v>
       </c>
       <c r="K12">
-        <v>1.042711027599215</v>
+        <v>1.041777223786786</v>
       </c>
       <c r="L12">
-        <v>1.029893457193609</v>
+        <v>1.029478640240433</v>
       </c>
       <c r="M12">
-        <v>1.047857510506602</v>
+        <v>1.047258190508246</v>
       </c>
       <c r="N12">
-        <v>1.014690037125628</v>
+        <v>1.01632466442894</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047254855799189</v>
+        <v>1.046780958888186</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041339657264446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04069493504585</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023372686583439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00528982433125</v>
+        <v>1.004768658097388</v>
       </c>
       <c r="D13">
-        <v>1.028644850464053</v>
+        <v>1.027605883005083</v>
       </c>
       <c r="E13">
-        <v>1.015647452008518</v>
+        <v>1.015132282131558</v>
       </c>
       <c r="F13">
-        <v>1.034107134732473</v>
+        <v>1.033428603343829</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04930187992811</v>
+        <v>1.04892023471438</v>
       </c>
       <c r="J13">
-        <v>1.03478017557992</v>
+        <v>1.034280673767153</v>
       </c>
       <c r="K13">
-        <v>1.043200831098783</v>
+        <v>1.042180318340856</v>
       </c>
       <c r="L13">
-        <v>1.030437839722184</v>
+        <v>1.029932121991009</v>
       </c>
       <c r="M13">
-        <v>1.048566881488465</v>
+        <v>1.047900232688519</v>
       </c>
       <c r="N13">
-        <v>1.014945455646229</v>
+        <v>1.016465865825953</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048090242032843</v>
+        <v>1.047563237095669</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041683487951732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040977212950899</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023505934069275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006324394031518</v>
+        <v>1.005683267228121</v>
       </c>
       <c r="D14">
-        <v>1.029401533205288</v>
+        <v>1.028250374128231</v>
       </c>
       <c r="E14">
-        <v>1.016578036843103</v>
+        <v>1.015944121545229</v>
       </c>
       <c r="F14">
-        <v>1.034992467249429</v>
+        <v>1.034226918575941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049685984114333</v>
+        <v>1.049232264703793</v>
       </c>
       <c r="J14">
-        <v>1.035471698940164</v>
+        <v>1.034856831214109</v>
       </c>
       <c r="K14">
-        <v>1.043805763666231</v>
+        <v>1.042674792606583</v>
       </c>
       <c r="L14">
-        <v>1.031210512296542</v>
+        <v>1.030588074423574</v>
       </c>
       <c r="M14">
-        <v>1.049299474952168</v>
+        <v>1.04854715832375</v>
       </c>
       <c r="N14">
-        <v>1.015237558763559</v>
+        <v>1.016583028238821</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04884146226497</v>
+        <v>1.048246813774642</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042112599946602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041328360620918</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.0236422610641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006867468414291</v>
+        <v>1.006170764266432</v>
       </c>
       <c r="D15">
-        <v>1.029777001006682</v>
+        <v>1.028573877258629</v>
       </c>
       <c r="E15">
-        <v>1.017058488963523</v>
+        <v>1.016369514792846</v>
       </c>
       <c r="F15">
-        <v>1.035392970305433</v>
+        <v>1.03458719542067</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04986007979197</v>
+        <v>1.049374097797029</v>
       </c>
       <c r="J15">
-        <v>1.035807939439747</v>
+        <v>1.03513951669836</v>
       </c>
       <c r="K15">
-        <v>1.0440894626065</v>
+        <v>1.042907276134168</v>
       </c>
       <c r="L15">
-        <v>1.031595539247375</v>
+        <v>1.030918939810632</v>
       </c>
       <c r="M15">
-        <v>1.049608532197365</v>
+        <v>1.048816576853315</v>
       </c>
       <c r="N15">
-        <v>1.015367117999537</v>
+        <v>1.016625658727072</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049123038577546</v>
+        <v>1.048497075034997</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042318997797007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041499116314829</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02369952260889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009637197235886</v>
+        <v>1.008701512724314</v>
       </c>
       <c r="D16">
-        <v>1.031588480795949</v>
+        <v>1.03015879535279</v>
       </c>
       <c r="E16">
-        <v>1.019473163962607</v>
+        <v>1.018547059949623</v>
       </c>
       <c r="F16">
-        <v>1.037173950110029</v>
+        <v>1.036193942413496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05061772794735</v>
+        <v>1.049997708688565</v>
       </c>
       <c r="J16">
-        <v>1.03739802455495</v>
+        <v>1.03649840222976</v>
       </c>
       <c r="K16">
-        <v>1.045374819557932</v>
+        <v>1.043968924260207</v>
       </c>
       <c r="L16">
-        <v>1.03346383352056</v>
+        <v>1.032553607195969</v>
       </c>
       <c r="M16">
-        <v>1.05086815418837</v>
+        <v>1.049904219735275</v>
       </c>
       <c r="N16">
-        <v>1.015913878552342</v>
+        <v>1.016782122665872</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050080189933067</v>
+        <v>1.049318272065809</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043230909079097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042253157416227</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023924282300178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011221863399716</v>
+        <v>1.010177529943056</v>
       </c>
       <c r="D17">
-        <v>1.032583442706717</v>
+        <v>1.031047139742</v>
       </c>
       <c r="E17">
-        <v>1.020840955526022</v>
+        <v>1.019806776490721</v>
       </c>
       <c r="F17">
-        <v>1.038072784547536</v>
+        <v>1.037011729642974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050995941302998</v>
+        <v>1.050316409050114</v>
       </c>
       <c r="J17">
-        <v>1.038255529000794</v>
+        <v>1.037250141730385</v>
       </c>
       <c r="K17">
-        <v>1.04604330784646</v>
+        <v>1.044531851302621</v>
       </c>
       <c r="L17">
-        <v>1.034493175291919</v>
+        <v>1.033476210627503</v>
       </c>
       <c r="M17">
-        <v>1.051444641299514</v>
+        <v>1.050400504739368</v>
       </c>
       <c r="N17">
-        <v>1.016180209001832</v>
+        <v>1.016871190438265</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050407756822851</v>
+        <v>1.049582363926858</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043706107760587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042653968578602</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024027030352616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011917211812134</v>
+        <v>1.010853538589219</v>
       </c>
       <c r="D18">
-        <v>1.032939646553576</v>
+        <v>1.031381329605492</v>
       </c>
       <c r="E18">
-        <v>1.021413427237763</v>
+        <v>1.020359791316</v>
       </c>
       <c r="F18">
-        <v>1.03824552134813</v>
+        <v>1.037168478895004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051065353095676</v>
+        <v>1.050378691513633</v>
       </c>
       <c r="J18">
-        <v>1.038537440025725</v>
+        <v>1.037512691302772</v>
       </c>
       <c r="K18">
-        <v>1.04621303105165</v>
+        <v>1.044679507450166</v>
       </c>
       <c r="L18">
-        <v>1.034872497796767</v>
+        <v>1.033836104868409</v>
       </c>
       <c r="M18">
-        <v>1.05143520152871</v>
+        <v>1.050375061618661</v>
       </c>
       <c r="N18">
-        <v>1.016217796112493</v>
+        <v>1.016861757759844</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050164546683777</v>
+        <v>1.049326331012958</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04381458435968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042745706962373</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024021253467611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011830849393484</v>
+        <v>1.010816519818354</v>
       </c>
       <c r="D19">
-        <v>1.032742390754726</v>
+        <v>1.031229525620934</v>
       </c>
       <c r="E19">
-        <v>1.021288399150876</v>
+        <v>1.020283555195356</v>
       </c>
       <c r="F19">
-        <v>1.037773909220714</v>
+        <v>1.036732157693046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050873874535986</v>
+        <v>1.050220804582304</v>
       </c>
       <c r="J19">
-        <v>1.038322173259341</v>
+        <v>1.037344752410984</v>
       </c>
       <c r="K19">
-        <v>1.045957262609106</v>
+        <v>1.044468349997442</v>
       </c>
       <c r="L19">
-        <v>1.034686884266976</v>
+        <v>1.033698401196535</v>
       </c>
       <c r="M19">
-        <v>1.050909761580663</v>
+        <v>1.049884290134443</v>
       </c>
       <c r="N19">
-        <v>1.016065990449169</v>
+        <v>1.016753757974692</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049426571764546</v>
+        <v>1.048615506947712</v>
       </c>
       <c r="Q19">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R19">
-        <v>1.043640083870705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042603373723206</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023925407965822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009528302432442</v>
+        <v>1.008753828512542</v>
       </c>
       <c r="D20">
-        <v>1.030971774147849</v>
+        <v>1.029691856058317</v>
       </c>
       <c r="E20">
-        <v>1.0191854241502</v>
+        <v>1.0184185696774</v>
       </c>
       <c r="F20">
-        <v>1.035525019183253</v>
+        <v>1.034661470150641</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049941730108274</v>
+        <v>1.049436168689353</v>
       </c>
       <c r="J20">
-        <v>1.036696801572027</v>
+        <v>1.035951425949227</v>
       </c>
       <c r="K20">
-        <v>1.044491039950652</v>
+        <v>1.043231957348377</v>
       </c>
       <c r="L20">
-        <v>1.032899106220031</v>
+        <v>1.032145102029922</v>
       </c>
       <c r="M20">
-        <v>1.048970699399908</v>
+        <v>1.048121042436941</v>
       </c>
       <c r="N20">
-        <v>1.015373346850521</v>
+        <v>1.016352219772008</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047369833580873</v>
+        <v>1.046697425757385</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042607316642166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041733495813178</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023570763244108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004279669285276</v>
+        <v>1.004002590693314</v>
       </c>
       <c r="D21">
-        <v>1.027470800450883</v>
+        <v>1.026659944092721</v>
       </c>
       <c r="E21">
-        <v>1.014583601611601</v>
+        <v>1.014309682007529</v>
       </c>
       <c r="F21">
-        <v>1.031980251701378</v>
+        <v>1.031479679992625</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048419614340238</v>
+        <v>1.048200971624665</v>
       </c>
       <c r="J21">
-        <v>1.033599542663244</v>
+        <v>1.033333913231009</v>
       </c>
       <c r="K21">
-        <v>1.041949772982377</v>
+        <v>1.041153246513667</v>
       </c>
       <c r="L21">
-        <v>1.029293852185654</v>
+        <v>1.029024931467456</v>
       </c>
       <c r="M21">
-        <v>1.046380062863139</v>
+        <v>1.045888234228529</v>
       </c>
       <c r="N21">
-        <v>1.014261223556087</v>
+        <v>1.016045466923188</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04527908363348</v>
+        <v>1.044889836700506</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040813783689883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040267334605294</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023108424869169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000930920855028</v>
+        <v>1.000971236487683</v>
       </c>
       <c r="D22">
-        <v>1.025249568950643</v>
+        <v>1.024738152796154</v>
       </c>
       <c r="E22">
-        <v>1.011657154707303</v>
+        <v>1.011696968800603</v>
       </c>
       <c r="F22">
-        <v>1.029762728380181</v>
+        <v>1.029494252638746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047449306536179</v>
+        <v>1.047414153915565</v>
       </c>
       <c r="J22">
-        <v>1.031630309033509</v>
+        <v>1.0316688599748</v>
       </c>
       <c r="K22">
-        <v>1.040336890471034</v>
+        <v>1.039834971456643</v>
       </c>
       <c r="L22">
-        <v>1.027001165028335</v>
+        <v>1.027040214055379</v>
       </c>
       <c r="M22">
-        <v>1.044766771900701</v>
+        <v>1.04450322353833</v>
       </c>
       <c r="N22">
-        <v>1.013556512833122</v>
+        <v>1.015846039979065</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044002279284024</v>
+        <v>1.043793699402843</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039660027303674</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039320580472191</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022815553700986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002697337670027</v>
+        <v>1.002553304548089</v>
       </c>
       <c r="D23">
-        <v>1.026414209768568</v>
+        <v>1.025731788205003</v>
       </c>
       <c r="E23">
-        <v>1.013198334193827</v>
+        <v>1.013056012892639</v>
       </c>
       <c r="F23">
-        <v>1.030929208491698</v>
+        <v>1.030527438964063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047955910701004</v>
+        <v>1.047814680251024</v>
       </c>
       <c r="J23">
-        <v>1.032663365308316</v>
+        <v>1.032525448704119</v>
       </c>
       <c r="K23">
-        <v>1.041178819029784</v>
+        <v>1.040508744685736</v>
       </c>
       <c r="L23">
-        <v>1.028205922659178</v>
+        <v>1.028066263032304</v>
       </c>
       <c r="M23">
-        <v>1.04561266158386</v>
+        <v>1.045218076345627</v>
       </c>
       <c r="N23">
-        <v>1.013923497520186</v>
+        <v>1.015901229120431</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044671740714085</v>
+        <v>1.044359454681299</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040245735537068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039786454557998</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022961189657944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009530616783042</v>
+        <v>1.008761780101598</v>
       </c>
       <c r="D24">
-        <v>1.030943721540148</v>
+        <v>1.02966872173979</v>
       </c>
       <c r="E24">
-        <v>1.019177980907646</v>
+        <v>1.018416691358969</v>
       </c>
       <c r="F24">
-        <v>1.035465591640689</v>
+        <v>1.034605957629204</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049910725108069</v>
+        <v>1.049409207079918</v>
       </c>
       <c r="J24">
-        <v>1.036666665820841</v>
+        <v>1.035926674753904</v>
       </c>
       <c r="K24">
-        <v>1.044448381064801</v>
+        <v>1.043194111483194</v>
       </c>
       <c r="L24">
-        <v>1.032876476917895</v>
+        <v>1.032127928190787</v>
       </c>
       <c r="M24">
-        <v>1.048897258034437</v>
+        <v>1.048051437427453</v>
       </c>
       <c r="N24">
-        <v>1.015349654700502</v>
+        <v>1.01633251546079</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047271259044875</v>
+        <v>1.046601854653249</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042549995569043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041676905137076</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023552725719225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017175809350689</v>
+        <v>1.015940504620361</v>
       </c>
       <c r="D25">
-        <v>1.036036788586221</v>
+        <v>1.034272514417085</v>
       </c>
       <c r="E25">
-        <v>1.02589641577792</v>
+        <v>1.024670550492841</v>
       </c>
       <c r="F25">
-        <v>1.040579491908613</v>
+        <v>1.039353483665161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052066110169574</v>
+        <v>1.051285969843276</v>
       </c>
       <c r="J25">
-        <v>1.041138649614295</v>
+        <v>1.039943063437073</v>
       </c>
       <c r="K25">
-        <v>1.048100299380978</v>
+        <v>1.046361110006572</v>
       </c>
       <c r="L25">
-        <v>1.038105597037445</v>
+        <v>1.036897589585247</v>
       </c>
       <c r="M25">
-        <v>1.052578908130681</v>
+        <v>1.051370128319612</v>
       </c>
       <c r="N25">
-        <v>1.016941206709158</v>
+        <v>1.017408139917187</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050185005484387</v>
+        <v>1.049228349327381</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045129204299144</v>
+        <v>1.043912944473252</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024265045318252</v>
       </c>
     </row>
   </sheetData>
